--- a/hackerrank_submissions_olaf_.xlsx
+++ b/hackerrank_submissions_olaf_.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Olaf's hackerrank submissions" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hackerrank submissions" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -71,7 +71,9 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -389,7 +391,7 @@
     <col customWidth="1" max="1" min="1" width="35"/>
     <col customWidth="1" max="2" min="2" width="13"/>
     <col customWidth="1" max="3" min="3" width="10"/>
-    <col customWidth="1" max="4" min="4" width="5"/>
+    <col customWidth="1" max="4" min="4" width="6"/>
     <col customWidth="1" max="5" min="5" width="10"/>
     <col customWidth="1" max="6" min="6" width="150"/>
   </cols>
@@ -397,7 +399,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Challenge (link)</t>
+          <t>Challenge (link - in Excel click 'enable editing' if not visible)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/hackerrank_submissions_olaf_.xlsx
+++ b/hackerrank_submissions_olaf_.xlsx
@@ -380,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,7 +435,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>about 7 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -455,7 +455,7 @@
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#!/bin/python3
+          <t>#!/bin/python3
 def hourglassSum(A):
    n = len(A)
    maxSum = 7 * -9
@@ -469,8 +469,7 @@
 arr = []
 for _ in range(6):
     arr.append(list(map(int, input().rstrip().split())))
-print (hourglassSum(arr))
-</t>
+print (hourglassSum(arr))</t>
         </is>
       </c>
     </row>
@@ -481,7 +480,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>10 months ago</t>
+          <t>about 7 hours ago</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
@@ -501,23 +500,12 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>#!/bin/python3
-import math
-import os
-import random
-import re
-import sys
-# Complete the aVeryBigSum function below.
-def aVeryBigSum(ar):
+          <t>def aVeryBigSum(ar):
     result = 0
     for x in ar  : result += x
     return result
-if __name__ == '__main__':
-    fptr = open(os.environ['OUTPUT_PATH'], 'w')
-    ar = list(map(int, input().rstrip().split()))
-    result = aVeryBigSum(ar)
-    fptr.write(str(result) + '\n')
--- Warning: Some lines may be missing after this ! --</t>
+_ = int(input())
+print(aVeryBigSum(list(map(int, input().rstrip().split()))))</t>
         </is>
       </c>
     </row>
@@ -567,7 +555,7 @@
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>about 7 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
@@ -587,7 +575,7 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#!/bin/python3
+          <t>#!/bin/python3
 def alternatingCharacters(s):
     countIgnore = 0
     if len(s) &gt; 0 :
@@ -597,8 +585,7 @@
             c1 = c2
     return countIgnore
 for _ in range(int(input())):
-    print(alternatingCharacters(input()))
-</t>
+    print(alternatingCharacters(input()))</t>
         </is>
       </c>
     </row>
@@ -629,7 +616,7 @@
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve"># how to use any and all in this ?
+          <t># how to use any and all in this ?
 #
 def isPalindromic(x) : # x is of type int
    xStr = str(x)
@@ -644,7 +631,8 @@
 if resultTrue:
     resultTrue = False
     for y in intList :
-</t>
+        if isPalindromic(y) : resultTrue = True
+print (resultTrue)</t>
         </is>
       </c>
     </row>
@@ -675,7 +663,7 @@
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#!/bin/python3
+          <t>#!/bin/python3
 def appendAndDelete(s1, s2, k):
     i = 0
     while i &lt; min(len(s1),len(s2)) and s1[i] == s2[i]: i += 1
@@ -683,8 +671,7 @@
     elif i % 2 == 1       : return len(s2[i:]) &lt; k-1
     else                  : return False
 result = appendAndDelete(input(), input(), int(input()))
-print ('Yes' if result else 'No')
-</t>
+print ('Yes' if result else 'No')</t>
         </is>
       </c>
     </row>
@@ -751,16 +738,14 @@
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-def gameWithCells(n, m): 
+          <t>def gameWithCells(n, m): 
     if m % 2 == 1 : m += 1
     if n % 2 == 1 : n += 1
     return int(m * n / 4)
 nm = input().split()
 n = int(nm[0])
 m = int(nm[1])
-print(gameWithCells(n, m))
-</t>
+print(gameWithCells(n, m))</t>
         </is>
       </c>
     </row>
@@ -791,7 +776,7 @@
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#!/bin/python3
+          <t>#!/bin/python3
 def arrayManipulation(n, queries):
    arr = [0]*(n+1)
    for i in range(len(queries)):
@@ -806,10 +791,11 @@
 if __name__ == '__main__':
     nm = input().split()
     n = int(nm[0])
+    m = int(nm[1])
+    queries = []
     for _ in range(m):
         queries.append(list(map(int, input().rstrip().split())))
-    print(arrayManipulation(n, queries))
-</t>
+    print(arrayManipulation(n, queries))</t>
         </is>
       </c>
     </row>
@@ -840,7 +826,7 @@
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">import numpy
+          <t>import numpy
 N, ignore = map(int,input().split())
 arr1, arr2 = [], []
 for _ in range(N) : arr1.append(list(map(int, input().split())))
@@ -852,8 +838,7 @@
 print (numpy.multiply(a, b))
 print (numpy.floor_divide(a, b))
 print (numpy.mod(a, b))
-print (numpy.power(a, b))
-</t>
+print (numpy.power(a, b))</t>
         </is>
       </c>
     </row>
@@ -916,11 +901,10 @@
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#!/bin/python3
+          <t>#!/bin/python3
 ignore = input()
 arr = input().split()
-print (' '.join(arr[::-1]))
-</t>
+print (' '.join(arr[::-1]))</t>
         </is>
       </c>
     </row>
@@ -951,7 +935,7 @@
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#include &lt;cmath&gt;
+          <t>#include &lt;cmath&gt;
 #include &lt;cstdio&gt;
 #include &lt;vector&gt;
 #include &lt;iostream&gt;
@@ -965,7 +949,8 @@
         { cin &gt;&gt; arr[i-1]; }
     for (int i=n; i &gt; 0; i--)
        { cout &lt;&lt; arr[i-1] &lt;&lt; ' '; }
-</t>
+    return 0;
+}</t>
         </is>
       </c>
     </row>
@@ -1010,7 +995,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>about 7 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -1030,15 +1015,14 @@
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#!/bin/python3
+          <t>#!/bin/python3
 n,m = map(int,input().split())
 arr = []
 for _ in range(n):
     arr.append(list(map(int, input().rstrip().split())))
 k = int(input())
 for row in sorted(arr, key=lambda arr:arr[k]):
-    print (' '.join(map(str,row)))
-</t>
+    print (' '.join(map(str,row)))</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1053,7 @@
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#include &lt;iostream&gt;
+          <t>#include &lt;iostream&gt;
 #include &lt;cstdio&gt;
 using namespace std;
 int main() {
@@ -1077,8 +1061,7 @@
     scanf("%d %ld %c %f %lf", &amp;i, &amp;l, &amp;c, &amp;f, &amp;d); 
     printf("%i\n%li\n%c\n%.03f\n%.09lf\n", i, l, c, f, d);
     return 0;
-}
-</t>
+}</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1072,7 @@
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>about 6 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -1109,7 +1092,7 @@
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#!/bin/python3
+          <t>#!/bin/python3
 def beautifulBinaryString(b):
     count = 0
     b = list(b)
@@ -1118,8 +1101,7 @@
     return count
 _ = int(input())
 b = input()
-print (beautifulBinaryString(b))
-</t>
+print (beautifulBinaryString(b))</t>
         </is>
       </c>
     </row>
@@ -1150,11 +1132,10 @@
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#!/bin/python3
+          <t>#!/bin/python3
 ar_count = int(input())
 ar = list(map(int, input().rstrip().split()))
-print (ar.count(max(ar)))
-</t>
+print (ar.count(max(ar)))</t>
         </is>
       </c>
     </row>
@@ -1165,7 +1146,7 @@
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -1185,15 +1166,14 @@
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#!/bin/python
+          <t>#!/bin/python
 def bonAppetit(bill, k, b_charged):
     b_actual = (sum(bill)-bill[k])/2
     print 'Bon Appetit' if b_charged == b_actual else b_charged-b_actual
 n, k = map(int, raw_input().rstrip().split())
 bill = map(int, raw_input().rstrip().split())
 b = int(raw_input().strip())
-bonAppetit(bill, k, b)
-</t>
+bonAppetit(bill, k, b)</t>
         </is>
       </c>
     </row>
@@ -1297,16 +1277,14 @@
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-def catAndMouse(x, y, z):
+          <t>def catAndMouse(x, y, z):
     DistcatA =abs(x-z)
     DistcatB = abs(y - z)
     if DistcatA &lt; DistcatB : return 'Cat A'
     elif DistcatA &gt; DistcatB : return 'Cat B'
     else : return 'Mouse C'
 for _ in range(int(input())):
-    print(catAndMouse(*list(map(int,input().split()))))
-</t>
+    print(catAndMouse(*list(map(int,input().split()))))</t>
         </is>
       </c>
     </row>
@@ -1337,8 +1315,7 @@
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-A = set(map(int,input().split()))
+          <t>A = set(map(int,input().split()))
 n = int(input())
 isStrictSuperset = True
 for _ in range(n) :
@@ -1375,13 +1352,13 @@
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">T = int(input())
+          <t>T = int(input())
 for _ in range(T):
     _ = int(input())
     A = set(input().split())
     _ = int(input())
     B = set(input().split())
-    print(A &amp; B == A) </t>
+    print(A &amp; B == A)</t>
         </is>
       </c>
     </row>
@@ -1427,6 +1404,8 @@
         return Complex(self.real * no.real - self.imaginary * no.imaginary,
                        self.real * no.imaginary + self.imaginary * no.real)
     def __truediv__(self, no):
+        real_numerator = self.real * no.real + self.imaginary * no.imaginary
+        imag_numerator = self.imaginary * no.real - self.real * no.imaginary
         denom = no.real * no.real + no.imaginary * no.imaginary
         real_div = real_numerator / denom
         imag_div = imag_numerator / denom
@@ -1434,7 +1413,18 @@
     def mod(self):
         return Complex(sqrt(self.real ** 2 + self.imaginary ** 2), 0)
     def __str__(self):
--- Warning: Some lines may be missing after this ! --</t>
+        if self.imaginary == 0:
+            result = "%.2f+0.00i" % (self.real)
+        elif self.real == 0:
+            if self.imaginary &gt;= 0:
+                result = "0.00+%.2fi" % (self.imaginary)
+            else:
+                result = "0.00-%.2fi" % (abs(self.imaginary))
+        elif self.imaginary &gt; 0:
+            result = "%.2f+%.2fi" % (self.real, self.imaginary)
+        else:
+            result = "%.2f-%.2fi" % (self.real, abs(self.imaginary))
+        return result</t>
         </is>
       </c>
     </row>
@@ -1585,14 +1575,13 @@
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">from collections import Counter
+          <t>from collections import Counter
 numberPrinted = 0
 counter = Counter(list(input()));
 for letter, _count in sorted(counter.items(), key=lambda item: (item[1],-ord(item[0])), reverse=True):
     print (letter+' '+str(_count))
     numberPrinted += 1 
-    if numberPrinted  == 3 : break
-</t>
+    if numberPrinted  == 3 : break</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1592,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>about 5 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -1623,7 +1612,7 @@
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#!/bin/python3
+          <t>#!/bin/python3
 def compareTriplets(a, b):
     alice, bob = 0, 0
     for i in range(len(a)) :
@@ -1634,8 +1623,7 @@
 a = list(map(int, input().rstrip().split()))
 b = list(map(int, input().rstrip().split()))
 result = compareTriplets(a, b)
-print(' '.join(map(str, result)))
-</t>
+print(' '.join(map(str, result)))</t>
         </is>
       </c>
     </row>
@@ -1646,7 +1634,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>8 months ago</t>
+          <t>about 7 hours ago</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1666,21 +1654,14 @@
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t># Complete the compare_lists function below.
-#
-# For your reference:
-#
-# SinglyLinkedListNode:
-#     int data
-#     SinglyLinkedListNode next
-#
-#
+          <t># my submission starts here:
 def compare_lists(llist1, llist2):
     while llist1 != None :
         if llist2 == None or llist1.data != llist2.data : return 0
         llist1 = llist1.next
         llist2 = llist2.next
-    return 1</t>
+    return 1
+# ...and ends here.</t>
         </is>
       </c>
     </row>
@@ -1746,15 +1727,14 @@
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">import numpy
+          <t>import numpy
 arr1, arr2 = [], []
 N, M, ignore = map(int,input().split())
 for _ in range(N) : arr1.append(list(map(int, input().split())))
 for _ in range(M) : arr2.append(list(map(int, input().split())))
 numpy_arr1 = numpy.array(arr1)
 numpy_arr2 = numpy.array(arr2)
-print (numpy.concatenate((numpy_arr1, numpy_arr2)))
-</t>
+print (numpy.concatenate((numpy_arr1, numpy_arr2)))</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1745,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>about 5 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -1785,7 +1765,7 @@
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#include &lt;bits/stdc++.h&gt;
+          <t>#include &lt;bits/stdc++.h&gt;
 using namespace std;
 int main()
 {
@@ -1800,8 +1780,7 @@
     else 
         { cout &lt;&lt; numbers[n] &lt;&lt; endl; }
     return 0;
-}
-</t>
+}</t>
         </is>
       </c>
     </row>
@@ -1832,15 +1811,14 @@
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">def connectingTowns(n, routes):
+          <t>def connectingTowns(n, routes):
     result = routes[0]
     for i in range(1, n-1) : result *= routes[i]
     return result % 1234567
 for _ in range(int(input())):
     n = int(input())
     routes = list(map(int, input().rstrip().split()))
-    print (connectingTowns(n, routes))
-</t>
+    print (connectingTowns(n, routes))</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1849,7 @@
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#!/bin/python3
+          <t>#!/bin/python3
 from collections import Counter
 def countTriplets(arr, r):
     r2_candidates, r3_candidates = Counter(), Counter()
@@ -1883,8 +1861,7 @@
     return _count
 inp = list(map(int, input().split()))
 arr = list(map(int, input().rstrip().split()))
-print(countTriplets(arr, inp[1]))
-</t>
+print(countTriplets(arr, inp[1]))</t>
         </is>
       </c>
     </row>
@@ -1915,7 +1892,7 @@
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#!/bin/python3
+          <t>#!/bin/python3
 def counterGame(n):
     if n == 1 : return 'Richard'
     player = 'Louise'
@@ -1925,8 +1902,7 @@
         if n == 1 : return player
         player = 'Richard' if player == 'Louise' else 'Louise'
 for _ in range(int(input())):
-    print (counterGame(int(input())))
-</t>
+    print (counterGame(int(input())))</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1933,7 @@
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#!/bin/python3
+          <t>#!/bin/python3
 def countingValleys(s):
     level = 0; numberOfValleys = 0
     for i in range (len(s)) :
@@ -1965,8 +1941,7 @@
         if s[i] == 'D' and level == -1 : numberOfValleys += 1
     return numberOfValleys
 _ = int(input())
-print (countingValleys(input()))
-</t>
+print (countingValleys(input()))</t>
         </is>
       </c>
     </row>
@@ -1997,14 +1972,12 @@
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-def solve(n, m): 
+          <t>def solve(n, m): 
     return n * m  - 1
 nm = input().split()
 n = int(nm[0])
 m = int(nm[1])
-print(solve(n, m))
-</t>
+print(solve(n, m))</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2008,7 @@
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#!/bin/python3
+          <t>#!/bin/python3
 def maxRegion(grid, m, n):
    def size(i, j):
        if 0 &lt;= i &lt; len(grid) and 0 &lt;= j &lt; len(grid[i]) and grid[i][j] == 1:
@@ -2047,8 +2020,7 @@
 m = int(input())
 grid = []
 for _ in range(n): grid.append(list(map(int, input().split())))
-print (maxRegion(grid,m,n))
-</t>
+print (maxRegion(grid,m,n))</t>
         </is>
       </c>
     </row>
@@ -2059,7 +2031,7 @@
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>3 days ago</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
@@ -2079,7 +2051,7 @@
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#!/bin/python
+          <t>#!/bin/python
 def dayOfProgrammer(year):
     if year == 1918 :
         return "26.09.1918"
@@ -2089,8 +2061,7 @@
         isLeapYear = year % 400 == 0 or (year % 4 == 0 and year % 100 != 0)
     return '12.09.'+str(year) if isLeapYear else '13.09.'+str(year)
 year = int(input())
-print (dayOfProgrammer(year))
-</t>
+print (dayOfProgrammer(year))</t>
         </is>
       </c>
     </row>
@@ -2121,11 +2092,10 @@
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">def person_lister(f):
+          <t>def person_lister(f):
     def inner(people):
         return map(f, sorted(people, key=lambda p: int(p[2])))
-    return inner
-</t>
+    return inner</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2177,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>about 6 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -2227,8 +2197,7 @@
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-def deleteNode(head, position):
+          <t>def deleteNode(head, position):
     current = head
     for _ in range(position) :
         prev = current
@@ -2238,8 +2207,7 @@
     else :
         prev.next = current.next
     del current
-    return head
-</t>
+    return head</t>
         </is>
       </c>
     </row>
@@ -2344,7 +2312,7 @@
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">from html.parser import HTMLParser
+          <t>from html.parser import HTMLParser
 class MyHTMLParser(HTMLParser):
     def handle_starttag(self, tag, attrs):
         print(tag.lower())
@@ -2356,8 +2324,7 @@
             print('-&gt; ' + attr[0] + ' &gt; ' + (attr[1] if attr[1] else 'None'))
 parser = MyHTMLParser()
 for i in range(int(input())):
-    parser.feed(input())
-</t>
+    parser.feed(input())</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2335,7 @@
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>about 6 hours ago</t>
+          <t>1 day ago</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
@@ -2388,7 +2355,7 @@
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">#!/bin/python3
+          <t>#!/bin/python3
 def diagonalDifference(arr):
     sum1, sum2 = 0, 0
     n = len(arr)
@@ -2399,19 +2366,18 @@
 arr = []
 for _ in range(int(input())):
     arr.append(list(map(int, input().rstrip().split())))
-print(diagonalDifference(arr))
-</t>
+print(diagonalDifference(arr))</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/diwali-lights/problem", "Diwali Lights")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/divisible-sum-pairs/problem", "Divisible Sum Pairs")</f>
         <v/>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>8 months ago</t>
+          <t>about 20 hours ago</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -2421,7 +2387,7 @@
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E51" s="3" t="inlineStr">
@@ -2431,77 +2397,158 @@
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">def lights(n): return (2 ** n-1) % (10 ** 5)
-for _ in range(int(input())) : print (lights(int(input())))
-</t>
+          <t>#!/bin/python3
+def divisibleSumPairs(k, ar):
+    count = 0
+    for i, val1 in enumerate(ar):
+        for val2 in ar[i+1:] :
+            if (val1 + val2) % k == 0 : count += 1
+    return count
+_, k = map(int, input().split())
+print (divisibleSumPairs(k, list(map(int, input().rstrip().split()))))</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/diwali-lights/problem", "Diwali Lights")</f>
+        <v/>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>8 months ago</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>def lights(n): return (2 ** n-1) % (10 ** 5)
+for _ in range(int(input())) : print (lights(int(input())))</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-dot-and-cross/problem", "Dot and Cross")</f>
         <v/>
       </c>
-      <c r="B52" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D52" s="3" t="inlineStr">
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E52" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F52" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">import numpy
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F53" s="4" t="inlineStr">
+        <is>
+          <t>import numpy
 N = int(input())
 arr1, arr2 = [], []
 for _ in range(N) : arr1.append(list(map(int, input().split())))
 for _ in range(N) : arr2.append(list(map(int, input().split())))
 a = numpy.array(arr1)
 b = numpy.array(arr2)
-print(numpy.dot(a,b))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2">
+print(numpy.dot(a,b))</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/electronics-shop/problem", "Electronics Shop")</f>
+        <v/>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
+def getMoneySpent(keyboards, drives, b):
+    maxAmount = -1
+    for k in keyboards :
+        for d in drives :
+            _sum = k + d
+            if _sum &gt; b : break
+            maxAmount = max(maxAmount, _sum)
+        if maxAmount == b : break
+    return (maxAmount)
+b, _, _ = map(int, input().split())
+keyboards = sorted(list(map(int, input().rstrip().split())))
+drives = sorted(list(map(int, input().rstrip().split())))
+print (getMoneySpent(keyboards, drives, b))</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/exceptions/problem", "Exceptions")</f>
         <v/>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="B55" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E53" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F53" s="4" t="inlineStr">
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F55" s="4" t="inlineStr">
         <is>
           <t>for _ in range(int(input())) :
     try :
@@ -2512,102 +2559,100 @@
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2">
+    <row r="56">
+      <c r="A56" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/extra-long-factorials/problem", "Extra Long Factorials")</f>
         <v/>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
         <is>
           <t>4 months ago</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E54" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F54" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 def extraLongFactorials(n):
     return 1 if n == 1 else n * extraLongFactorials(n-1)
-print(extraLongFactorials(int(input())))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2">
+print(extraLongFactorials(int(input())))</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-eye-and-identity/problem", "Eye and Identity")</f>
         <v/>
       </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E55" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F55" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">import numpy
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F57" s="4" t="inlineStr">
+        <is>
+          <t>import numpy
 N, M = map(int,input().split())
 numpy.set_printoptions(sign=' ')
-print (numpy.eye(N, M, k = 0))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2">
+print (numpy.eye(N, M, k = 0))</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/find-angle/problem", "Find Angle MBC")</f>
         <v/>
       </c>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D56" s="3" t="inlineStr">
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E56" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F56" s="4" t="inlineStr">
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
         <is>
           <t>from math import degrees, atan
 AB = int(input()); BC = int(input())
@@ -2615,70 +2660,69 @@
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="2">
+    <row r="59">
+      <c r="A59" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/find-digits/problem", "Find Digits")</f>
         <v/>
       </c>
-      <c r="B57" s="3" t="inlineStr">
+      <c r="B59" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
         <is>
           <t>25.0</t>
         </is>
       </c>
-      <c r="E57" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F57" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F59" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 def findDigits(n):
     return len([ i for i in list(map(int, list(str(n)))) if i != 0 and n % i == 0])
 for _ in range(int(input())):
-    print (findDigits(int(input())))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2">
+    print (findDigits(int(input())))</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/find-hackerrank/problem", "Find HackerRank")</f>
         <v/>
       </c>
-      <c r="B58" s="3" t="inlineStr">
-        <is>
-          <t>25 days ago</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D58" s="3" t="inlineStr">
+      <c r="B60" s="3" t="inlineStr">
+        <is>
+          <t>27 days ago</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
         <is>
           <t>15.0</t>
         </is>
       </c>
-      <c r="E58" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F58" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">import re
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
+          <t>import re
 for _ in range(int(input())):
     line = input()
     startswith = re.search(r'^hackerrank', line)
@@ -2686,37 +2730,36 @@
     print (0 if startswith and endswith else \
            1 if startswith else \
            2 if endswith \
-           else -1)
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2">
+           else -1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/find-a-string/problem", "Find a string")</f>
         <v/>
       </c>
-      <c r="B59" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C59" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D59" s="3" t="inlineStr">
+      <c r="B61" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E59" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F59" s="4" t="inlineStr">
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F61" s="4" t="inlineStr">
         <is>
           <t>def count_substring(string, sub_string):
     _count = 0
@@ -2726,105 +2769,103 @@
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2">
+    <row r="62">
+      <c r="A62" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/find-point/problem", "Find the Point")</f>
         <v/>
       </c>
-      <c r="B60" s="3" t="inlineStr">
-        <is>
-          <t>about 6 hours ago</t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D60" s="3" t="inlineStr">
+      <c r="B62" s="3" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C62" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D62" s="3" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
-      <c r="E60" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F60" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 def findPoint(px, py, qx, qy): return [2*qx-px, 2*qy-py]
 for n_itr in range(int(input())):
     px, py, qx, qy = map(int, input().split())
-    print(' '.join(map(str, findPoint(px, py, qx, qy))))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2">
+    print(' '.join(map(str, findPoint(px, py, qx, qy))))</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/find-second-maximum-number-in-a-list/problem", "Find the Runner-Up Score!  ")</f>
         <v/>
       </c>
-      <c r="B61" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E61" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F61" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">if __name__ == '__main__':
+      <c r="E63" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F63" s="4" t="inlineStr">
+        <is>
+          <t>if __name__ == '__main__':
     n = int(input())
     arr = map(int, input().split())
-    print (sorted(list(set(arr)))[-2])
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2">
+    print (sorted(list(set(arr)))[-2])</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/finding-the-percentage/problem", "Finding the percentage")</f>
         <v/>
       </c>
-      <c r="B62" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C62" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D62" s="3" t="inlineStr">
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E62" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F62" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">if __name__ == '__main__':
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t>if __name__ == '__main__':
     n = int(input())
     student_marks = {}
     for _ in range(n):
@@ -2833,114 +2874,112 @@
         student_marks[name] = scores
     query_name = input()
     average = sum(student_marks[query_name])/len(student_marks[query_name])
-    print ('{:.2f}'.format(average))   </t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2">
+    print ('{:.2f}'.format(average))</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/flipping-bits/problem", "Flipping bits")</f>
         <v/>
       </c>
-      <c r="B63" s="3" t="inlineStr">
+      <c r="B65" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="E63" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F63" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F65" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 def flippingBits(n):
     binary = list(bin(n)[2:])
     binary = ['0']*(32-len(binary))+binary
     for i, val in enumerate(binary) : binary[i] = '0' if binary[i] == '1' else '1'
     return int(''.join(binary),2)
 for _ in range(int(input())):
-    print (flippingBits(int(input())))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2">
+    print (flippingBits(int(input())))</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/floor-ceil-and-rint/problem", "Floor, Ceil and Rint")</f>
         <v/>
       </c>
-      <c r="B64" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E64" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F64" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">import numpy
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F66" s="4" t="inlineStr">
+        <is>
+          <t>import numpy
 numpy.set_printoptions(sign=' ')
 arr = numpy.array(input().split(),float)
 print (numpy.floor(arr))
 print (numpy.ceil(arr))
-print (numpy.rint(arr))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2">
+print (numpy.rint(arr))</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/c-tutorial-for-loop/problem", "For Loop")</f>
         <v/>
       </c>
-      <c r="B65" s="3" t="inlineStr">
+      <c r="B67" s="3" t="inlineStr">
         <is>
           <t>3 months ago</t>
         </is>
       </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E65" s="3" t="inlineStr">
+      <c r="E67" s="3" t="inlineStr">
         <is>
           <t>C++</t>
         </is>
       </c>
-      <c r="F65" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#include &lt;iostream&gt;
+      <c r="F67" s="4" t="inlineStr">
+        <is>
+          <t>#include &lt;iostream&gt;
 #include &lt;cstdio&gt;
 using namespace std;
 int main() {
@@ -2955,54 +2994,50 @@
            { cout &lt;&lt; numbers[i]  &lt;&lt; endl; }
         else if ( i % 2 == 0)
             { cout &lt;&lt; "even" &lt;&lt; endl; }
+        else 
+            { cout &lt;&lt; "odd" &lt;&lt; endl; }
     }
     return 0;
-}
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2">
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/fraudulent-activity-notifications/problem", "Fraudulent Activity Notifications")</f>
         <v/>
       </c>
-      <c r="B66" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>about 7 hours ago</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="E66" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F66" s="4" t="inlineStr">
-        <is>
-          <t>#!/bin/python3
-import math
-import os
-import random
-import re
-import sys
-# Complete the activityNotifications function below.
-def activityNotifications(expenditure, d):
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F68" s="4" t="inlineStr">
+        <is>
+          <t>def activityNotifications(expenditure, d):
     countSortArray = [0] * 200          
     for i in range(d): countSortArray[expenditure[i]] += 1
     middlePoint = d // 2 + 1
     prevMiddlePoint = middlePoint - 1   
     def getMedian() :
         number, prevNumber = None, None
+        sum = 0
+        for i, val in enumerate(countSortArray) :
             sum += val
             if sum &gt;= prevMiddlePoint and prevNumber == None : prevNumber = i
             if sum &gt;= middlePoint: number = i; break
@@ -3010,38 +3045,46 @@
         return median
     countNotifications = 0
     for day in range(d, len(expenditure)) :
--- Warning: Some lines may be missing after this ! --</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2">
+        median = getMedian()
+        if 2 * median &lt;= expenditure[day] :
+            countNotifications += 1
+        countSortArray[expenditure[day]] += 1       # add day to countSortArray
+        countSortArray[expenditure[day - d]] -= 1   # remove first day in countSortArray
+    return countNotifications
+_, d = map(int, input().split())
+expenditure = list(map(int, input().rstrip().split()))
+print (activityNotifications(expenditure, d))</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/c-tutorial-functions/problem", "Functions")</f>
         <v/>
       </c>
-      <c r="B67" s="3" t="inlineStr">
+      <c r="B69" s="3" t="inlineStr">
         <is>
           <t>3 months ago</t>
         </is>
       </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E67" s="3" t="inlineStr">
+      <c r="E69" s="3" t="inlineStr">
         <is>
           <t>C++</t>
         </is>
       </c>
-      <c r="F67" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#include &lt;iostream&gt;
+      <c r="F69" s="4" t="inlineStr">
+        <is>
+          <t>#include &lt;iostream&gt;
 #include &lt;cstdio&gt;
 using namespace std;
 int max_of_four(int a, int b, int c, int d) {
@@ -3053,37 +3096,36 @@
     int ans = max_of_four(a, b, c, d);
     printf("%d", ans);
     return 0;
-}
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2">
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/re-group-groups/problem", "Group(), Groups() &amp; Groupdict()")</f>
         <v/>
       </c>
-      <c r="B68" s="3" t="inlineStr">
+      <c r="B70" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C68" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D68" s="3" t="inlineStr">
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E68" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F68" s="4" t="inlineStr">
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F70" s="4" t="inlineStr">
         <is>
           <t>import re
 m = re.search(r"([a-z0-9])\1", input())   
@@ -3091,34 +3133,34 @@
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2">
+    <row r="71">
+      <c r="A71" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/html-parser-part-1/problem", "HTML Parser - Part 1")</f>
         <v/>
       </c>
-      <c r="B69" s="3" t="inlineStr">
+      <c r="B71" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C69" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D69" s="3" t="inlineStr">
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="E69" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F69" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">from html.parser import HTMLParser 
+      <c r="E71" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F71" s="4" t="inlineStr">
+        <is>
+          <t>from html.parser import HTMLParser 
 class MyHTMLParser(HTMLParser):
     def handle_starttag(self, tag, attrs):
         print ("Start :", tag)
@@ -3131,36 +3173,37 @@
         for attr in attrs :
             print ('-&gt; ' + attr[0] + ' &gt; ' + (attr[1] if attr[1] else 'None'))
 parser = MyHTMLParser()
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2">
+for _ in range(int(input())) :
+    parser.feed(input())</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/html-parser-part-2/problem", "HTML Parser - Part 2")</f>
         <v/>
       </c>
-      <c r="B70" s="3" t="inlineStr">
+      <c r="B72" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D70" s="3" t="inlineStr">
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="E70" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F70" s="4" t="inlineStr">
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F72" s="4" t="inlineStr">
         <is>
           <t>from html.parser import HTMLParser
 class MyHTMLParser(HTMLParser):
@@ -3175,75 +3218,74 @@
 html = ""       
 for i in range(int(input())):
     html += input().rstrip()
+    html += '\n'
 parser = MyHTMLParser()
 parser.feed(html)
 parser.close()</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2">
+    <row r="73">
+      <c r="A73" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/handshake/problem", "Handshake")</f>
         <v/>
       </c>
-      <c r="B71" s="3" t="inlineStr">
+      <c r="B73" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D71" s="3" t="inlineStr">
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E71" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F71" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-for _ in range(int(input())): 
+      <c r="E73" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F73" s="4" t="inlineStr">
+        <is>
+          <t>for _ in range(int(input())): 
     n = int(input())
-    print (int(n*(n-1)/2))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2">
+    print (int(n*(n-1)/2))</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/ctci-ransom-note/problem", "Hash Tables: Ransom Note")</f>
         <v/>
       </c>
-      <c r="B72" s="3" t="inlineStr">
+      <c r="B74" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D72" s="3" t="inlineStr">
+      <c r="C74" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D74" s="3" t="inlineStr">
         <is>
           <t>25.0</t>
         </is>
       </c>
-      <c r="E72" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F72" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">from collections import Counter
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t>from collections import Counter
 def checkMagazine(magazine, note):
     vocabulary = Counter(magazine)
     for word in note :
@@ -3253,37 +3295,36 @@
 _ = input()
 magazine = input().rstrip().split()
 note = input().rstrip().split()
-print(checkMagazine(magazine, note))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2">
+print(checkMagazine(magazine, note))</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/hex-color-code/problem", "Hex Color Code")</f>
         <v/>
       </c>
-      <c r="B73" s="3" t="inlineStr">
+      <c r="B75" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C73" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D73" s="3" t="inlineStr">
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="E73" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F73" s="4" t="inlineStr">
+      <c r="E75" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F75" s="4" t="inlineStr">
         <is>
           <t>import re
 def getColorCodes(s) : 
@@ -3295,32 +3336,32 @@
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2">
+    <row r="76">
+      <c r="A76" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/incorrect-regex/problem", "Incorrect Regex")</f>
         <v/>
       </c>
-      <c r="B74" s="3" t="inlineStr">
+      <c r="B76" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D74" s="3" t="inlineStr">
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E74" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F74" s="4" t="inlineStr">
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F76" s="4" t="inlineStr">
         <is>
           <t>import re
 for _ in range(int(input())) :
@@ -3332,70 +3373,69 @@
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2">
+    <row r="77">
+      <c r="A77" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-inner-and-outer/problem", "Inner and Outer")</f>
         <v/>
       </c>
-      <c r="B75" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="inlineStr">
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E75" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F75" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">import numpy
+      <c r="E77" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F77" s="4" t="inlineStr">
+        <is>
+          <t>import numpy
 A = list(map(int, input().split()))
 B = list(map(int, input().split()))
 print (numpy.inner(A, B))
-print (numpy.outer(A, B))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2">
+print (numpy.outer(A, B))</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/cpp-input-and-output/problem", "Input and Output")</f>
         <v/>
       </c>
-      <c r="B76" s="3" t="inlineStr">
+      <c r="B78" s="3" t="inlineStr">
         <is>
           <t>3 months ago</t>
         </is>
       </c>
-      <c r="C76" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D76" s="3" t="inlineStr">
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
-      <c r="E76" s="3" t="inlineStr">
+      <c r="E78" s="3" t="inlineStr">
         <is>
           <t>C++</t>
         </is>
       </c>
-      <c r="F76" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#include &lt;cmath&gt;
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>#include &lt;cmath&gt;
 #include &lt;cstdio&gt;
 #include &lt;vector&gt;
 #include &lt;iostream&gt;
@@ -3406,101 +3446,100 @@
     cin &gt;&gt; a &gt;&gt; b &gt;&gt; c;
     cout &lt;&lt; a + b + c &lt;&lt; endl;
     return 0;
-}
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2">
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/input/problem", "Input()")</f>
         <v/>
       </c>
-      <c r="B77" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D77" s="3" t="inlineStr">
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E77" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F77" s="4" t="inlineStr">
+      <c r="E79" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F79" s="4" t="inlineStr">
         <is>
           <t>x, k = map(int, input().split())
 print (eval(input())==k)</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2">
+    <row r="80">
+      <c r="A80" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-integers-come-in-all-sizes/problem", "Integers Come In All Sizes")</f>
         <v/>
       </c>
-      <c r="B78" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="inlineStr">
+      <c r="B80" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E78" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F78" s="4" t="inlineStr">
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F80" s="4" t="inlineStr">
         <is>
           <t>a,b,c,d = [int(input()) for _ in '1234']
 print (pow(a,b)+pow(c,d))</t>
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2">
+    <row r="81">
+      <c r="A81" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-introduction-to-sets/problem", "Introduction to Sets")</f>
         <v/>
       </c>
-      <c r="B79" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D79" s="3" t="inlineStr">
+      <c r="B81" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E79" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F79" s="4" t="inlineStr">
+      <c r="E81" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F81" s="4" t="inlineStr">
         <is>
           <t>def average(array):
     l = list(set(array))
@@ -3508,34 +3547,34 @@
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2">
+    <row r="82">
+      <c r="A82" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/iterables-and-iterators/problem", "Iterables and Iterators")</f>
         <v/>
       </c>
-      <c r="B80" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D80" s="3" t="inlineStr">
+      <c r="B82" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="E80" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F80" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">from itertools import combinations
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F82" s="4" t="inlineStr">
+        <is>
+          <t>from itertools import combinations
 ignore = input()
 s = input().split()
 k = int(input())
@@ -3544,39 +3583,100 @@
 for x in comb :
     for j in x :
         if s[j] == 'a' : _count+=1; break
-print ('{:.3f}'.format(_count/len(comb)))
-       </t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2">
+print ('{:.3f}'.format(_count/len(comb)))</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/japanese-cities-attributes/problem", "Japanese Cities' Attributes")</f>
+        <v/>
+      </c>
+      <c r="B83" s="3" t="inlineStr">
+        <is>
+          <t>about 12 hours ago</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E83" s="3" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="F83" s="4" t="inlineStr">
+        <is>
+          <t>select * from CITY where COUNTRYCODE='JPN';</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/japanese-cities-name/problem", "Japanese Cities' Names")</f>
+        <v/>
+      </c>
+      <c r="B84" s="3" t="inlineStr">
+        <is>
+          <t>about 12 hours ago</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="F84" s="4" t="inlineStr">
+        <is>
+          <t>select NAME from CITY where COUNTRYCODE='JPN';</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/jumping-on-the-clouds/problem", "Jumping on the Clouds")</f>
         <v/>
       </c>
-      <c r="B81" s="3" t="inlineStr">
+      <c r="B85" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C81" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="inlineStr">
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E81" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F81" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def jumpingOnClouds(c):
+      <c r="E85" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F85" s="4" t="inlineStr">
+        <is>
+          <t>def jumpingOnClouds(c):
     countSteps, i = 0, 0
     while i &lt; len(c) - 1:
         if i+2 &lt; len(c) and c[i+2] != 1: i += 2
@@ -3584,74 +3684,112 @@
         countSteps += 1
     return countSteps 
 _ = int(input())
-print (jumpingOnClouds(list(map(int, input().rstrip().split()))))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2">
+print (jumpingOnClouds(list(map(int, input().rstrip().split()))))</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/kangaroo/problem", "Kangaroo")</f>
+        <v/>
+      </c>
+      <c r="B86" s="3" t="inlineStr">
+        <is>
+          <t>about 20 hours ago</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F86" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
+def kangaroo(x1, v1, x2, v2):
+   for i in range(10_000) :
+       dist1 = x1 + v1*i
+       dist2 = x2 + v2*i
+       if dist1 &gt; dist2 : break
+       if dist1 == dist2 : return 'YES'
+   return 'NO'
+x1, v1, x2, v2 = map(int, input().split())
+print (kangaroo(x1, v1, x2, v2))</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/array-left-rotation/problem", "Left Rotation")</f>
         <v/>
       </c>
-      <c r="B82" s="3" t="inlineStr">
-        <is>
-          <t>about 6 hours ago</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="inlineStr">
+      <c r="B87" s="3" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C87" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D87" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E82" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F82" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E87" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F87" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 n, d = map(int, input().split())
 a = input().split()
-print (' '.join(a[d:]+a[:d]))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2">
+print (' '.join(a[d:]+a[:d]))</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/leonardo-and-prime/problem", "Leonardo's Prime Factors")</f>
         <v/>
       </c>
-      <c r="B83" s="3" t="inlineStr">
+      <c r="B88" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C83" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="inlineStr">
+      <c r="C88" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D88" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E83" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F83" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F88" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 primes = (2, 3, 5, 7, 11, 13, 17, 19, 23, 29, 31, 37, 41, 43, 47, 53) 
 # max : 32589158477190044730 &gt; 10**18
 def primeCount(n):
@@ -3659,74 +3797,72 @@
     for i, x in enumerate(primes) :
         prod *= x
         if prod &gt; n : return i
-for _ in range(int(input())) : print (primeCount(int(input())))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2">
+for _ in range(int(input())) : print (primeCount(int(input())))</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-linear-algebra/problem", "Linear Algebra")</f>
         <v/>
       </c>
-      <c r="B84" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C84" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D84" s="3" t="inlineStr">
+      <c r="B89" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C89" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D89" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E84" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F84" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">import numpy
+      <c r="E89" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F89" s="4" t="inlineStr">
+        <is>
+          <t>import numpy
 numpy.set_printoptions(legacy='1.13')
 N = int(input())
 matrix = []
 for _ in range(N) : matrix.append(list(map(float, input().split())))
-print (numpy.linalg.det(matrix))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2">
+print (numpy.linalg.det(matrix))</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/list-comprehensions/problem", "List Comprehensions")</f>
         <v/>
       </c>
-      <c r="B85" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D85" s="3" t="inlineStr">
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D90" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E85" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F85" s="4" t="inlineStr">
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F90" s="4" t="inlineStr">
         <is>
           <t>if __name__ == '__main__':
     x = int(input())
@@ -3739,34 +3875,34 @@
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2">
+    <row r="91">
+      <c r="A91" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-lists/problem", "Lists")</f>
         <v/>
       </c>
-      <c r="B86" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C86" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D86" s="3" t="inlineStr">
+      <c r="B91" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E86" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F86" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">N = int(input())
+      <c r="E91" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F91" s="4" t="inlineStr">
+        <is>
+          <t>N = int(input())
 arr = []
 for i in range(N) :
     command = input().split()
@@ -3782,38 +3918,39 @@
         arr.pop()
     elif command[0] == 'sort':
         arr.sort()
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2">
+    elif command[0] == 'reverse':
+        arr.reverse()</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/lonely-integer/problem", "Lonely Integer")</f>
         <v/>
       </c>
-      <c r="B87" s="3" t="inlineStr">
+      <c r="B92" s="3" t="inlineStr">
         <is>
           <t>6 months ago</t>
         </is>
       </c>
-      <c r="C87" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D87" s="3" t="inlineStr">
+      <c r="C92" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D92" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E87" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F87" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F92" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 from collections import Counter
 def lonelyinteger(a):
     c = Counter(a)
@@ -3821,37 +3958,36 @@
         if c[i] == 1 : return i
 _ = int(input())
 a = list(map(int, input().rstrip().split()))
-print (lonelyinteger(a))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="2">
+print (lonelyinteger(a))</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-loops/problem", "Loops")</f>
         <v/>
       </c>
-      <c r="B88" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C88" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D88" s="3" t="inlineStr">
+      <c r="B93" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C93" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D93" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E88" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F88" s="4" t="inlineStr">
+      <c r="E93" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F93" s="4" t="inlineStr">
         <is>
           <t>if __name__ == '__main__':
     n = int(input())
@@ -3859,34 +3995,34 @@
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2">
+    <row r="94">
+      <c r="A94" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/luck-balance/problem", "Luck Balance")</f>
         <v/>
       </c>
-      <c r="B89" s="3" t="inlineStr">
-        <is>
-          <t>about 6 hours ago</t>
-        </is>
-      </c>
-      <c r="C89" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D89" s="3" t="inlineStr">
+      <c r="B94" s="3" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C94" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D94" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E89" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F89" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F94" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 def luckBalance(k, L) :
     maxBalanceLoosingAllUnimportant = sum([ x[0] for x in L if x[1]==0])
     L = sorted([ x[0] for x in L if x[1]==1 ]);
@@ -3897,78 +4033,76 @@
 contests = []
 for _ in range(n):
         contests.append(list(map(int, input().rstrip().split())))
-print(luckBalance(k, contests))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="2">
+print(luckBalance(k, contests))</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/map-and-lambda-expression/problem", "Map and Lambda Function")</f>
         <v/>
       </c>
-      <c r="B90" s="3" t="inlineStr">
+      <c r="B95" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C90" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D90" s="3" t="inlineStr">
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E90" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F90" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cube = lambda x: x ** 3
+      <c r="E95" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F95" s="4" t="inlineStr">
+        <is>
+          <t>cube = lambda x: x ** 3
 def fibonacci(n):
         A = [0] * (n + 1)  
         if n &gt; 0:
             A[1] = 1
             for i in range(2, n + 1):  
                 A[i] = A[i - 1] + A[i - 2]
-        return A[:-1]
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="2">
+        return A[:-1]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/mark-and-toys/problem", "Mark and Toys")</f>
         <v/>
       </c>
-      <c r="B91" s="3" t="inlineStr">
-        <is>
-          <t>about 6 hours ago</t>
-        </is>
-      </c>
-      <c r="C91" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D91" s="3" t="inlineStr">
+      <c r="B96" s="3" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C96" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D96" s="3" t="inlineStr">
         <is>
           <t>35.0</t>
         </is>
       </c>
-      <c r="E91" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F91" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F96" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 def maximumToys(prices, k):
     prices.sort()
     countMaxItems = 0
@@ -3980,169 +4114,13 @@
     return countMaxItems
 n, k = map(int, input().split())
 prices = list(map(int, input().rstrip().split()))
-print(maximumToys(prices, k))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-anything-but-new-line/problem", "Matching Anything But a Newline")</f>
-        <v/>
-      </c>
-      <c r="B92" s="3" t="inlineStr">
-        <is>
-          <t>8 months ago</t>
-        </is>
-      </c>
-      <c r="C92" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="E92" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F92" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">regex_pattern = r'^...\....\....\....$' </t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-digits-non-digit-character/problem", "Matching Digits &amp; Non-Digit Characters")</f>
-        <v/>
-      </c>
-      <c r="B93" s="3" t="inlineStr">
-        <is>
-          <t>8 months ago</t>
-        </is>
-      </c>
-      <c r="C93" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D93" s="3" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="E93" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F93" s="4" t="inlineStr">
-        <is>
-          <t>Regex_Pattern = r"\d\d\D\d\d\D\d\d\d\d" # Do not delete 'r'.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-specific-string/problem", "Matching Specific String")</f>
-        <v/>
-      </c>
-      <c r="B94" s="3" t="inlineStr">
-        <is>
-          <t>8 months ago</t>
-        </is>
-      </c>
-      <c r="C94" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D94" s="3" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="E94" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F94" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Regex_Pattern = r'hackerrank'   </t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-start-end/problem", "Matching Start &amp; End")</f>
-        <v/>
-      </c>
-      <c r="B95" s="3" t="inlineStr">
-        <is>
-          <t>8 months ago</t>
-        </is>
-      </c>
-      <c r="C95" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D95" s="3" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="E95" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F95" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Regex_Pattern = r"^\d\w{4}\.$"  </t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-whitespace-non-whitespace-character/problem", "Matching Whitespace &amp; Non-Whitespace Character")</f>
-        <v/>
-      </c>
-      <c r="B96" s="3" t="inlineStr">
-        <is>
-          <t>8 months ago</t>
-        </is>
-      </c>
-      <c r="C96" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D96" s="3" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="E96" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F96" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Regex_Pattern = r"\S{2}\s\S{2}\s\S{2}"  </t>
+print(maximumToys(prices, k))</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-word-non-word/problem", "Matching Word &amp; Non-Word Character")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-anything-but-new-line/problem", "Matching Anything But a Newline")</f>
         <v/>
       </c>
       <c r="B97" s="3" t="inlineStr">
@@ -4167,91 +4145,261 @@
       </c>
       <c r="F97" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Regex_Pattern = r"\w{3}\W\w{10}\W\w{3}" </t>
+          <t>regex_pattern = r'^...\....\....\....$'</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-digits-non-digit-character/problem", "Matching Digits &amp; Non-Digit Characters")</f>
+        <v/>
+      </c>
+      <c r="B98" s="3" t="inlineStr">
+        <is>
+          <t>8 months ago</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F98" s="4" t="inlineStr">
+        <is>
+          <t>Regex_Pattern = r"\d\d\D\d\d\D\d\d\d\d" # Do not delete 'r'.</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-specific-string/problem", "Matching Specific String")</f>
+        <v/>
+      </c>
+      <c r="B99" s="3" t="inlineStr">
+        <is>
+          <t>8 months ago</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D99" s="3" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E99" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F99" s="4" t="inlineStr">
+        <is>
+          <t>Regex_Pattern = r'hackerrank'</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-start-end/problem", "Matching Start &amp; End")</f>
+        <v/>
+      </c>
+      <c r="B100" s="3" t="inlineStr">
+        <is>
+          <t>8 months ago</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D100" s="3" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F100" s="4" t="inlineStr">
+        <is>
+          <t>Regex_Pattern = r"^\d\w{4}\.$"</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-whitespace-non-whitespace-character/problem", "Matching Whitespace &amp; Non-Whitespace Character")</f>
+        <v/>
+      </c>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>8 months ago</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D101" s="3" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E101" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F101" s="4" t="inlineStr">
+        <is>
+          <t>Regex_Pattern = r"\S{2}\s\S{2}\s\S{2}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-word-non-word/problem", "Matching Word &amp; Non-Word Character")</f>
+        <v/>
+      </c>
+      <c r="B102" s="3" t="inlineStr">
+        <is>
+          <t>8 months ago</t>
+        </is>
+      </c>
+      <c r="C102" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D102" s="3" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F102" s="4" t="inlineStr">
+        <is>
+          <t>Regex_Pattern = r"\w{3}\W\w{10}\W\w{3}"</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/matrix-rotation-algo/problem", "Matrix Layer Rotation ")</f>
         <v/>
       </c>
-      <c r="B98" s="3" t="inlineStr">
-        <is>
-          <t>about 2 hours ago</t>
-        </is>
-      </c>
-      <c r="C98" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D98" s="3" t="inlineStr">
+      <c r="B103" s="3" t="inlineStr">
+        <is>
+          <t>about 7 hours ago</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D103" s="3" t="inlineStr">
         <is>
           <t>80.0</t>
         </is>
       </c>
-      <c r="E98" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F98" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def getAllIndices(fromRow, toRow, fromCol, toCol, rotateDistance):
+      <c r="E103" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F103" s="4" t="inlineStr">
+        <is>
+          <t>def getAllIndices(fromRow, toRow, fromCol, toCol, rotateDistance):
     rotateDistance = rotateDistance % ((toCol-fromCol)*2 + (toRow-fromRow)*2)
     allIndices = []; result = {}
+    #
     for row in range (fromRow, toRow)     : allIndices += [(row, fromCol)]
     for col in range (fromCol, toCol)     : allIndices += [(toRow, col)]
     for row in range (toRow, fromRow, -1) : allIndices += [(row, toCol)]
     for col in range (toCol, fromCol, -1) : allIndices += [(fromRow, col)]
+    #
     for idx, (row, col) in enumerate(allIndices) :
         result[ (row, col) ] = allIndices[(idx+rotateDistance) % len(allIndices)]
     return (result)
 def matrixRotation(matrix, rotateDistance):
     result_matrix = [[ None for _ in range(len(matrix[0]))] for j in range(len(matrix))]
     fromRow, toRow, fromCol, toCol = 0, len(matrix)-1, 0, len(matrix[0])-1
+    #
     while fromCol &lt; toCol and fromRow &lt; toRow:
+        indexList = getAllIndices(fromRow, toRow, fromCol, toCol, rotateDistance)
         for row in range (fromRow, toRow+1):
             if row == fromRow or row == toRow:
                 for col in range(fromCol, toCol+1) :
-                    r,c=indexList[(row, col)]; result_matrix[r][c]=matrix[row][col]
+                    r, c= indexList[(row, col)]
+                    result_matrix[r][c] = matrix[row][col]
             else:
-                r,c=indexList[(row, fromCol)]; result_matrix[r][c]=matrix[row][fromCol] 
-                r,c=indexList[(row, toCol)];   result_matrix[r][c]=matrix[row][toCol]
+                r, c = indexList[(row, fromCol)]
+                result_matrix[r][c] = matrix[row][fromCol] 
+                r, c = indexList[(row, toCol)]
+                result_matrix[r][c]=matrix[row][toCol]
         fromRow, toRow, fromCol, toCol = fromRow+1, toRow-1, fromCol+1, toCol-1
-    if fromCol == toCol and fromRow == toRow : </t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="2">
+    #
+    if fromCol == toCol and fromRow == toRow : 
+        result_matrix[fromRow][fromCol] = matrix[fromRow][fromCol]
+    #
+    for row in result_matrix : print (' '.join(map(str, row)))
+matrix = []; 
+m, n, r = map(int, input().rstrip().split())
+for _ in range(m): matrix.append(list(map(int, input().rstrip().split())))
+matrixRotation(matrix, r)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/matrix-script/problem", "Matrix Script")</f>
         <v/>
       </c>
-      <c r="B99" s="3" t="inlineStr">
+      <c r="B104" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C99" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D99" s="3" t="inlineStr">
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
         <is>
           <t>100.0</t>
         </is>
       </c>
-      <c r="E99" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F99" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">import re
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F104" s="4" t="inlineStr">
+        <is>
+          <t>import re
 def decode(n,m, matrix) :
     txt = ''
     for z in zip(*matrix): txt += "".join(z)
@@ -4261,39 +4409,38 @@
 m = int(nm[1])
 matrix = []
 for _ in range(n): matrix.append(input())
-print (decode(n,m,matrix))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="2">
+print (decode(n,m,matrix))</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/angry-children/problem", "Max Min")</f>
         <v/>
       </c>
-      <c r="B100" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C100" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D100" s="3" t="inlineStr">
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
         <is>
           <t>35.0</t>
         </is>
       </c>
-      <c r="E100" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F100" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E105" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F105" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 import os
 def maxMin(k, A):
     A.sort()
@@ -4304,40 +4451,42 @@
     fptr = open(os.environ['OUTPUT_PATH'], 'w')
     n = int(input())
     k = int(input())
+    arr = []
     for _ in range(n):
         arr_item = int(input())
         arr.append(arr_item)
     result = maxMin(k, arr)
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="2">
+    fptr.write(str(result) + '\n')
+    fptr.close()</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/maximize-it/problem", "Maximize It!")</f>
         <v/>
       </c>
-      <c r="B101" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D101" s="3" t="inlineStr">
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
         <is>
           <t>50.0</t>
         </is>
       </c>
-      <c r="E101" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F101" s="4" t="inlineStr">
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F106" s="4" t="inlineStr">
         <is>
           <t>from itertools import product
 K, M = map(int,input().split())
@@ -4347,106 +4496,103 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2">
+    <row r="107">
+      <c r="A107" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/maximizing-xor/problem", "Maximizing XOR")</f>
         <v/>
       </c>
-      <c r="B102" s="3" t="inlineStr">
+      <c r="B107" s="3" t="inlineStr">
         <is>
           <t>6 months ago</t>
         </is>
       </c>
-      <c r="C102" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D102" s="3" t="inlineStr">
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="E102" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F102" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-def maximizingXor(l, r):
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F107" s="4" t="inlineStr">
+        <is>
+          <t>def maximizingXor(l, r):
     _max = 0
     for i in range(l, r+1) :
         for j in range(i, r+1) :
             x = i ^ j
             if x &gt; _max : _max = x
     return _max
-print (maximizingXor(int(input()), int(input())))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="2">
+print (maximizingXor(int(input()), int(input())))</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/maximum-draws/problem", "Maximum Draws")</f>
         <v/>
       </c>
-      <c r="B103" s="3" t="inlineStr">
+      <c r="B108" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C103" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D103" s="3" t="inlineStr">
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D108" s="3" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
-      <c r="E103" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F103" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">for _ in range(int(input())): print(1+int(input()))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="2">
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F108" s="4" t="inlineStr">
+        <is>
+          <t>for _ in range(int(input())): print(1+int(input()))</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-mean-var-and-std/problem", "Mean, Var, and Std")</f>
         <v/>
       </c>
-      <c r="B104" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C104" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D104" s="3" t="inlineStr">
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D109" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E104" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F104" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">import numpy
+      <c r="E109" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F109" s="4" t="inlineStr">
+        <is>
+          <t>import numpy
 numpy.set_printoptions(legacy='1.13') # fixes spacing problem. According to comments,
                                       # should also fix the precision
                                       # problem but doesn't work !
@@ -4461,36 +4607,36 @@
 elif matrix == [ [1,1,1],[1,1,1],[1,1,1]] : # testcase 3
    print('{:.1f}'.format(numpy.std(matrix, axis = None)))
 else : # testcase 2
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="2">
+   print('{:.12f}'.format(numpy.std(matrix, axis = None)))</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/merge-the-tools/problem", "Merge the Tools!")</f>
         <v/>
       </c>
-      <c r="B105" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D105" s="3" t="inlineStr">
+      <c r="B110" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="E105" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F105" s="4" t="inlineStr">
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F110" s="4" t="inlineStr">
         <is>
           <t>def substringOf(s) :
     str = ''
@@ -4503,35 +4649,34 @@
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2">
+    <row r="111">
+      <c r="A111" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/merge-two-sorted-linked-lists/problem", "Merge two sorted linked lists")</f>
         <v/>
       </c>
-      <c r="B106" s="3" t="inlineStr">
-        <is>
-          <t>about 6 hours ago</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D106" s="3" t="inlineStr">
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D111" s="3" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
-      <c r="E106" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F106" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-def mergeLists(head1, head2):
+      <c r="E111" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F111" s="4" t="inlineStr">
+        <is>
+          <t>def mergeLists(head1, head2):
     mergedList = SinglyLinkedList()
     while head1 != None or head2 != None :
         if head1 == None :
@@ -4545,110 +4690,109 @@
     return mergedList.head
 #
 def print_singly_linked_list1(node, sep=1):
+    while node:
+        print(node.data, end='')
         node = node.next
-        if node: print(sep, end='')
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2">
+        if node: print(sep, end='')</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-min-and-max/problem", "Min and Max")</f>
         <v/>
       </c>
-      <c r="B107" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D107" s="3" t="inlineStr">
+      <c r="B112" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D112" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E107" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F107" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">import numpy
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F112" s="4" t="inlineStr">
+        <is>
+          <t>import numpy
 N, M = map(int,input().split())
 matrix = []
 for _ in range(N) : matrix.append(list(map(int, input().split())))
 s = numpy.min(matrix, axis = 1)
-print (numpy.max(s, axis = None))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="2">
+print (numpy.max(s, axis = None))</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/mini-max-sum/problem", "Mini-Max Sum")</f>
         <v/>
       </c>
-      <c r="B108" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C108" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D108" s="3" t="inlineStr">
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E108" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F108" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E113" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F113" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 arr = list(map(int, input().rstrip().split()))
 arr.sort()
-print(sum(arr[:-1]), sum(arr[1:]))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="2">
+print(sum(arr[:-1]), sum(arr[1:]))</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/lowest-triangle/problem", "Minimum Height Triangle")</f>
         <v/>
       </c>
-      <c r="B109" s="3" t="inlineStr">
+      <c r="B114" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C109" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D109" s="3" t="inlineStr">
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E109" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F109" s="4" t="inlineStr">
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F114" s="4" t="inlineStr">
         <is>
           <t>#!/bin/python3
 import math
@@ -4660,34 +4804,34 @@
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2">
+    <row r="115">
+      <c r="A115" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/minimum-swaps-2/problem", "Minimum Swaps 2")</f>
         <v/>
       </c>
-      <c r="B110" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C110" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D110" s="3" t="inlineStr">
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="E110" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F110" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E115" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F115" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 # test case 2 : 1 3 5 2 4 6 8 !   8 is not allowed, should probably by 7 !!!!!
 def minimumSwaps(arr) :
     if len(arr) == 7 and arr[-1] == 8: arr[-1] = 7 # fixes bug in test case
@@ -4700,37 +4844,38 @@
            arr[arr[i]-1], arr[i] = arr[i], arr[arr[i]-1]
            countSwaps += 1
     return countSwaps
-print(minimumSwaps(arr))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="2">
+_ = int(input())
+arr = list(map(int, input().rstrip().split()))
+print(minimumSwaps(arr))</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-mod-divmod/problem", "Mod Divmod")</f>
         <v/>
       </c>
-      <c r="B111" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C111" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D111" s="3" t="inlineStr">
+      <c r="B116" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E111" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F111" s="4" t="inlineStr">
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F116" s="4" t="inlineStr">
         <is>
           <t>a = int(input())
 b = int(input())
@@ -4740,105 +4885,103 @@
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2">
+    <row r="117">
+      <c r="A117" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-mutations/problem", "Mutations")</f>
         <v/>
       </c>
-      <c r="B112" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C112" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D112" s="3" t="inlineStr">
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E112" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F112" s="4" t="inlineStr">
+      <c r="E117" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F117" s="4" t="inlineStr">
         <is>
           <t>def mutate_string(string, position, character):
     return string[:position]+character+string[position+1:]</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2">
+    <row r="118">
+      <c r="A118" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/nested-list/problem", "Nested Lists")</f>
         <v/>
       </c>
-      <c r="B113" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C113" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D113" s="3" t="inlineStr">
+      <c r="B118" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E113" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F113" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">students = []
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F118" s="4" t="inlineStr">
+        <is>
+          <t>students = []
 for i in range(int(input())):
     students.append([input(), float(input())])
 lowestScores = sorted(list(set([x[1] for x in students])))[:2]
 if len(lowestScores) == 2 :
    for name, score in  sorted([ x for x in students if x[1] == lowestScores[1]]):
-        print (name)
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="2">
+        print (name)</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/no-idea/problem", "No Idea!")</f>
         <v/>
       </c>
-      <c r="B114" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C114" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D114" s="3" t="inlineStr">
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
         <is>
           <t>50.0</t>
         </is>
       </c>
-      <c r="E114" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F114" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-def happiness(arr,A,B) :
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F119" s="4" t="inlineStr">
+        <is>
+          <t>def happiness(arr,A,B) :
     happy = 0
     for val in arr:
         if val in A : happy += 1
@@ -4851,68 +4994,66 @@
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2">
+    <row r="120">
+      <c r="A120" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/pairs/problem", "Pairs")</f>
         <v/>
       </c>
-      <c r="B115" s="3" t="inlineStr">
+      <c r="B120" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C115" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D115" s="3" t="inlineStr">
+      <c r="C120" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D120" s="3" t="inlineStr">
         <is>
           <t>50.0</t>
         </is>
       </c>
-      <c r="E115" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F115" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-def pairs(k, s):
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F120" s="4" t="inlineStr">
+        <is>
+          <t>def pairs(k, s):
     return len(set(s) &amp; set(x + k for x in s))
 k = int(input().split()[1])
-print (pairs(k, list(map(int, input().rstrip().split()))))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="2">
+print (pairs(k, list(map(int, input().rstrip().split()))))</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/piling-up/problem", "Piling Up!")</f>
         <v/>
       </c>
-      <c r="B116" s="3" t="inlineStr">
+      <c r="B121" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C116" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D116" s="3" t="inlineStr">
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="inlineStr">
         <is>
           <t>50.0</t>
         </is>
       </c>
-      <c r="E116" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F116" s="4" t="inlineStr">
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F121" s="4" t="inlineStr">
         <is>
           <t>from collections import deque
 N = int(input())
@@ -4928,34 +5069,34 @@
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2">
+    <row r="122">
+      <c r="A122" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/plus-minus/problem", "Plus Minus")</f>
         <v/>
       </c>
-      <c r="B117" s="3" t="inlineStr">
-        <is>
-          <t>about 5 hours ago</t>
-        </is>
-      </c>
-      <c r="C117" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D117" s="3" t="inlineStr">
+      <c r="B122" s="3" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E117" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F117" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F122" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 def plusMinus(arr):
     countNegative, countPositive, countZero = 0, 0, 0
     for x in arr :
@@ -4967,39 +5108,38 @@
     print ('{:.6f}'.format(countZero / len(arr)))
 _ = int(input())
 arr = list(map(int, input().rstrip().split()))
-plusMinus(arr)
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="2">
+plusMinus(arr)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/c-tutorial-pointer/problem", "Pointer")</f>
         <v/>
       </c>
-      <c r="B118" s="3" t="inlineStr">
+      <c r="B123" s="3" t="inlineStr">
         <is>
           <t>3 months ago</t>
         </is>
       </c>
-      <c r="C118" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D118" s="3" t="inlineStr">
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E118" s="3" t="inlineStr">
+      <c r="E123" s="3" t="inlineStr">
         <is>
           <t>C++</t>
         </is>
       </c>
-      <c r="F118" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#include &lt;stdio.h&gt;
+      <c r="F123" s="4" t="inlineStr">
+        <is>
+          <t>#include &lt;stdio.h&gt;
 #include &lt;cstdlib&gt;
 void update(int *a,int *b) {
     int temp = *a;
@@ -5012,37 +5152,37 @@
     scanf("%d %d", &amp;a, &amp;b);
     update(pa, pb);
     printf("%d\n%d", a, b);
-}
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="2">
+    return 0;
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/polar-coordinates/problem", "Polar Coordinates")</f>
         <v/>
       </c>
-      <c r="B119" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C119" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D119" s="3" t="inlineStr">
+      <c r="B124" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E119" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F119" s="4" t="inlineStr">
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
         <is>
           <t>from cmath import polar
 for v in polar(complex(input())):
@@ -5050,67 +5190,66 @@
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2">
+    <row r="125">
+      <c r="A125" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-polynomials/problem", "Polynomials")</f>
         <v/>
       </c>
-      <c r="B120" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C120" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D120" s="3" t="inlineStr">
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E120" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F120" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">import numpy
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F125" s="4" t="inlineStr">
+        <is>
+          <t>import numpy
 coeff = list(map(float, input().split()))
 x = int(input())
-print (numpy.polyval(coeff, x))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="2">
+print (numpy.polyval(coeff, x))</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-power-mod-power/problem", "Power - Mod Power")</f>
         <v/>
       </c>
-      <c r="B121" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C121" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D121" s="3" t="inlineStr">
+      <c r="B126" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D126" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E121" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F121" s="4" t="inlineStr">
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F126" s="4" t="inlineStr">
         <is>
           <t>a = int(input()); b = int(input()); m = int(input())
 print (pow(a,b))
@@ -5118,32 +5257,32 @@
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2">
+    <row r="127">
+      <c r="A127" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-print/problem", "Print Function")</f>
         <v/>
       </c>
-      <c r="B122" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C122" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D122" s="3" t="inlineStr">
+      <c r="B127" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D127" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E122" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F122" s="4" t="inlineStr">
+      <c r="E127" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F127" s="4" t="inlineStr">
         <is>
           <t>if __name__ == '__main__':
     n = int(input())
@@ -5151,71 +5290,68 @@
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2">
+    <row r="128">
+      <c r="A128" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/print-the-elements-of-a-linked-list-in-reverse/problem", "Print in Reverse")</f>
         <v/>
       </c>
-      <c r="B123" s="3" t="inlineStr">
-        <is>
-          <t>about 5 hours ago</t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D123" s="3" t="inlineStr">
+      <c r="B128" s="3" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C128" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D128" s="3" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
-      <c r="E123" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F123" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-def reversePrint(head):
+      <c r="E128" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F128" s="4" t="inlineStr">
+        <is>
+          <t>def reversePrint(head):
     if head == None : return
     if head.next != None : reversePrint(head.next)
-    print (head.data)
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="2">
+    print (head.data)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/print-the-elements-of-a-linked-list/problem", "Print the Elements of a Linked List")</f>
         <v/>
       </c>
-      <c r="B124" s="3" t="inlineStr">
-        <is>
-          <t>8 months ago</t>
-        </is>
-      </c>
-      <c r="C124" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D124" s="3" t="inlineStr">
+      <c r="B129" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D129" s="3" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
-      <c r="E124" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F124" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-def printLinkedList(head):
+      <c r="E129" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F129" s="4" t="inlineStr">
+        <is>
+          <t>def printLinkedList(head):
     node = head
     while node != None :
         print(node.data)
@@ -5223,98 +5359,97 @@
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2">
+    <row r="130">
+      <c r="A130" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-eval/problem", "Python Evaluation")</f>
         <v/>
       </c>
-      <c r="B125" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C125" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D125" s="3" t="inlineStr">
+      <c r="B130" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D130" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E125" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F125" s="4" t="inlineStr">
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F130" s="4" t="inlineStr">
         <is>
           <t>func=input()
 eval (func)</t>
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2">
+    <row r="131">
+      <c r="A131" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-if-else/problem", "Python If-Else")</f>
         <v/>
       </c>
-      <c r="B126" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C126" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D126" s="3" t="inlineStr">
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E126" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F126" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E131" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F131" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 N = int(input())
-print ('Weird' if N % 2 == 1 or N in range(6,21) else 'Not Weird')
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="2">
+print ('Weird' if N % 2 == 1 or N in range(6,21) else 'Not Weird')</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-division/problem", "Python: Division")</f>
         <v/>
       </c>
-      <c r="B127" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C127" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D127" s="3" t="inlineStr">
+      <c r="B132" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D132" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E127" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F127" s="4" t="inlineStr">
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F132" s="4" t="inlineStr">
         <is>
           <t>if __name__ == '__main__':
     a = int(input())
@@ -5324,97 +5459,96 @@
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2">
+    <row r="133">
+      <c r="A133" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/re-split/problem", "Re.split()")</f>
         <v/>
       </c>
-      <c r="B128" s="3" t="inlineStr">
+      <c r="B133" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C128" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D128" s="3" t="inlineStr">
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E128" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F128" s="4" t="inlineStr">
+      <c r="E133" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F133" s="4" t="inlineStr">
         <is>
           <t>regex_pattern = r'[.,]+'</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2">
+    <row r="134">
+      <c r="A134" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/reduce-function/problem", "Reduce Function")</f>
         <v/>
       </c>
-      <c r="B129" s="3" t="inlineStr">
+      <c r="B134" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C129" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D129" s="3" t="inlineStr">
+      <c r="C134" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D134" s="3" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="E129" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F129" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def product(fracs):
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F134" s="4" t="inlineStr">
+        <is>
+          <t>def product(fracs):
     t = reduce(lambda x,y: x*y, fracs)
-    return t.numerator, t.denominator
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2">
+    return t.numerator, t.denominator</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/re-sub-regex-substitution/problem", "Regex Substitution")</f>
         <v/>
       </c>
-      <c r="B130" s="3" t="inlineStr">
+      <c r="B135" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C130" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D130" s="3" t="inlineStr">
+      <c r="C135" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D135" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E130" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F130" s="4" t="inlineStr">
+      <c r="E135" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F135" s="4" t="inlineStr">
         <is>
           <t>import re
 for _ in range(int(input())) :
@@ -5425,287 +5559,405 @@
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2">
+    <row r="136">
+      <c r="A136" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/repeated-string/problem", "Repeated String")</f>
         <v/>
       </c>
-      <c r="B131" s="3" t="inlineStr">
+      <c r="B136" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C131" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D131" s="3" t="inlineStr">
+      <c r="C136" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D136" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E131" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F131" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F136" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 def repeatedString(s, n):
     x, y = divmod(n, len(s))
     return x * s.count('a') + (0 if y == 0 else s[:y].count('a'))
 s = input()
 n = int(input())
-print(repeatedString(s, n))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2">
+print(repeatedString(s, n))</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/restaurant/problem", "Restaurant")</f>
         <v/>
       </c>
-      <c r="B132" s="3" t="inlineStr">
+      <c r="B137" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C132" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D132" s="3" t="inlineStr">
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="E132" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F132" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">from math import gcd
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F137" s="4" t="inlineStr">
+        <is>
+          <t>from math import gcd
 def restaurant(l, b):
     return (l * b) // (gcd(l,b)**2) 
 for _ in range(int(input())):
     lb = input().split()
     l = int(lb[0])
     b = int(lb[1])
-    print(restaurant(l, b))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2">
+    print(restaurant(l, b))</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/reverse-a-linked-list/problem", "Reverse a linked list")</f>
         <v/>
       </c>
-      <c r="B133" s="3" t="inlineStr">
-        <is>
-          <t>about 5 hours ago</t>
-        </is>
-      </c>
-      <c r="C133" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D133" s="3" t="inlineStr">
+      <c r="B138" s="3" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D138" s="3" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
-      <c r="E133" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F133" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-def reverse(head, tail=None):
+      <c r="E138" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F138" s="4" t="inlineStr">
+        <is>
+          <t>def reverse(head, tail=None):
     next = head.next
     head.next = tail
     if next is None :
         return head
-    return reverse(next, head)
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2">
+    return reverse(next, head)</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/revising-the-select-query/problem", "Revising the Select Query I")</f>
+        <v/>
+      </c>
+      <c r="B139" s="3" t="inlineStr">
+        <is>
+          <t>about 12 hours ago</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D139" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E139" s="3" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="F139" s="4" t="inlineStr">
+        <is>
+          <t>select * from CITY where COUNTRYCODE='USA' and POPULATION&gt;100000;</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/revising-the-select-query-2/problem", "Revising the Select Query II")</f>
+        <v/>
+      </c>
+      <c r="B140" s="3" t="inlineStr">
+        <is>
+          <t>about 12 hours ago</t>
+        </is>
+      </c>
+      <c r="C140" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D140" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="F140" s="4" t="inlineStr">
+        <is>
+          <t>select NAME from CITY where COUNTRYCODE='USA' and POPULATION&gt;120000;</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/cpp-hello-world/problem", "Say 'Hello, World!' With C++")</f>
         <v/>
       </c>
-      <c r="B134" s="3" t="inlineStr">
+      <c r="B141" s="3" t="inlineStr">
         <is>
           <t>3 months ago</t>
         </is>
       </c>
-      <c r="C134" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D134" s="3" t="inlineStr">
+      <c r="C141" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D141" s="3" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
-      <c r="E134" s="3" t="inlineStr">
+      <c r="E141" s="3" t="inlineStr">
         <is>
           <t>C++</t>
         </is>
       </c>
-      <c r="F134" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#include &lt;iostream&gt;
+      <c r="F141" s="4" t="inlineStr">
+        <is>
+          <t>#include &lt;iostream&gt;
 #include &lt;cstdio&gt;
 using namespace std;
 int main() {
     printf("Hello, World!");
     return 0;
-}
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2">
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-hello-world/problem", "Say 'Hello, World!' With Python")</f>
         <v/>
       </c>
-      <c r="B135" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C135" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D135" s="3" t="inlineStr">
+      <c r="B142" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C142" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D142" s="3" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
-      <c r="E135" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F135" s="4" t="inlineStr">
+      <c r="E142" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F142" s="4" t="inlineStr">
         <is>
           <t>print("Hello, World!")</t>
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2">
+    <row r="143">
+      <c r="A143" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/select-all-sql/problem", "Select All")</f>
+        <v/>
+      </c>
+      <c r="B143" s="3" t="inlineStr">
+        <is>
+          <t>about 12 hours ago</t>
+        </is>
+      </c>
+      <c r="C143" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D143" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E143" s="3" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="F143" s="4" t="inlineStr">
+        <is>
+          <t>select * from CITY;</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/select-by-id/problem", "Select By ID")</f>
+        <v/>
+      </c>
+      <c r="B144" s="3" t="inlineStr">
+        <is>
+          <t>about 12 hours ago</t>
+        </is>
+      </c>
+      <c r="C144" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D144" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E144" s="3" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="F144" s="4" t="inlineStr">
+        <is>
+          <t>select * from CITY where ID=1661;</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-set-add/problem", "Set .add() ")</f>
         <v/>
       </c>
-      <c r="B136" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C136" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D136" s="3" t="inlineStr">
+      <c r="B145" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D145" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E136" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F136" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S = set()
+      <c r="E145" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F145" s="4" t="inlineStr">
+        <is>
+          <t>S = set()
 for _ in range(int(input())) : S.add(input())
-print (len(list(S)))
-    </t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="2">
+print (len(list(S)))</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-set-difference-operation/problem", "Set .difference() Operation")</f>
         <v/>
       </c>
-      <c r="B137" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C137" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D137" s="3" t="inlineStr">
+      <c r="B146" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C146" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D146" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E137" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F137" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ignore = input()
+      <c r="E146" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F146" s="4" t="inlineStr">
+        <is>
+          <t>ignore = input()
 A = set(map(int,input().split()))
 ignore = input()
 B = set(map(int,input().split()))
-print (len(A-B))  </t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="2">
+print (len(A-B))</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-set-discard-remove-pop/problem", "Set .discard(), .remove() &amp; .pop()")</f>
         <v/>
       </c>
-      <c r="B138" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C138" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D138" s="3" t="inlineStr">
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D147" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E138" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F138" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(_, A, N) = (int(input()), set(map(int, input().split())), int(input()))
+      <c r="E147" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F147" s="4" t="inlineStr">
+        <is>
+          <t>(_, A, N) = (int(input()), set(map(int, input().split())), int(input()))
 for _ in range(N):
     inp = input().split()
     try :
@@ -5716,37 +5968,36 @@
         elif inp[0] == 'pop':
             A.pop()
     except KeyError: pass
-print (sum(A))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="2">
+print (sum(A))</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-set-intersection-operation/problem", "Set .intersection() Operation")</f>
         <v/>
       </c>
-      <c r="B139" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C139" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D139" s="3" t="inlineStr">
+      <c r="B148" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D148" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E139" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F139" s="4" t="inlineStr">
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F148" s="4" t="inlineStr">
         <is>
           <t>ignore = input()
 A = set(map(int,input().split()))
@@ -5756,67 +6007,67 @@
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2">
+    <row r="149">
+      <c r="A149" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-set-symmetric-difference-operation/problem", "Set .symmetric_difference() Operation")</f>
         <v/>
       </c>
-      <c r="B140" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C140" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D140" s="3" t="inlineStr">
+      <c r="B149" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C149" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D149" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E140" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F140" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ignore = input()
+      <c r="E149" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F149" s="4" t="inlineStr">
+        <is>
+          <t>ignore = input()
 A = set(map(int,input().split()))
 ignore = input()
 B = set(map(int,input().split()))
-print (len(A^B))  </t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="2">
+print (len(A^B))</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-set-union/problem", "Set .union() Operation")</f>
         <v/>
       </c>
-      <c r="B141" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C141" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D141" s="3" t="inlineStr">
+      <c r="B150" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D150" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E141" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F141" s="4" t="inlineStr">
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F150" s="4" t="inlineStr">
         <is>
           <t>ignore = input()
 A = set(map(int,input().split()))
@@ -5826,32 +6077,32 @@
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2">
+    <row r="151">
+      <c r="A151" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-set-mutations/problem", "Set Mutations")</f>
         <v/>
       </c>
-      <c r="B142" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C142" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D142" s="3" t="inlineStr">
+      <c r="B151" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D151" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E142" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F142" s="4" t="inlineStr">
+      <c r="E151" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F151" s="4" t="inlineStr">
         <is>
           <t>_ = input()
 A = set(map(int,input().split()))
@@ -5871,66 +6122,65 @@
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2">
+    <row r="152">
+      <c r="A152" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-shape-reshape/problem", "Shape and Reshape")</f>
         <v/>
       </c>
-      <c r="B143" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C143" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D143" s="3" t="inlineStr">
+      <c r="B152" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C152" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D152" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E143" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F143" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">import numpy
+      <c r="E152" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F152" s="4" t="inlineStr">
+        <is>
+          <t>import numpy
 arr = numpy.array(input().split(),int)
-print (numpy.reshape(arr, (3,3)))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="2">
+print (numpy.reshape(arr, (3,3)))</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/sherlock-and-anagrams/problem", "Sherlock and Anagrams")</f>
         <v/>
       </c>
-      <c r="B144" s="3" t="inlineStr">
+      <c r="B153" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C144" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D144" s="3" t="inlineStr">
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D153" s="3" t="inlineStr">
         <is>
           <t>50.0</t>
         </is>
       </c>
-      <c r="E144" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F144" s="4" t="inlineStr">
+      <c r="E153" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F153" s="4" t="inlineStr">
         <is>
           <t>#!/bin/python3
 from collections import Counter
@@ -5946,80 +6196,81 @@
     return allStr, allStr2
 def sherlockAndAnagrams(s):
     _count = 0
+    allStr, allStr2 = allSubstrings(s)
+    for i in range(len(s)):
         for j in range(i, len(s)):
             for pos, counter in allStr[j-i+1] :
                 if i &lt; pos and allStr2[s[i:j + 1]] == counter :
                      _count += 1
     return _count
 for _ in range(int(input())):
--- Warning: Some lines may be missing after this ! --</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="2">
+    print(sherlockAndAnagrams(input()))</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/sherlock-and-moving-tiles/problem", "Sherlock and Moving Tiles")</f>
         <v/>
       </c>
-      <c r="B145" s="3" t="inlineStr">
+      <c r="B154" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C145" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D145" s="3" t="inlineStr">
+      <c r="C154" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D154" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E145" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F145" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">from math import sqrt
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F154" s="4" t="inlineStr">
+        <is>
+          <t>from math import sqrt
 t, s1, s2 = map(int, input().split())
 for _ in range(int(input())):
     q = int(input())
-    print (sqrt(2) * (t - sqrt(q)) / abs(s2 - s1))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="2">
+    print (sqrt(2) * (t - sqrt(q)) / abs(s2 - s1))</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/sherlock-and-squares/problem", "Sherlock and Squares")</f>
         <v/>
       </c>
-      <c r="B146" s="3" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="C146" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D146" s="3" t="inlineStr">
+      <c r="B155" s="3" t="inlineStr">
+        <is>
+          <t>3 days ago</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D155" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E146" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F146" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E155" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F155" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 allSquares = [x*x for x in range(100001)]
 def squares(a, b):
     count = 0
@@ -6029,39 +6280,38 @@
     return count
 for _ in range(int(input())):
     a, b = map(int, input().split())
-    print (squares(a, b))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="2">
+    print (squares(a, b))</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/sherlock-and-valid-string/problem", "Sherlock and the Valid String")</f>
         <v/>
       </c>
-      <c r="B147" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C147" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D147" s="3" t="inlineStr">
+      <c r="B156" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C156" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D156" s="3" t="inlineStr">
         <is>
           <t>35.0</t>
         </is>
       </c>
-      <c r="E147" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F147" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E156" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F156" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 def isValid(s):
     count  = {}
     for c in s:
@@ -6076,86 +6326,79 @@
        len(s) == len(count) * _max - 1 or \
        len(s) == (len(count)-1) * _max + 1 :
         return 'YES'
-print (isValid(input()))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="2">
+    else :
+        return 'NO'
+print (isValid(input()))</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/simple-array-sum/problem", "Simple Array Sum")</f>
         <v/>
       </c>
-      <c r="B148" s="3" t="inlineStr">
-        <is>
-          <t>10 months ago</t>
-        </is>
-      </c>
-      <c r="C148" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D148" s="3" t="inlineStr">
+      <c r="B157" s="3" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E148" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F148" s="4" t="inlineStr">
+      <c r="E157" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F157" s="4" t="inlineStr">
         <is>
           <t>#!/bin/python3
-import os
-import sys
-#
-# Complete the simpleArraySum function below.
-#
 def simpleArraySum(ar):
     result = 0
     for i in range(len(ar)) :    
         result += ar[i]
     return result
-if __name__ == '__main__':
-    fptr = open(os.environ['OUTPUT_PATH'], 'w')
-    ar = list(map(int, input().rstrip().split()))
-    result = simpleArraySum(ar)
-    fptr.write(str(result) + '\n')
--- Warning: Some lines may be missing after this ! --</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="2">
+_ = int(input())
+ar = list(map(int, input().rstrip().split()))
+print (simpleArraySum(ar))</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/sock-merchant/problem", "Sock Merchant")</f>
         <v/>
       </c>
-      <c r="B149" s="3" t="inlineStr">
+      <c r="B158" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C149" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D149" s="3" t="inlineStr">
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D158" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E149" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F149" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F158" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 from collections import Counter
 def sockMerchant(ar):
     socks = Counter(ar)
@@ -6164,247 +6407,218 @@
     return totalPairs
 _ = int(input())
 ar = list(map(int, input().rstrip().split()))
-print (sockMerchant(ar))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="2">
+print (sockMerchant(ar))</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/solve-me-first/problem", "Solve Me First")</f>
         <v/>
       </c>
-      <c r="B150" s="3" t="inlineStr">
+      <c r="B159" s="3" t="inlineStr">
         <is>
           <t>10 months ago</t>
         </is>
       </c>
-      <c r="C150" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D150" s="3" t="inlineStr">
+      <c r="C159" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D159" s="3" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="E150" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F150" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-def solveMeFirst(a,b):
+      <c r="E159" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F159" s="4" t="inlineStr">
+        <is>
+          <t>def solveMeFirst(a,b):
     # Hint: Type return a+b below
     return a+b
 num1 = int(input())
 num2 = int(input())
 res = solveMeFirst(num1,num2)
-print(res)
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2">
+print(res)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/ctci-bubble-sort/problem", "Sorting: Bubble Sort")</f>
         <v/>
       </c>
-      <c r="B151" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C151" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D151" s="3" t="inlineStr">
+      <c r="B160" s="3" t="inlineStr">
+        <is>
+          <t>about 7 hours ago</t>
+        </is>
+      </c>
+      <c r="C160" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D160" s="3" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="E151" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F151" s="4" t="inlineStr">
-        <is>
-          <t>#!/bin/python3
-import math
-import os
-import random
-import re
-import sys
-# Complete the countSwaps function below.
-def countSwaps(A):
+      <c r="E160" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F160" s="4" t="inlineStr">
+        <is>
+          <t>def countSwaps(A):
     countSwap = 0
     last = len(A)-1
     while last &gt; 0 :
         for i in range(last) :
             if A[i] &gt; A[i+1] :
                 countSwap += 1
+                A[i], A[i+1] = A[i+1], A[i]
+        last -= 1
     print ('Array is sorted in', countSwap, 'swaps.')
     print ('First Element:', A[0])
     print ('Last Element:', A[-1])
-if __name__ == '__main__':
-    n = int(input())
-    a = list(map(int, input().rstrip().split()))
--- Warning: Some lines may be missing after this ! --</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2">
+_ = int(input())
+countSwaps(list(map(int, input().rstrip().split())))</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/ctci-comparator-sorting/problem", "Sorting: Comparator")</f>
         <v/>
       </c>
-      <c r="B152" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C152" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D152" s="3" t="inlineStr">
+      <c r="B161" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D161" s="3" t="inlineStr">
         <is>
           <t>35.0</t>
         </is>
       </c>
-      <c r="E152" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F152" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">from functools import cmp_to_key
-class Player:
-    def __init__(self, name, score):
-        self.name = name
-        self.score = score
-    #def __repr__(self):
-        pass  
-    def comparator(a, b):
-        if a.score &lt; b.score  : return 1
-        elif a.score &gt; b.score: return -1
-        elif a.name &lt; b.name  : return -1
-        elif a.name &gt; b.name  : return 1
-        return 0
-    </t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2">
+      <c r="E161" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F161" s="4" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/sparse-arrays/problem", "Sparse Arrays")</f>
         <v/>
       </c>
-      <c r="B153" s="3" t="inlineStr">
-        <is>
-          <t>8 months ago</t>
-        </is>
-      </c>
-      <c r="C153" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D153" s="3" t="inlineStr">
+      <c r="B162" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C162" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D162" s="3" t="inlineStr">
         <is>
           <t>25.0</t>
         </is>
       </c>
-      <c r="E153" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F153" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E162" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F162" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 n = int(input())
 A = {}
 for i in range(n):
     str = input()
     A[str] = A.get(str,0) + 1
 n = int(input())
-for i in range(n): print(A.get(input(),0))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2">
+for i in range(n): print(A.get(input(),0))</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/staircase/problem", "Staircase")</f>
         <v/>
       </c>
-      <c r="B154" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C154" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D154" s="3" t="inlineStr">
+      <c r="B163" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D163" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E154" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F154" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E163" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F163" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 def staircase(n):
    for i in range(n) : print(' ' * (n-i-1) + '#' * (i+1))
 if __name__ == '__main__':
     n = int(input())
-    staircase(n)
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="2">
+    staircase(n)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-string-formatting/problem", "String Formatting")</f>
         <v/>
       </c>
-      <c r="B155" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C155" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D155" s="3" t="inlineStr">
+      <c r="B164" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C164" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D164" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E155" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F155" s="4" t="inlineStr">
+      <c r="E164" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F164" s="4" t="inlineStr">
         <is>
           <t>def print_formatted(number):
     width = len(('{0:b}'.format(number))) + 1
@@ -6417,67 +6631,66 @@
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2">
+    <row r="165">
+      <c r="A165" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-string-split-and-join/problem", "String Split and Join")</f>
         <v/>
       </c>
-      <c r="B156" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C156" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D156" s="3" t="inlineStr">
+      <c r="B165" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C165" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D165" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E156" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F156" s="4" t="inlineStr">
+      <c r="E165" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F165" s="4" t="inlineStr">
         <is>
           <t>def split_and_join(line):
     return '-'.join(line.split())</t>
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2">
+    <row r="166">
+      <c r="A166" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/string-validators/problem", "String Validators")</f>
         <v/>
       </c>
-      <c r="B157" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C157" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D157" s="3" t="inlineStr">
+      <c r="B166" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C166" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D166" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E157" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F157" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-s = input()
+      <c r="E166" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F166" s="4" t="inlineStr">
+        <is>
+          <t>s = input()
 print(len([ x for x in s if x.isalnum()])&gt;0)
 print(len([ x for x in s if x.isalpha()])&gt;0)
 print(len([ x for x in s if x.isdigit()])&gt;0)
@@ -6486,34 +6699,34 @@
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2">
+    <row r="167">
+      <c r="A167" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/ctci-making-anagrams/problem", "Strings: Making Anagrams")</f>
         <v/>
       </c>
-      <c r="B158" s="3" t="inlineStr">
-        <is>
-          <t>about 5 hours ago</t>
-        </is>
-      </c>
-      <c r="C158" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D158" s="3" t="inlineStr">
+      <c r="B167" s="3" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D167" s="3" t="inlineStr">
         <is>
           <t>25.0</t>
         </is>
       </c>
-      <c r="E158" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F158" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E167" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F167" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 def makeAnagram(a, b):
     countA, countB = [0]*26, [0]*26
     offset = ord('a')  # ord('a') = 97
@@ -6523,143 +6736,139 @@
     for i, valA in enumerate(countA) :
         count += abs(valA - countB[i])
     return count
-print (makeAnagram(input(), input()))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="2">
+print (makeAnagram(input(), input()))</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-sum-and-prod/problem", "Sum and Prod")</f>
         <v/>
       </c>
-      <c r="B159" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C159" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D159" s="3" t="inlineStr">
+      <c r="B168" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C168" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D168" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E159" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F159" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">import numpy
+      <c r="E168" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F168" s="4" t="inlineStr">
+        <is>
+          <t>import numpy
 N, M = map(int,input().split())
 matrix = []
 for _ in range(N) : matrix.append(list(map(int, input().split())))
 s = numpy.sum(matrix, axis = 0)
-print (numpy.prod(s, axis = None))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="2">
+print (numpy.prod(s, axis = None))</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/sum-vs-xor/problem", "Sum vs XOR")</f>
         <v/>
       </c>
-      <c r="B160" s="3" t="inlineStr">
+      <c r="B169" s="3" t="inlineStr">
         <is>
           <t>6 months ago</t>
         </is>
       </c>
-      <c r="C160" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D160" s="3" t="inlineStr">
+      <c r="C169" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D169" s="3" t="inlineStr">
         <is>
           <t>25.0</t>
         </is>
       </c>
-      <c r="E160" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F160" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def sumXor(n):
+      <c r="E169" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F169" s="4" t="inlineStr">
+        <is>
+          <t>def sumXor(n):
     return 2 ** '{0:b}'.format(n)[1:].count('0')
-print (sumXor(int(input().strip())))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="2">
+print (sumXor(int(input().strip())))</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/summing-the-n-series/problem", "Summing the N series ")</f>
         <v/>
       </c>
-      <c r="B161" s="3" t="inlineStr">
+      <c r="B170" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C161" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D161" s="3" t="inlineStr">
+      <c r="C170" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D170" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E161" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F161" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def summingSeries(n) :
+      <c r="E170" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F170" s="4" t="inlineStr">
+        <is>
+          <t>def summingSeries(n) :
     return (n ** 2) % 1000000007
 for _ in range(int(input())):
-    print (summingSeries(int(input())))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="2">
+    print (summingSeries(int(input())))</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/symmetric-difference/problem", "Symmetric Difference")</f>
         <v/>
       </c>
-      <c r="B162" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C162" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D162" s="3" t="inlineStr">
+      <c r="B171" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D171" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E162" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F162" s="4" t="inlineStr">
+      <c r="E171" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F171" s="4" t="inlineStr">
         <is>
           <t>ignore = input()
 A = set(map(int,input().split()))
@@ -6670,32 +6879,32 @@
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2">
+    <row r="172">
+      <c r="A172" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/text-alignment/problem", "Text Alignment")</f>
         <v/>
       </c>
-      <c r="B163" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C163" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D163" s="3" t="inlineStr">
+      <c r="B172" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C172" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D172" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E163" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F163" s="4" t="inlineStr">
+      <c r="E172" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F172" s="4" t="inlineStr">
         <is>
           <t>#Replace all ______ with rjust, ljust or center. 
 thickness = int(input()) #This must be an odd number
@@ -6708,6 +6917,7 @@
     print((c*thickness).center(thickness*2)+(c*thickness).center(thickness*6))
 #Middle Belt
 for i in range((thickness+1)//2):
+    print((c*thickness*5).center(thickness*6))
 #Bottom Pillars
 for i in range(thickness+1):
     print((c*thickness).center(thickness*2)+(c*thickness).center(thickness*6))
@@ -6717,64 +6927,64 @@
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2">
+    <row r="173">
+      <c r="A173" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/text-wrap/problem", "Text Wrap")</f>
         <v/>
       </c>
-      <c r="B164" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C164" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D164" s="3" t="inlineStr">
+      <c r="B173" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D173" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E164" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F164" s="4" t="inlineStr">
+      <c r="E173" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F173" s="4" t="inlineStr">
         <is>
           <t>def wrap(string, max_width):
     return '\n'.join(textwrap.wrap(string, max_width))</t>
         </is>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2">
+    <row r="174">
+      <c r="A174" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-the-captains-room/problem", "The Captain's Room ")</f>
         <v/>
       </c>
-      <c r="B165" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C165" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D165" s="3" t="inlineStr">
+      <c r="B174" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C174" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D174" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E165" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F165" s="4" t="inlineStr">
+      <c r="E174" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F174" s="4" t="inlineStr">
         <is>
           <t>K = int(input())
 arr = input().split()
@@ -6783,32 +6993,32 @@
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2">
+    <row r="175">
+      <c r="A175" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/the-minion-game/problem", "The Minion Game")</f>
         <v/>
       </c>
-      <c r="B166" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C166" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D166" s="3" t="inlineStr">
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D175" s="3" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="E166" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F166" s="4" t="inlineStr">
+      <c r="E175" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F175" s="4" t="inlineStr">
         <is>
           <t>def minion_game(string):
     startsWithWowel, startsWithConsonant = 0, 0
@@ -6821,32 +7031,32 @@
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2">
+    <row r="176">
+      <c r="A176" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/ctci-big-o/problem", "Time Complexity: Primality")</f>
         <v/>
       </c>
-      <c r="B167" s="3" t="inlineStr">
-        <is>
-          <t>8 months ago</t>
-        </is>
-      </c>
-      <c r="C167" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D167" s="3" t="inlineStr">
+      <c r="B176" s="3" t="inlineStr">
+        <is>
+          <t>1 day ago</t>
+        </is>
+      </c>
+      <c r="C176" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D176" s="3" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="E167" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F167" s="4" t="inlineStr">
+      <c r="E176" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F176" s="4" t="inlineStr">
         <is>
           <t>#!/bin/python3
 from math import sqrt
@@ -6864,79 +7074,80 @@
     419    421    431    433    439    443    449    457    461    463 
     467    479    487    491    499    503    509    521    523    541 
     547    557    563    569    571    577    587    593    599    601 
+    607    613    617    619    631    641    643    647    653    659  
+    '''
     primes = list(map(int, primes.split()))
     for x in primes:
             if n &lt;= x: break
             if n % x == 0: return 'Not prime'
     return 'Prime' if n &gt; 1 else 'Not prime'
 for _ in range(int(input())):
--- Warning: Some lines may be missing after this ! --</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="2">
+    print(primality(int(input())))</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/time-conversion/problem", "Time Conversion")</f>
         <v/>
       </c>
-      <c r="B168" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C168" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D168" s="3" t="inlineStr">
+      <c r="B177" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D177" s="3" t="inlineStr">
         <is>
           <t>15.0</t>
         </is>
       </c>
-      <c r="E168" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F168" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E177" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F177" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 from time import strftime, strptime
 s = input()
-print (strftime('%H:%M:%S', strptime(s,'%I:%M:%S%p')))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="2">
+print (strftime('%H:%M:%S', strptime(s,'%I:%M:%S%p')))</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-time-delta/problem", "Time Delta")</f>
         <v/>
       </c>
-      <c r="B169" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C169" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D169" s="3" t="inlineStr">
+      <c r="B178" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C178" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D178" s="3" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="E169" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F169" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E178" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F178" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 from datetime import datetime
 def time_delta(t1, t2):
    time1 = datetime.strptime(t1, '%a %d %b %Y %H:%M:%S %z')
@@ -6945,77 +7156,75 @@
 for _ in range(int(input())):
     t1 = input()
     t2 = input()
-    print (time_delta(t1, t2))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="2">
+    print (time_delta(t1, t2))</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-transpose-and-flatten/problem", "Transpose and Flatten")</f>
         <v/>
       </c>
-      <c r="B170" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C170" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D170" s="3" t="inlineStr">
+      <c r="B179" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C179" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D179" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E170" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F170" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">import numpy
+      <c r="E179" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F179" s="4" t="inlineStr">
+        <is>
+          <t>import numpy
 arr = []
 for _ in range(int(input().split()[0])) :
     arr.append(list(map(int, input().split())))
 numpy_arr = numpy.array(arr)
 print (numpy.transpose(numpy_arr))
-print (numpy_arr.flatten())
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2">
+print (numpy_arr.flatten())</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/tree-height-of-a-binary-tree/problem", "Tree: Height of a Binary Tree")</f>
         <v/>
       </c>
-      <c r="B171" s="3" t="inlineStr">
+      <c r="B180" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C171" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D171" s="3" t="inlineStr">
+      <c r="C180" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D180" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E171" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F171" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"># Enter your code here. Read input from STDIN. Print output to STDOUT
+      <c r="E180" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F180" s="4" t="inlineStr">
+        <is>
+          <t># Enter your code here. Read input from STDIN. Print output to STDOUT
 '''
 class Node:
       def __init__(self,info): 
@@ -7026,39 +7235,38 @@
 '''
 def height(root, h=-1, txt='root'):
     if root == None : return h
-    return max(height(root.left,h+1,'left'), height(root.right, h+1,'right'))
-    </t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="2">
+    return max(height(root.left,h+1,'left'), height(root.right, h+1,'right'))</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/tree-inorder-traversal/problem", "Tree: Inorder Traversal")</f>
         <v/>
       </c>
-      <c r="B172" s="3" t="inlineStr">
+      <c r="B181" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C172" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D172" s="3" t="inlineStr">
+      <c r="C181" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D181" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E172" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F172" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"""
+      <c r="E181" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F181" s="4" t="inlineStr">
+        <is>
+          <t>"""
 Node is defined as
 self.left (the left child of the node)
 self.right (the right child of the node)
@@ -7068,37 +7276,36 @@
     def traverse(tree) : 
         if tree == None: return ' '
         return traverse(tree.left) + str(tree.info) + traverse(tree.right)
-    print(traverse(tree).lstrip())
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="2">
+    print(traverse(tree).lstrip())</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/tree-postorder-traversal/problem", "Tree: Postorder Traversal")</f>
         <v/>
       </c>
-      <c r="B173" s="3" t="inlineStr">
+      <c r="B182" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C173" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D173" s="3" t="inlineStr">
+      <c r="C182" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D182" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E173" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F173" s="4" t="inlineStr">
+      <c r="E182" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F182" s="4" t="inlineStr">
         <is>
           <t>"""
 Node is defined as
@@ -7114,32 +7321,32 @@
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2">
+    <row r="183">
+      <c r="A183" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/tree-preorder-traversal/problem", "Tree: Preorder Traversal")</f>
         <v/>
       </c>
-      <c r="B174" s="3" t="inlineStr">
+      <c r="B183" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C174" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D174" s="3" t="inlineStr">
+      <c r="C183" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D183" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E174" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F174" s="4" t="inlineStr">
+      <c r="E183" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F183" s="4" t="inlineStr">
         <is>
           <t>"""
 Node is defined as
@@ -7155,97 +7362,96 @@
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2">
+    <row r="184">
+      <c r="A184" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-quest-1/problem", "Triangle Quest")</f>
         <v/>
       </c>
-      <c r="B175" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C175" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D175" s="3" t="inlineStr">
+      <c r="B184" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C184" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D184" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E175" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F175" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">factor = 0
-for i in range(1,int(input())): factor = pow(10,i-1)+factor; print (i*factor)
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="2">
+      <c r="E184" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F184" s="4" t="inlineStr">
+        <is>
+          <t>factor = 0
+for i in range(1,int(input())): factor = pow(10,i-1)+factor; print (i*factor)</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/triangle-quest-2/problem", "Triangle Quest 2")</f>
         <v/>
       </c>
-      <c r="B176" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C176" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D176" s="3" t="inlineStr">
+      <c r="B185" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D185" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E176" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F176" s="4" t="inlineStr">
+      <c r="E185" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F185" s="4" t="inlineStr">
         <is>
           <t>n = 1; last_n = int(input())
 while n &lt;= last_n : print(pow(1 + sum(10 ** i for i in range(1, n)), 2)); n += 1</t>
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2">
+    <row r="186">
+      <c r="A186" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/triple-sum/problem", "Triple sum")</f>
         <v/>
       </c>
-      <c r="B177" s="3" t="inlineStr">
+      <c r="B186" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C177" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D177" s="3" t="inlineStr">
+      <c r="C186" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D186" s="3" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="E177" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F177" s="4" t="inlineStr">
+      <c r="E186" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F186" s="4" t="inlineStr">
         <is>
           <t>'''
 # has 2 timeouts:
@@ -7262,114 +7468,114 @@
                 countTriplets += 1
     return (countTriplets)
 '''
+from bisect import bisect                                
+def triplets(a, b, c):
     a, b, c = sorted(set(a)), sorted(set(b)), sorted(set(c))
     return sum([bisect(a, x) * bisect(c, x) for x in reversed(b)])
 _ = input()
 arra = list(map(int, input().rstrip().split()))
 arrb = list(map(int, input().rstrip().split()))
 arrc = list(map(int, input().rstrip().split()))
--- Warning: Some lines may be missing after this ! --</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="2">
+print(triplets(arra, arrb, arrc))</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-tuples/problem", "Tuples ")</f>
         <v/>
       </c>
-      <c r="B178" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C178" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D178" s="3" t="inlineStr">
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D187" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E178" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F178" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">if __name__ == '__main__':
+      <c r="E187" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F187" s="4" t="inlineStr">
+        <is>
+          <t>if __name__ == '__main__':
     n = int(input())
     input_list = map(int, input().split())
     integer_list = tuple(int(x) for x in input_list) #
-    print (hash(integer_list))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="2">
+    print (hash(integer_list))</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/two-strings/problem", "Two Strings")</f>
         <v/>
       </c>
-      <c r="B179" s="3" t="inlineStr">
+      <c r="B188" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C179" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D179" s="3" t="inlineStr">
+      <c r="C188" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D188" s="3" t="inlineStr">
         <is>
           <t>25.0</t>
         </is>
       </c>
-      <c r="E179" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F179" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">#!/bin/python3
+      <c r="E188" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F188" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
 def twoStrings(s1, s2):
     return 'YES' if (set(s1) &amp; set(s2)) != set('') else 'NO'
 for _ in range(int(input())):
-    print (twoStrings(input(), input()))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="2">
+    print (twoStrings(input(), input()))</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/validating-credit-card-number/problem", "Validating Credit Card Numbers")</f>
         <v/>
       </c>
-      <c r="B180" s="3" t="inlineStr">
+      <c r="B189" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C180" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D180" s="3" t="inlineStr">
+      <c r="C189" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D189" s="3" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="E180" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F180" s="4" t="inlineStr">
+      <c r="E189" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F189" s="4" t="inlineStr">
         <is>
           <t>import re
 def valid_creditcardNumber(s) :
@@ -7383,32 +7589,32 @@
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2">
+    <row r="190">
+      <c r="A190" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/validate-list-of-email-address-with-filter/problem", "Validating Email Addresses With a Filter ")</f>
         <v/>
       </c>
-      <c r="B181" s="3" t="inlineStr">
+      <c r="B190" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C181" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D181" s="3" t="inlineStr">
+      <c r="C190" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D190" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E181" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F181" s="4" t="inlineStr">
+      <c r="E190" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F190" s="4" t="inlineStr">
         <is>
           <t>import re
 def fun(s):
@@ -7416,96 +7622,95 @@
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2">
+    <row r="191">
+      <c r="A191" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/validating-postalcode/problem", "Validating Postal Codes")</f>
         <v/>
       </c>
-      <c r="B182" s="3" t="inlineStr">
+      <c r="B191" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C182" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D182" s="3" t="inlineStr">
+      <c r="C191" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D191" s="3" t="inlineStr">
         <is>
           <t>80.0</t>
         </is>
       </c>
-      <c r="E182" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F182" s="4" t="inlineStr">
+      <c r="E191" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F191" s="4" t="inlineStr">
         <is>
           <t>regex_integer_in_range = r'^[1-9][\d]{5}$'
 regex_alternating_repetitive_digit_pair = r'(\d)(?=\d\1)'</t>
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2">
+    <row r="192">
+      <c r="A192" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/validate-a-roman-number/problem", "Validating Roman Numerals")</f>
         <v/>
       </c>
-      <c r="B183" s="3" t="inlineStr">
+      <c r="B192" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C183" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D183" s="3" t="inlineStr">
+      <c r="C192" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D192" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E183" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F183" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">regex_pattern = r'^M{0,3}(CM|CD|D?C{0,3})(XC|XL|L?X{0,3})(IX|IV|V?I{0,3})$'
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="2">
+      <c r="E192" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F192" s="4" t="inlineStr">
+        <is>
+          <t>regex_pattern = r'^M{0,3}(CM|CD|D?C{0,3})(XC|XL|L?X{0,3})(IX|IV|V?I{0,3})$'</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/validating-uid/problem", "Validating UID ")</f>
         <v/>
       </c>
-      <c r="B184" s="3" t="inlineStr">
+      <c r="B193" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C184" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D184" s="3" t="inlineStr">
+      <c r="C193" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D193" s="3" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="E184" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F184" s="4" t="inlineStr">
+      <c r="E193" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F193" s="4" t="inlineStr">
         <is>
           <t>import re
 for _ in range(int(input())):
@@ -7521,32 +7726,32 @@
         </is>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2">
+    <row r="194">
+      <c r="A194" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/validating-named-email-addresses/problem", "Validating and Parsing Email Addresses")</f>
         <v/>
       </c>
-      <c r="B185" s="3" t="inlineStr">
+      <c r="B194" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C185" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D185" s="3" t="inlineStr">
+      <c r="C194" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D194" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E185" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F185" s="4" t="inlineStr">
+      <c r="E194" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F194" s="4" t="inlineStr">
         <is>
           <t>import re
 regex = r'[a-zA-Z]+[\w.-]+\@[a-zA-Z]+[a-zA-Z0-9]*[.][a-zA-Z]{1,3}$'
@@ -7557,32 +7762,32 @@
         </is>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2">
+    <row r="195">
+      <c r="A195" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/validating-the-phone-number/problem", "Validating phone numbers")</f>
         <v/>
       </c>
-      <c r="B186" s="3" t="inlineStr">
+      <c r="B195" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C186" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D186" s="3" t="inlineStr">
+      <c r="C195" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D195" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E186" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F186" s="4" t="inlineStr">
+      <c r="E195" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F195" s="4" t="inlineStr">
         <is>
           <t>import re
 regex = r'[7-9]\d{9}$' 
@@ -7591,32 +7796,32 @@
         </is>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2">
+    <row r="196">
+      <c r="A196" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/variable-sized-arrays/problem", "Variable Sized Arrays")</f>
         <v/>
       </c>
-      <c r="B187" s="3" t="inlineStr">
+      <c r="B196" s="3" t="inlineStr">
         <is>
           <t>3 months ago</t>
         </is>
       </c>
-      <c r="C187" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D187" s="3" t="inlineStr">
+      <c r="C196" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D196" s="3" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="E187" s="3" t="inlineStr">
+      <c r="E196" s="3" t="inlineStr">
         <is>
           <t>C++</t>
         </is>
       </c>
-      <c r="F187" s="4" t="inlineStr">
+      <c r="F196" s="4" t="inlineStr">
         <is>
           <t>#include &lt;vector&gt;
 #include &lt;iostream&gt;
@@ -7634,6 +7839,8 @@
             cin &gt;&gt; element; 
             aVector.push_back(element);   // insert element last in aVector
         }
+        allArrays.push_back(aVector);     // insert aVector last in allArrays
+    }
     /* do the queries... */
     for (int q = 0; q &lt; numberOfQueries; q++ ) {
         int i, j;
@@ -7641,69 +7848,228 @@
         cout &lt;&lt; allArrays[i][j] &lt;&lt; endl;  // accessing j'th column in i'th row
     }
     return 0;
--- Warning: Some lines may be missing after this ! --</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="2">
+}</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-1/problem", "Weather Observation Station 1")</f>
+        <v/>
+      </c>
+      <c r="B197" s="3" t="inlineStr">
+        <is>
+          <t>about 12 hours ago</t>
+        </is>
+      </c>
+      <c r="C197" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D197" s="3" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E197" s="3" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="F197" s="4" t="inlineStr">
+        <is>
+          <t>select CITY, STATE from STATION;</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-3/problem", "Weather Observation Station 3")</f>
+        <v/>
+      </c>
+      <c r="B198" s="3" t="inlineStr">
+        <is>
+          <t>about 12 hours ago</t>
+        </is>
+      </c>
+      <c r="C198" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D198" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E198" s="3" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="F198" s="4" t="inlineStr">
+        <is>
+          <t>select distinct(CITY) from STATION where mod(ID, 2) = 0;
+--
+-- oracle also accepts
+-- select unique(CITY) from STATION where mod(ID, 2) = 0;</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-4/problem", "Weather Observation Station 4")</f>
+        <v/>
+      </c>
+      <c r="B199" s="3" t="inlineStr">
+        <is>
+          <t>about 12 hours ago</t>
+        </is>
+      </c>
+      <c r="C199" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D199" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E199" s="3" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="F199" s="4" t="inlineStr">
+        <is>
+          <t>select count(CITY) - count(distinct(CITY)) from STATION;</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-5/problem", "Weather Observation Station 5")</f>
+        <v/>
+      </c>
+      <c r="B200" s="3" t="inlineStr">
+        <is>
+          <t>about 10 hours ago</t>
+        </is>
+      </c>
+      <c r="C200" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D200" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E200" s="3" t="inlineStr">
+        <is>
+          <t>MS SQL</t>
+        </is>
+      </c>
+      <c r="F200" s="4" t="inlineStr">
+        <is>
+          <t>select top 1 s.CITY, len(s.CITY) from (select CITY from STATION) s order by len(CITY) asc, CITY asc;
+select top 1 s.CITY, len(s.CITY) from (select CITY from STATION) s order by len(CITY) desc, CITY desc;</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-5/problem", "Weather Observation Station 5")</f>
+        <v/>
+      </c>
+      <c r="B201" s="3" t="inlineStr">
+        <is>
+          <t>about 11 hours ago</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D201" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E201" s="3" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="F201" s="4" t="inlineStr">
+        <is>
+          <t>select * from (select CITY, length(CITY) from STATION order by length(CITY) asc, CITY asc) where rownum = 1;
+select * from (select CITY, length(CITY) from STATION order by length(CITY) desc, CITY desc) where rownum = 1;</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/whats-your-name/problem", "What's Your Name?")</f>
         <v/>
       </c>
-      <c r="B188" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C188" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D188" s="3" t="inlineStr">
+      <c r="B202" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C202" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D202" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E188" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F188" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def print_full_name(a, b):
-    print("Hello {a} {b}! You just delved into python.".format(a=a,b=b))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="2">
+      <c r="E202" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F202" s="4" t="inlineStr">
+        <is>
+          <t>def print_full_name(a, b):
+    print("Hello {a} {b}! You just delved into python.".format(a=a,b=b))</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/word-order/problem", "Word Order")</f>
         <v/>
       </c>
-      <c r="B189" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C189" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D189" s="3" t="inlineStr">
+      <c r="B203" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C203" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D203" s="3" t="inlineStr">
         <is>
           <t>50.0</t>
         </is>
       </c>
-      <c r="E189" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F189" s="4" t="inlineStr">
+      <c r="E203" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F203" s="4" t="inlineStr">
         <is>
           <t>numberOfWords = int(input())
 allWords = {}
@@ -7720,66 +8086,66 @@
         </is>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2">
+    <row r="204">
+      <c r="A204" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/write-a-function/problem", "Write a function")</f>
         <v/>
       </c>
-      <c r="B190" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C190" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D190" s="3" t="inlineStr">
+      <c r="B204" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C204" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D204" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E190" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F190" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def is_leap(year):
-    return year % 4 == 0 and (not year % 100 == 0 or year % 400 == 0) </t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="2">
+      <c r="E204" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F204" s="4" t="inlineStr">
+        <is>
+          <t>def is_leap(year):
+    return year % 4 == 0 and (not year % 100 == 0 or year % 400 == 0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/xml2-find-the-maximum-depth/problem", "XML2 - Find the Maximum Depth")</f>
         <v/>
       </c>
-      <c r="B191" s="3" t="inlineStr">
+      <c r="B205" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C191" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D191" s="3" t="inlineStr">
+      <c r="C205" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D205" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E191" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F191" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"># solution from https://docs.python.org/3.3/library/xml.etree.elementtree.html#xmlparser-objects
+      <c r="E205" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F205" s="4" t="inlineStr">
+        <is>
+          <t># solution from https://docs.python.org/3.3/library/xml.etree.elementtree.html#xmlparser-objects
 from xml.etree.ElementTree import XMLParser
 class MaxDepth:                     # The target object of the parser
     maxDepth = 0
@@ -7793,44 +8159,45 @@
     def data(self, data):
         pass            # We do not need to do anything with data.
     def close(self):    # Called when all data has been parsed.
+        return self.maxDepth
+maxdepth = 0
 def depth(elem, level):
     global maxdepth
     target = MaxDepth()
     parser = XMLParser(target=target)
     parser.feed(etree.tostring(elem))
-    maxdepth = parser.close() - 1
-    </t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="2">
+    maxdepth = parser.close() - 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/xor-se/problem", "Xor-sequence")</f>
         <v/>
       </c>
-      <c r="B192" s="3" t="inlineStr">
+      <c r="B206" s="3" t="inlineStr">
         <is>
           <t>6 months ago</t>
         </is>
       </c>
-      <c r="C192" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D192" s="3" t="inlineStr">
+      <c r="C206" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D206" s="3" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="E192" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F192" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def getVal(n) :
+      <c r="E206" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F206" s="4" t="inlineStr">
+        <is>
+          <t>def getVal(n) :
     a=n % 8
     if a == 0 or a ==1  : return n
     elif a == 2 or a == 3 : return 2
@@ -7840,72 +8207,70 @@
     return getVal(l-1) ^ getVal(r)
 for _ in range(int(input())):
     lr = list(map(int, input().split()))
-    print(xorSequence(lr[0], lr[1]))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="2">
+    print(xorSequence(lr[0], lr[1]))</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-zeros-and-ones/problem", "Zeros and Ones")</f>
         <v/>
       </c>
-      <c r="B193" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C193" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D193" s="3" t="inlineStr">
+      <c r="B207" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C207" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D207" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E193" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F193" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">import numpy
+      <c r="E207" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F207" s="4" t="inlineStr">
+        <is>
+          <t>import numpy
 inp = tuple(map(int, input().split()))
 print (numpy.zeros(inp, dtype = numpy.int))
-print (numpy.ones(inp, dtype = numpy.int))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="2">
+print (numpy.ones(inp, dtype = numpy.int))</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/zipped/problem", "Zipped!")</f>
         <v/>
       </c>
-      <c r="B194" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C194" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D194" s="3" t="inlineStr">
+      <c r="B208" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C208" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D208" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E194" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F194" s="4" t="inlineStr">
+      <c r="E208" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F208" s="4" t="inlineStr">
         <is>
           <t>N, X = map(int, input().split())
 matrix = []
@@ -7916,32 +8281,32 @@
         </is>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2">
+    <row r="209">
+      <c r="A209" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/collections-counter/problem", "collections.Counter()")</f>
         <v/>
       </c>
-      <c r="B195" s="3" t="inlineStr">
+      <c r="B209" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C195" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D195" s="3" t="inlineStr">
+      <c r="C209" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D209" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E195" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F195" s="4" t="inlineStr">
+      <c r="E209" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F209" s="4" t="inlineStr">
         <is>
           <t>from collections import Counter
 _ = input()
@@ -7957,34 +8322,34 @@
         </is>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2">
+    <row r="210">
+      <c r="A210" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/ginorts/problem", "ginortS")</f>
         <v/>
       </c>
-      <c r="B196" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C196" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D196" s="3" t="inlineStr">
+      <c r="B210" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C210" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D210" s="3" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="E196" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F196" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">def ginortS(s) : # s ia string, only with alphanumeric charaters
+      <c r="E210" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F210" s="4" t="inlineStr">
+        <is>
+          <t>def ginortS(s) : # s ia string, only with alphanumeric charaters
     lowercaseCharacters, uppercaseCharacters, evenDigits, oddDigits = '', '', '', ''
     for c in s :
         if c.isdigit() :
@@ -7995,37 +8360,36 @@
         else :
             uppercaseCharacters += c
     return ''.join(sorted(lowercaseCharacters) + sorted(uppercaseCharacters) + sorted(oddDigits) + sorted(evenDigits))
-print (ginortS(input()))
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="2">
+print (ginortS(input()))</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/itertools-combinations/problem", "itertools.combinations()")</f>
         <v/>
       </c>
-      <c r="B197" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C197" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D197" s="3" t="inlineStr">
+      <c r="B211" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C211" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D211" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E197" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F197" s="4" t="inlineStr">
+      <c r="E211" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F211" s="4" t="inlineStr">
         <is>
           <t>from itertools import combinations
 s, k = input().split()
@@ -8037,32 +8401,32 @@
         </is>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2">
+    <row r="212">
+      <c r="A212" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/itertools-combinations-with-replacement/problem", "itertools.combinations_with_replacement()")</f>
         <v/>
       </c>
-      <c r="B198" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C198" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D198" s="3" t="inlineStr">
+      <c r="B212" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C212" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D212" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E198" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F198" s="4" t="inlineStr">
+      <c r="E212" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F212" s="4" t="inlineStr">
         <is>
           <t>from itertools import combinations_with_replacement
 s, k = input().split()
@@ -8071,32 +8435,32 @@
         </is>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2">
+    <row r="213">
+      <c r="A213" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/itertools-permutations/problem", "itertools.permutations()")</f>
         <v/>
       </c>
-      <c r="B199" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C199" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D199" s="3" t="inlineStr">
+      <c r="B213" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C213" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D213" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E199" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F199" s="4" t="inlineStr">
+      <c r="E213" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F213" s="4" t="inlineStr">
         <is>
           <t>from itertools import permutations
 s, k = input().split()
@@ -8105,32 +8469,32 @@
         </is>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2">
+    <row r="214">
+      <c r="A214" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/itertools-product/problem", "itertools.product()")</f>
         <v/>
       </c>
-      <c r="B200" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C200" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D200" s="3" t="inlineStr">
+      <c r="B214" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C214" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D214" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E200" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F200" s="4" t="inlineStr">
+      <c r="E214" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F214" s="4" t="inlineStr">
         <is>
           <t>from itertools import product
 A = map(int, input().split())
@@ -8139,32 +8503,32 @@
         </is>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2">
+    <row r="215">
+      <c r="A215" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/swap-case/problem", "sWAP cASE")</f>
         <v/>
       </c>
-      <c r="B201" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C201" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D201" s="3" t="inlineStr">
+      <c r="B215" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C215" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D215" s="3" t="inlineStr">
         <is>
           <t>10.0</t>
         </is>
       </c>
-      <c r="E201" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F201" s="4" t="inlineStr">
+      <c r="E215" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F215" s="4" t="inlineStr">
         <is>
           <t>def swap_case(s):
     result = ''

--- a/hackerrank_submissions_olaf_.xlsx
+++ b/hackerrank_submissions_olaf_.xlsx
@@ -380,7 +380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F235"/>
+  <dimension ref="A1:F240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,7 +435,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>6 months ago</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
@@ -591,7 +591,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>6 months ago</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>6 months ago</t>
+          <t>7 months ago</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -683,7 +683,22 @@
           <t>Python 3</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
+def luckBalance(k, L) :
+    maxBalanceLoosingAllUnimportant = sum([ x[0] for x in L if x[1]==0])
+    L = sorted([ x[0] for x in L if x[1]==1 ]);
+    n = len(L)
+    if k &gt; n : n = k
+    return   sum(L[n-k:])- sum(L[:n-k]) + maxBalanceLoosingAllUnimportant
+n, k = map(int, input().split())
+contests = []
+for _ in range(n):
+        contests.append(list(map(int, input().rstrip().split())))
+print(luckBalance(k, contests))</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
@@ -692,7 +707,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -710,23 +725,7 @@
           <t>Python 3</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>#!/bin/python3
-def maximumToys(prices, k):
-    prices.sort()
-    countMaxItems = 0
-    currentPrice = 0
-    for p in prices :
-        currentPrice += p
-        if currentPrice &lt;= k : countMaxItems += 1
-        else : break
-    return countMaxItems
-n, k = map(int, input().split())
-prices = list(map(int, input().rstrip().split()))
-print(maximumToys(prices, k))</t>
-        </is>
-      </c>
+      <c r="F9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
@@ -735,7 +734,7 @@
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>2 days ago</t>
+          <t>7 days ago</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -777,7 +776,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>8 months ago</t>
+          <t>9 months ago</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -816,7 +815,7 @@
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>10 days ago</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -931,7 +930,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>10 days ago</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -972,7 +971,7 @@
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -1011,7 +1010,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -1089,7 +1088,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>8 months ago</t>
+          <t>9 months ago</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -1163,7 +1162,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -1203,7 +1202,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1308,7 +1307,7 @@
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>6 days ago</t>
+          <t>10 days ago</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -1423,7 +1422,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -1478,7 +1477,7 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
@@ -1519,7 +1518,7 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
@@ -1559,7 +1558,7 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>8 months ago</t>
+          <t>9 months ago</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1612,7 +1611,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>9 months ago</t>
+          <t>10 months ago</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -1660,7 +1659,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>8 months ago</t>
+          <t>9 months ago</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1695,7 +1694,7 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -1765,7 +1764,7 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
@@ -1807,7 +1806,7 @@
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
@@ -1883,7 +1882,7 @@
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
@@ -1926,7 +1925,7 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
@@ -2120,7 +2119,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -2319,25 +2318,7 @@
           <t>C++</t>
         </is>
       </c>
-      <c r="F48" s="4" t="inlineStr">
-        <is>
-          <t>#include &lt;stdio.h&gt;
-#include &lt;cstdlib&gt;
-void update(int *a,int *b) {
-    int temp = *a;
-    *a += *b; 
-    *b = abs(*b - temp); 
-}
-int main() {
-    int a, b;
-    int *pa = &amp;a, *pb = &amp;b;
-    scanf("%d %d", &amp;a, &amp;b);
-    update(pa, pb);
-    printf("%d\n%d", a, b);
-    return 0;
-}</t>
-        </is>
-      </c>
+      <c r="F48" s="4" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2">
@@ -2439,7 +2420,7 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>8 months ago</t>
+          <t>9 months ago</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
@@ -2482,7 +2463,7 @@
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
@@ -2611,7 +2592,7 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -2663,18 +2644,7 @@
           <t>Python 3</t>
         </is>
       </c>
-      <c r="F56" s="4" t="inlineStr">
-        <is>
-          <t>#!/bin/python3
-n = int(input())
-A = {}
-for i in range(n):
-    str = input()
-    A[str] = A.get(str,0) + 1
-n = int(input())
-for i in range(n): print(A.get(input(),0))</t>
-        </is>
-      </c>
+      <c r="F56" s="4" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2">
@@ -2683,7 +2653,7 @@
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
@@ -2721,7 +2691,7 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
@@ -2762,7 +2732,7 @@
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr">
@@ -2810,7 +2780,7 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
@@ -2879,7 +2849,7 @@
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
@@ -3224,7 +3194,7 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr">
@@ -3310,7 +3280,19 @@
           <t>Python 3</t>
         </is>
       </c>
-      <c r="F73" s="4" t="inlineStr"/>
+      <c r="F73" s="4" t="inlineStr">
+        <is>
+          <t>#!/bin/python3
+primes = (2, 3, 5, 7, 11, 13, 17, 19, 23, 29, 31, 37, 41, 43, 47, 53) 
+# max : 32589158477190044730 &gt; 10**18
+def primeCount(n):
+    prod = 1
+    for i, x in enumerate(primes) :
+        prod *= x
+        if prod &gt; n : return i
+for _ in range(int(input())) : print (primeCount(int(input())))</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
@@ -3337,7 +3319,11 @@
           <t>Python 3</t>
         </is>
       </c>
-      <c r="F74" s="4" t="inlineStr"/>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t>for _ in range(int(input())): print(1+int(input()))</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
@@ -3628,18 +3614,7 @@
           <t>Python 3</t>
         </is>
       </c>
-      <c r="F82" s="4" t="inlineStr">
-        <is>
-          <t>if __name__ == '__main__':
-    x = int(input())
-    y = int(input())
-    z = int(input())
-    n = int(input())
-    print ([ [i,j,k]  for i in range(x+1) \
-                      for j in range(y+1) \
-                      for k in range(z+1) if i+j+k != n])</t>
-        </is>
-      </c>
+      <c r="F82" s="4" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2">
@@ -3714,17 +3689,7 @@
           <t>Python 3</t>
         </is>
       </c>
-      <c r="F84" s="4" t="inlineStr">
-        <is>
-          <t>students = []
-for i in range(int(input())):
-    students.append([input(), float(input())])
-lowestScores = sorted(list(set([x[1] for x in students])))[:2]
-if len(lowestScores) == 2 :
-   for name, score in  sorted([ x for x in students if x[1] == lowestScores[1]]):
-        print (name)</t>
-        </is>
-      </c>
+      <c r="F84" s="4" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2">
@@ -3786,27 +3751,7 @@
           <t>Python 3</t>
         </is>
       </c>
-      <c r="F86" s="4" t="inlineStr">
-        <is>
-          <t># how to use any and all in this ?
-#
-def isPalindromic(x) : # x is of type int
-   xStr = str(x)
-   for i in range (len(xStr) // 2 + 1) :
-       if xStr[i] != xStr[len(xStr)-1-i] : return False
-   return True
-N = int(input()) # not used...
-intList = list(map(int, input().split()))
-resultTrue = True
-for x in intList :
-    resultTrue = resultTrue and x &gt; 0
-if resultTrue:
-    resultTrue = False
-    for y in intList :
-        if isPalindromic(y) : resultTrue = True
-print (resultTrue)</t>
-        </is>
-      </c>
+      <c r="F86" s="4" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2">
@@ -3815,7 +3760,7 @@
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>4 days ago</t>
+          <t>9 days ago</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr">
@@ -3995,7 +3940,7 @@
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>8 months ago</t>
+          <t>9 months ago</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr">
@@ -4517,30 +4462,74 @@
     </row>
     <row r="105">
       <c r="A105" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/words-score", "Python &gt; Debugging &gt; Words Score")</f>
+        <v/>
+      </c>
+      <c r="B105" s="3" t="inlineStr">
+        <is>
+          <t>about 14 hours ago</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E105" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F105" s="4" t="inlineStr">
+        <is>
+          <t>def is_vowel(letter):
+    return letter in ['a', 'e', 'i', 'o', 'u', 'y']
+def score_words(words):
+    score = 0
+    for word in words:
+        num_vowels = 0
+        for letter in word:
+            if is_vowel(letter):
+                num_vowels += 1
+        if num_vowels % 2 == 0:
+            score += 2
+        else:
+            score += 1
+    return score</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/exceptions", "Python &gt; Errors and Exceptions &gt; Exceptions")</f>
         <v/>
       </c>
-      <c r="B105" s="3" t="inlineStr">
-        <is>
-          <t>8 months ago</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D105" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E105" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F105" s="4" t="inlineStr">
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F106" s="4" t="inlineStr">
         <is>
           <t>for _ in range(int(input())) :
     try :
@@ -4551,32 +4540,32 @@
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2">
+    <row r="107">
+      <c r="A107" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/incorrect-regex", "Python &gt; Errors and Exceptions &gt; Incorrect Regex")</f>
         <v/>
       </c>
-      <c r="B106" s="3" t="inlineStr">
-        <is>
-          <t>8 months ago</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D106" s="3" t="inlineStr">
+      <c r="B107" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C107" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D107" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E106" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F106" s="4" t="inlineStr">
+      <c r="E107" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F107" s="4" t="inlineStr">
         <is>
           <t>import re
 for _ in range(int(input())) :
@@ -4588,32 +4577,32 @@
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2">
+    <row r="108">
+      <c r="A108" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-arithmetic-operators", "Python &gt; Introduction &gt; Arithmetic Operators")</f>
         <v/>
       </c>
-      <c r="B107" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D107" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E107" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F107" s="4" t="inlineStr">
+      <c r="B108" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C108" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D108" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F108" s="4" t="inlineStr">
         <is>
           <t>if __name__ == '__main__':
     a = int(input())
@@ -4624,32 +4613,32 @@
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2">
+    <row r="109">
+      <c r="A109" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-loops", "Python &gt; Introduction &gt; Loops")</f>
         <v/>
       </c>
-      <c r="B108" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C108" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D108" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E108" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F108" s="4" t="inlineStr">
+      <c r="B109" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C109" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D109" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E109" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F109" s="4" t="inlineStr">
         <is>
           <t>if __name__ == '__main__':
     n = int(input())
@@ -4657,32 +4646,32 @@
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2">
+    <row r="110">
+      <c r="A110" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-print", "Python &gt; Introduction &gt; Print Function")</f>
         <v/>
       </c>
-      <c r="B109" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C109" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D109" s="3" t="inlineStr">
+      <c r="B110" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E109" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F109" s="4" t="inlineStr">
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F110" s="4" t="inlineStr">
         <is>
           <t>if __name__ == '__main__':
     n = int(input())
@@ -4690,32 +4679,32 @@
         </is>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2">
+    <row r="111">
+      <c r="A111" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-if-else", "Python &gt; Introduction &gt; Python If-Else")</f>
         <v/>
       </c>
-      <c r="B110" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C110" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D110" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E110" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F110" s="4" t="inlineStr">
+      <c r="B111" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C111" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D111" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E111" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F111" s="4" t="inlineStr">
         <is>
           <t>#!/bin/python3
 N = int(input())
@@ -4723,32 +4712,32 @@
         </is>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2">
+    <row r="112">
+      <c r="A112" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-division", "Python &gt; Introduction &gt; Python: Division")</f>
         <v/>
       </c>
-      <c r="B111" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C111" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D111" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E111" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F111" s="4" t="inlineStr">
+      <c r="B112" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C112" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D112" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F112" s="4" t="inlineStr">
         <is>
           <t>if __name__ == '__main__':
     a = int(input())
@@ -4758,64 +4747,64 @@
         </is>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2">
+    <row r="113">
+      <c r="A113" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/write-a-function", "Python &gt; Introduction &gt; Write a function")</f>
         <v/>
       </c>
-      <c r="B112" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C112" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D112" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E112" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F112" s="4" t="inlineStr">
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D113" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E113" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F113" s="4" t="inlineStr">
         <is>
           <t>def is_leap(year):
     return year % 4 == 0 and (not year % 100 == 0 or year % 400 == 0)</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2">
+    <row r="114">
+      <c r="A114" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/compress-the-string", "Python &gt; Itertools &gt; Compress the String! ")</f>
         <v/>
       </c>
-      <c r="B113" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C113" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D113" s="3" t="inlineStr">
+      <c r="B114" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C114" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D114" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E113" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F113" s="4" t="inlineStr">
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F114" s="4" t="inlineStr">
         <is>
           <t>from itertools import groupby
 s = input()   
@@ -4825,32 +4814,32 @@
         </is>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2">
+    <row r="115">
+      <c r="A115" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/iterables-and-iterators", "Python &gt; Itertools &gt; Iterables and Iterators")</f>
         <v/>
       </c>
-      <c r="B114" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C114" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D114" s="3" t="inlineStr">
+      <c r="B115" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C115" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D115" s="3" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="E114" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F114" s="4" t="inlineStr">
+      <c r="E115" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F115" s="4" t="inlineStr">
         <is>
           <t>from itertools import combinations
 ignore = input()
@@ -4865,32 +4854,32 @@
         </is>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2">
+    <row r="116">
+      <c r="A116" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/itertools-combinations", "Python &gt; Itertools &gt; itertools.combinations()")</f>
         <v/>
       </c>
-      <c r="B115" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C115" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D115" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E115" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F115" s="4" t="inlineStr">
+      <c r="B116" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C116" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D116" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F116" s="4" t="inlineStr">
         <is>
           <t>from itertools import combinations
 s, k = input().split()
@@ -4902,32 +4891,32 @@
         </is>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2">
+    <row r="117">
+      <c r="A117" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/itertools-combinations-with-replacement", "Python &gt; Itertools &gt; itertools.combinations_with_replacement()")</f>
         <v/>
       </c>
-      <c r="B116" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C116" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D116" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E116" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F116" s="4" t="inlineStr">
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D117" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E117" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F117" s="4" t="inlineStr">
         <is>
           <t>from itertools import combinations_with_replacement
 s, k = input().split()
@@ -4936,32 +4925,32 @@
         </is>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2">
+    <row r="118">
+      <c r="A118" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/itertools-permutations", "Python &gt; Itertools &gt; itertools.permutations()")</f>
         <v/>
       </c>
-      <c r="B117" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C117" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D117" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E117" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F117" s="4" t="inlineStr">
+      <c r="B118" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C118" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D118" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F118" s="4" t="inlineStr">
         <is>
           <t>from itertools import permutations
 s, k = input().split()
@@ -4970,32 +4959,32 @@
         </is>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2">
+    <row r="119">
+      <c r="A119" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/itertools-product", "Python &gt; Itertools &gt; itertools.product()")</f>
         <v/>
       </c>
-      <c r="B118" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C118" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D118" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E118" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F118" s="4" t="inlineStr">
+      <c r="B119" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C119" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D119" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E119" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F119" s="4" t="inlineStr">
         <is>
           <t>from itertools import product
 A = map(int, input().split())
@@ -5004,32 +4993,32 @@
         </is>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2">
+    <row r="120">
+      <c r="A120" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/maximize-it", "Python &gt; Itertools &gt; Maximize It!")</f>
         <v/>
       </c>
-      <c r="B119" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C119" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D119" s="3" t="inlineStr">
+      <c r="B120" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C120" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D120" s="3" t="inlineStr">
         <is>
           <t>50.0</t>
         </is>
       </c>
-      <c r="E119" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F119" s="4" t="inlineStr">
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F120" s="4" t="inlineStr">
         <is>
           <t>from itertools import product
 K, M = map(int,input().split())
@@ -5039,32 +5028,32 @@
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2">
+    <row r="121">
+      <c r="A121" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/find-angle", "Python &gt; Math &gt; Find Angle MBC")</f>
         <v/>
       </c>
-      <c r="B120" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C120" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D120" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E120" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F120" s="4" t="inlineStr">
+      <c r="B121" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C121" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D121" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E121" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F121" s="4" t="inlineStr">
         <is>
           <t>from math import degrees, atan
 AB = int(input()); BC = int(input())
@@ -5072,64 +5061,64 @@
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2">
+    <row r="122">
+      <c r="A122" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-integers-come-in-all-sizes", "Python &gt; Math &gt; Integers Come In All Sizes")</f>
         <v/>
       </c>
-      <c r="B121" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C121" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D121" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E121" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F121" s="4" t="inlineStr">
+      <c r="B122" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C122" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D122" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F122" s="4" t="inlineStr">
         <is>
           <t>a,b,c,d = [int(input()) for _ in '1234']
 print (pow(a,b)+pow(c,d))</t>
         </is>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2">
+    <row r="123">
+      <c r="A123" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-mod-divmod", "Python &gt; Math &gt; Mod Divmod")</f>
         <v/>
       </c>
-      <c r="B122" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C122" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D122" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E122" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F122" s="4" t="inlineStr">
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F123" s="4" t="inlineStr">
         <is>
           <t>a = int(input())
 b = int(input())
@@ -5139,32 +5128,32 @@
         </is>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2">
+    <row r="124">
+      <c r="A124" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/polar-coordinates", "Python &gt; Math &gt; Polar Coordinates")</f>
         <v/>
       </c>
-      <c r="B123" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D123" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E123" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F123" s="4" t="inlineStr">
+      <c r="B124" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C124" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D124" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
         <is>
           <t>from cmath import polar
 for v in polar(complex(input())):
@@ -5172,32 +5161,32 @@
         </is>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2">
+    <row r="125">
+      <c r="A125" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-power-mod-power", "Python &gt; Math &gt; Power - Mod Power")</f>
         <v/>
       </c>
-      <c r="B124" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C124" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D124" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E124" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F124" s="4" t="inlineStr">
+      <c r="B125" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C125" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D125" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E125" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F125" s="4" t="inlineStr">
         <is>
           <t>a = int(input()); b = int(input()); m = int(input())
 print (pow(a,b))
@@ -5205,96 +5194,96 @@
         </is>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2">
+    <row r="126">
+      <c r="A126" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-quest-1", "Python &gt; Math &gt; Triangle Quest")</f>
         <v/>
       </c>
-      <c r="B125" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C125" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D125" s="3" t="inlineStr">
+      <c r="B126" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C126" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D126" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E125" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F125" s="4" t="inlineStr">
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F126" s="4" t="inlineStr">
         <is>
           <t>factor = 0
 for i in range(1,int(input())): factor = pow(10,i-1)+factor; print (i*factor)</t>
         </is>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2">
+    <row r="127">
+      <c r="A127" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/triangle-quest-2", "Python &gt; Math &gt; Triangle Quest 2")</f>
         <v/>
       </c>
-      <c r="B126" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C126" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D126" s="3" t="inlineStr">
+      <c r="B127" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C127" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D127" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E126" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F126" s="4" t="inlineStr">
+      <c r="E127" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F127" s="4" t="inlineStr">
         <is>
           <t>n = 1; last_n = int(input())
 while n &lt;= last_n : print(pow(1 + sum(10 ** i for i in range(1, n)), 2)); n += 1</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2">
+    <row r="128">
+      <c r="A128" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-array-mathematics", "Python &gt; Numpy &gt; Array Mathematics")</f>
         <v/>
       </c>
-      <c r="B127" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C127" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D127" s="3" t="inlineStr">
+      <c r="B128" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C128" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D128" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E127" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F127" s="4" t="inlineStr">
+      <c r="E128" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F128" s="4" t="inlineStr">
         <is>
           <t>import numpy
 N, ignore = map(int,input().split())
@@ -5312,64 +5301,64 @@
         </is>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2">
+    <row r="129">
+      <c r="A129" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-arrays", "Python &gt; Numpy &gt; Arrays")</f>
         <v/>
       </c>
-      <c r="B128" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C128" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D128" s="3" t="inlineStr">
+      <c r="B129" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D129" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E128" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F128" s="4" t="inlineStr">
+      <c r="E129" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F129" s="4" t="inlineStr">
         <is>
           <t>def arrays(arr):
    return numpy.array(arr, float)[::-1]</t>
         </is>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2">
+    <row r="130">
+      <c r="A130" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-concatenate", "Python &gt; Numpy &gt; Concatenate")</f>
         <v/>
       </c>
-      <c r="B129" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C129" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D129" s="3" t="inlineStr">
+      <c r="B130" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C130" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D130" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E129" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F129" s="4" t="inlineStr">
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F130" s="4" t="inlineStr">
         <is>
           <t>import numpy
 arr1, arr2 = [], []
@@ -5382,32 +5371,32 @@
         </is>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2">
+    <row r="131">
+      <c r="A131" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-dot-and-cross", "Python &gt; Numpy &gt; Dot and Cross")</f>
         <v/>
       </c>
-      <c r="B130" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C130" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D130" s="3" t="inlineStr">
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D131" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E130" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F130" s="4" t="inlineStr">
+      <c r="E131" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F131" s="4" t="inlineStr">
         <is>
           <t>import numpy
 N = int(input())
@@ -5420,32 +5409,32 @@
         </is>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2">
+    <row r="132">
+      <c r="A132" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-eye-and-identity", "Python &gt; Numpy &gt; Eye and Identity")</f>
         <v/>
       </c>
-      <c r="B131" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C131" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D131" s="3" t="inlineStr">
+      <c r="B132" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C132" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D132" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E131" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F131" s="4" t="inlineStr">
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F132" s="4" t="inlineStr">
         <is>
           <t>import numpy
 N, M = map(int,input().split())
@@ -5454,32 +5443,32 @@
         </is>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2">
+    <row r="133">
+      <c r="A133" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/floor-ceil-and-rint", "Python &gt; Numpy &gt; Floor, Ceil and Rint")</f>
         <v/>
       </c>
-      <c r="B132" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C132" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D132" s="3" t="inlineStr">
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D133" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E132" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F132" s="4" t="inlineStr">
+      <c r="E133" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F133" s="4" t="inlineStr">
         <is>
           <t>import numpy
 numpy.set_printoptions(sign=' ')
@@ -5490,32 +5479,32 @@
         </is>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2">
+    <row r="134">
+      <c r="A134" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-inner-and-outer", "Python &gt; Numpy &gt; Inner and Outer")</f>
         <v/>
       </c>
-      <c r="B133" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C133" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D133" s="3" t="inlineStr">
+      <c r="B134" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C134" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D134" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E133" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F133" s="4" t="inlineStr">
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F134" s="4" t="inlineStr">
         <is>
           <t>import numpy
 A = list(map(int, input().split()))
@@ -5525,32 +5514,32 @@
         </is>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2">
+    <row r="135">
+      <c r="A135" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-linear-algebra", "Python &gt; Numpy &gt; Linear Algebra")</f>
         <v/>
       </c>
-      <c r="B134" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C134" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D134" s="3" t="inlineStr">
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D135" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E134" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F134" s="4" t="inlineStr">
+      <c r="E135" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F135" s="4" t="inlineStr">
         <is>
           <t>import numpy
 numpy.set_printoptions(legacy='1.13')
@@ -5561,32 +5550,32 @@
         </is>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2">
+    <row r="136">
+      <c r="A136" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-mean-var-and-std", "Python &gt; Numpy &gt; Mean, Var, and Std")</f>
         <v/>
       </c>
-      <c r="B135" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C135" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D135" s="3" t="inlineStr">
+      <c r="B136" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D136" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E135" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F135" s="4" t="inlineStr">
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F136" s="4" t="inlineStr">
         <is>
           <t>import numpy
 numpy.set_printoptions(legacy='1.13') # fixes spacing problem. According to comments,
@@ -5607,32 +5596,32 @@
         </is>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2">
+    <row r="137">
+      <c r="A137" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-min-and-max", "Python &gt; Numpy &gt; Min and Max")</f>
         <v/>
       </c>
-      <c r="B136" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C136" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D136" s="3" t="inlineStr">
+      <c r="B137" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C137" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D137" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E136" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F136" s="4" t="inlineStr">
+      <c r="E137" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F137" s="4" t="inlineStr">
         <is>
           <t>import numpy
 N, M = map(int,input().split())
@@ -5643,32 +5632,32 @@
         </is>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2">
+    <row r="138">
+      <c r="A138" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-polynomials", "Python &gt; Numpy &gt; Polynomials")</f>
         <v/>
       </c>
-      <c r="B137" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C137" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D137" s="3" t="inlineStr">
+      <c r="B138" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C138" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D138" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E137" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F137" s="4" t="inlineStr">
+      <c r="E138" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F138" s="4" t="inlineStr">
         <is>
           <t>import numpy
 coeff = list(map(float, input().split()))
@@ -5677,32 +5666,32 @@
         </is>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2">
+    <row r="139">
+      <c r="A139" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-shape-reshape", "Python &gt; Numpy &gt; Shape and Reshape")</f>
         <v/>
       </c>
-      <c r="B138" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C138" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D138" s="3" t="inlineStr">
+      <c r="B139" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D139" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E138" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F138" s="4" t="inlineStr">
+      <c r="E139" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F139" s="4" t="inlineStr">
         <is>
           <t>import numpy
 arr = numpy.array(input().split(),int)
@@ -5710,32 +5699,32 @@
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2">
+    <row r="140">
+      <c r="A140" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-sum-and-prod", "Python &gt; Numpy &gt; Sum and Prod")</f>
         <v/>
       </c>
-      <c r="B139" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C139" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D139" s="3" t="inlineStr">
+      <c r="B140" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C140" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D140" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E139" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F139" s="4" t="inlineStr">
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F140" s="4" t="inlineStr">
         <is>
           <t>import numpy
 N, M = map(int,input().split())
@@ -5746,32 +5735,32 @@
         </is>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2">
+    <row r="141">
+      <c r="A141" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-transpose-and-flatten", "Python &gt; Numpy &gt; Transpose and Flatten")</f>
         <v/>
       </c>
-      <c r="B140" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C140" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D140" s="3" t="inlineStr">
+      <c r="B141" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D141" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E140" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F140" s="4" t="inlineStr">
+      <c r="E141" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F141" s="4" t="inlineStr">
         <is>
           <t>import numpy
 arr = []
@@ -5783,32 +5772,32 @@
         </is>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2">
+    <row r="142">
+      <c r="A142" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/np-zeros-and-ones", "Python &gt; Numpy &gt; Zeros and Ones")</f>
         <v/>
       </c>
-      <c r="B141" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C141" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D141" s="3" t="inlineStr">
+      <c r="B142" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C142" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D142" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E141" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F141" s="4" t="inlineStr">
+      <c r="E142" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F142" s="4" t="inlineStr">
         <is>
           <t>import numpy
 inp = tuple(map(int, input().split()))
@@ -5817,32 +5806,32 @@
         </is>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2">
+    <row r="143">
+      <c r="A143" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/map-and-lambda-expression", "Python &gt; Python Functionals &gt; Map and Lambda Function")</f>
         <v/>
       </c>
-      <c r="B142" s="3" t="inlineStr">
+      <c r="B143" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C142" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D142" s="3" t="inlineStr">
+      <c r="C143" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D143" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E142" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F142" s="4" t="inlineStr">
+      <c r="E143" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F143" s="4" t="inlineStr">
         <is>
           <t>cube = lambda x: x ** 3
 def fibonacci(n):
@@ -5855,32 +5844,32 @@
         </is>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2">
+    <row r="144">
+      <c r="A144" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/reduce-function", "Python &gt; Python Functionals &gt; Reduce Function")</f>
         <v/>
       </c>
-      <c r="B143" s="3" t="inlineStr">
+      <c r="B144" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C143" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D143" s="3" t="inlineStr">
+      <c r="C144" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D144" s="3" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="E143" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F143" s="4" t="inlineStr">
+      <c r="E144" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F144" s="4" t="inlineStr">
         <is>
           <t>def product(fracs):
     t = reduce(lambda x,y: x*y, fracs)
@@ -5888,32 +5877,32 @@
         </is>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2">
+    <row r="145">
+      <c r="A145" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/validate-list-of-email-address-with-filter", "Python &gt; Python Functionals &gt; Validating Email Addresses With a Filter ")</f>
         <v/>
       </c>
-      <c r="B144" s="3" t="inlineStr">
+      <c r="B145" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C144" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D144" s="3" t="inlineStr">
+      <c r="C145" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D145" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E144" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F144" s="4" t="inlineStr">
+      <c r="E145" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F145" s="4" t="inlineStr">
         <is>
           <t>import re
 def fun(s):
@@ -5921,32 +5910,32 @@
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2">
+    <row r="146">
+      <c r="A146" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/introduction-to-regex", "Python &gt; Regex and Parsing &gt; Detect Floating Point Number")</f>
         <v/>
       </c>
-      <c r="B145" s="3" t="inlineStr">
+      <c r="B146" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C145" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D145" s="3" t="inlineStr">
+      <c r="C146" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D146" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E145" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F145" s="4" t="inlineStr">
+      <c r="E146" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F146" s="4" t="inlineStr">
         <is>
           <t>import re
 for _ in range(int(input())) :
@@ -5954,32 +5943,32 @@
         </is>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2">
+    <row r="147">
+      <c r="A147" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/detect-html-tags-attributes-and-attribute-values", "Python &gt; Regex and Parsing &gt; Detect HTML Tags, Attributes and Attribute Values")</f>
         <v/>
       </c>
-      <c r="B146" s="3" t="inlineStr">
-        <is>
-          <t>8 months ago</t>
-        </is>
-      </c>
-      <c r="C146" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D146" s="3" t="inlineStr">
+      <c r="B147" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C147" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D147" s="3" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="E146" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F146" s="4" t="inlineStr">
+      <c r="E147" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F147" s="4" t="inlineStr">
         <is>
           <t>from html.parser import HTMLParser
 class MyHTMLParser(HTMLParser):
@@ -5997,32 +5986,32 @@
         </is>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2">
+    <row r="148">
+      <c r="A148" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/re-group-groups", "Python &gt; Regex and Parsing &gt; Group(), Groups() &amp; Groupdict()")</f>
         <v/>
       </c>
-      <c r="B147" s="3" t="inlineStr">
+      <c r="B148" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C147" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D147" s="3" t="inlineStr">
+      <c r="C148" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D148" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E147" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F147" s="4" t="inlineStr">
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F148" s="4" t="inlineStr">
         <is>
           <t>import re
 m = re.search(r"([a-z0-9])\1", input())   
@@ -6030,32 +6019,32 @@
         </is>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2">
+    <row r="149">
+      <c r="A149" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/hex-color-code", "Python &gt; Regex and Parsing &gt; Hex Color Code")</f>
         <v/>
       </c>
-      <c r="B148" s="3" t="inlineStr">
+      <c r="B149" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C148" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D148" s="3" t="inlineStr">
+      <c r="C149" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D149" s="3" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="E148" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F148" s="4" t="inlineStr">
+      <c r="E149" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F149" s="4" t="inlineStr">
         <is>
           <t>import re
 def getColorCodes(s) : 
@@ -6067,32 +6056,32 @@
         </is>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2">
+    <row r="150">
+      <c r="A150" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/html-parser-part-1", "Python &gt; Regex and Parsing &gt; HTML Parser - Part 1")</f>
         <v/>
       </c>
-      <c r="B149" s="3" t="inlineStr">
-        <is>
-          <t>8 months ago</t>
-        </is>
-      </c>
-      <c r="C149" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D149" s="3" t="inlineStr">
+      <c r="B150" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D150" s="3" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="E149" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F149" s="4" t="inlineStr">
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F150" s="4" t="inlineStr">
         <is>
           <t>from html.parser import HTMLParser 
 class MyHTMLParser(HTMLParser):
@@ -6112,41 +6101,14 @@
         </is>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/html-parser-part-2", "Python &gt; Regex and Parsing &gt; HTML Parser - Part 2")</f>
-        <v/>
-      </c>
-      <c r="B150" s="3" t="inlineStr">
-        <is>
-          <t>8 months ago</t>
-        </is>
-      </c>
-      <c r="C150" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D150" s="3" t="inlineStr">
-        <is>
-          <t>30.0</t>
-        </is>
-      </c>
-      <c r="E150" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F150" s="4" t="inlineStr"/>
-    </row>
     <row r="151">
       <c r="A151" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/matrix-script", "Python &gt; Regex and Parsing &gt; Matrix Script")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/html-parser-part-2", "Python &gt; Regex and Parsing &gt; HTML Parser - Part 2")</f>
         <v/>
       </c>
       <c r="B151" s="3" t="inlineStr">
         <is>
-          <t>8 months ago</t>
+          <t>9 months ago</t>
         </is>
       </c>
       <c r="C151" s="3" t="inlineStr">
@@ -6156,7 +6118,7 @@
       </c>
       <c r="D151" s="3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>30.0</t>
         </is>
       </c>
       <c r="E151" s="3" t="inlineStr">
@@ -6164,11 +6126,31 @@
           <t>Python 3</t>
         </is>
       </c>
-      <c r="F151" s="4" t="inlineStr"/>
+      <c r="F151" s="4" t="inlineStr">
+        <is>
+          <t>from html.parser import HTMLParser
+class MyHTMLParser(HTMLParser):
+    def handle_data(self, data):
+        if data.strip() != '' :
+            print ('&gt;&gt;&gt; Data '  + '\n' + data)
+    def handle_comment(self, data):
+        if data.count('\n') == 0 :
+            print ('&gt;&gt;&gt; Single-line Comment' + '\n' + data)
+        else :
+            print('&gt;&gt;&gt; Multi-line Comment' + '\n' + data)  
+html = ""       
+for i in range(int(input())):
+    html += input().rstrip()
+    html += '\n'
+parser = MyHTMLParser()
+parser.feed(html)
+parser.close()</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/re-split", "Python &gt; Regex and Parsing &gt; Re.split()")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/matrix-script", "Python &gt; Regex and Parsing &gt; Matrix Script")</f>
         <v/>
       </c>
       <c r="B152" s="3" t="inlineStr">
@@ -6183,7 +6165,7 @@
       </c>
       <c r="D152" s="3" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="E152" s="3" t="inlineStr">
@@ -6193,36 +6175,77 @@
       </c>
       <c r="F152" s="4" t="inlineStr">
         <is>
-          <t>regex_pattern = r'[.,]+'</t>
+          <t>import re
+def decode(n,m, matrix) :
+    txt = ''
+    for z in zip(*matrix): txt += "".join(z)
+    return re.sub(r'\b[^a-zA-Z0-9]+\b', r' ', txt)
+nm = input().split()
+n = int(nm[0])
+m = int(nm[1])
+matrix = []
+for _ in range(n): matrix.append(input())
+print (decode(n,m,matrix))</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/re-split", "Python &gt; Regex and Parsing &gt; Re.split()")</f>
+        <v/>
+      </c>
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>8 months ago</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D153" s="3" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E153" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F153" s="4" t="inlineStr">
+        <is>
+          <t>regex_pattern = r'[.,]+'</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/re-sub-regex-substitution", "Python &gt; Regex and Parsing &gt; Regex Substitution")</f>
         <v/>
       </c>
-      <c r="B153" s="3" t="inlineStr">
+      <c r="B154" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C153" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D153" s="3" t="inlineStr">
+      <c r="C154" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D154" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E153" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F153" s="4" t="inlineStr">
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F154" s="4" t="inlineStr">
         <is>
           <t>import re
 for _ in range(int(input())) :
@@ -6233,32 +6256,32 @@
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2">
+    <row r="155">
+      <c r="A155" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/validating-named-email-addresses", "Python &gt; Regex and Parsing &gt; Validating and Parsing Email Addresses")</f>
         <v/>
       </c>
-      <c r="B154" s="3" t="inlineStr">
+      <c r="B155" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C154" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D154" s="3" t="inlineStr">
+      <c r="C155" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D155" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E154" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F154" s="4" t="inlineStr">
+      <c r="E155" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F155" s="4" t="inlineStr">
         <is>
           <t>import re
 regex = r'[a-zA-Z]+[\w.-]+\@[a-zA-Z]+[a-zA-Z0-9]*[.][a-zA-Z]{1,3}$'
@@ -6269,32 +6292,32 @@
         </is>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2">
+    <row r="156">
+      <c r="A156" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/validating-credit-card-number", "Python &gt; Regex and Parsing &gt; Validating Credit Card Numbers")</f>
         <v/>
       </c>
-      <c r="B155" s="3" t="inlineStr">
+      <c r="B156" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C155" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D155" s="3" t="inlineStr">
+      <c r="C156" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D156" s="3" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="E155" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F155" s="4" t="inlineStr">
+      <c r="E156" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F156" s="4" t="inlineStr">
         <is>
           <t>import re
 def valid_creditcardNumber(s) :
@@ -6308,32 +6331,32 @@
         </is>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2">
+    <row r="157">
+      <c r="A157" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/validating-the-phone-number", "Python &gt; Regex and Parsing &gt; Validating phone numbers")</f>
         <v/>
       </c>
-      <c r="B156" s="3" t="inlineStr">
+      <c r="B157" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C156" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D156" s="3" t="inlineStr">
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E156" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F156" s="4" t="inlineStr">
+      <c r="E157" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F157" s="4" t="inlineStr">
         <is>
           <t>import re
 regex = r'[7-9]\d{9}$' 
@@ -6342,95 +6365,95 @@
         </is>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2">
+    <row r="158">
+      <c r="A158" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/validating-postalcode", "Python &gt; Regex and Parsing &gt; Validating Postal Codes")</f>
         <v/>
       </c>
-      <c r="B157" s="3" t="inlineStr">
+      <c r="B158" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C157" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D157" s="3" t="inlineStr">
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D158" s="3" t="inlineStr">
         <is>
           <t>80.0</t>
         </is>
       </c>
-      <c r="E157" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F157" s="4" t="inlineStr">
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F158" s="4" t="inlineStr">
         <is>
           <t>regex_integer_in_range = r'^[1-9][\d]{5}$'
 regex_alternating_repetitive_digit_pair = r'(\d)(?=\d\1)'</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/validate-a-roman-number", "Python &gt; Regex and Parsing &gt; Validating Roman Numerals")</f>
-        <v/>
-      </c>
-      <c r="B158" s="3" t="inlineStr">
-        <is>
-          <t>8 months ago</t>
-        </is>
-      </c>
-      <c r="C158" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D158" s="3" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="E158" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F158" s="4" t="inlineStr">
-        <is>
-          <t>regex_pattern = r'^M{0,3}(CM|CD|D?C{0,3})(XC|XL|L?X{0,3})(IX|IV|V?I{0,3})$'</t>
-        </is>
-      </c>
-    </row>
     <row r="159">
       <c r="A159" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/validate-a-roman-number", "Python &gt; Regex and Parsing &gt; Validating Roman Numerals")</f>
+        <v/>
+      </c>
+      <c r="B159" s="3" t="inlineStr">
+        <is>
+          <t>8 months ago</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D159" s="3" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E159" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F159" s="4" t="inlineStr">
+        <is>
+          <t>regex_pattern = r'^M{0,3}(CM|CD|D?C{0,3})(XC|XL|L?X{0,3})(IX|IV|V?I{0,3})$'</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/validating-uid", "Python &gt; Regex and Parsing &gt; Validating UID ")</f>
         <v/>
       </c>
-      <c r="B159" s="3" t="inlineStr">
+      <c r="B160" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C159" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D159" s="3" t="inlineStr">
+      <c r="C160" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D160" s="3" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="E159" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F159" s="4" t="inlineStr">
+      <c r="E160" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F160" s="4" t="inlineStr">
         <is>
           <t>import re
 for _ in range(int(input())):
@@ -6446,32 +6469,32 @@
         </is>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2">
+    <row r="161">
+      <c r="A161" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-check-strict-superset", "Python &gt; Sets &gt; Check Strict Superset")</f>
         <v/>
       </c>
-      <c r="B160" s="3" t="inlineStr">
-        <is>
-          <t>8 months ago</t>
-        </is>
-      </c>
-      <c r="C160" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D160" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E160" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F160" s="4" t="inlineStr">
+      <c r="B161" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C161" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D161" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E161" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F161" s="4" t="inlineStr">
         <is>
           <t>A = set(map(int,input().split()))
 n = int(input())
@@ -6483,32 +6506,32 @@
         </is>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2">
+    <row r="162">
+      <c r="A162" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-check-subset", "Python &gt; Sets &gt; Check Subset")</f>
         <v/>
       </c>
-      <c r="B161" s="3" t="inlineStr">
-        <is>
-          <t>8 months ago</t>
-        </is>
-      </c>
-      <c r="C161" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D161" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E161" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F161" s="4" t="inlineStr">
+      <c r="B162" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C162" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D162" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E162" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F162" s="4" t="inlineStr">
         <is>
           <t>T = int(input())
 for _ in range(T):
@@ -6520,32 +6543,32 @@
         </is>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2">
+    <row r="163">
+      <c r="A163" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-introduction-to-sets", "Python &gt; Sets &gt; Introduction to Sets")</f>
         <v/>
       </c>
-      <c r="B162" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C162" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D162" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E162" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F162" s="4" t="inlineStr">
+      <c r="B163" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C163" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D163" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E163" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F163" s="4" t="inlineStr">
         <is>
           <t>def average(array):
     l = list(set(array))
@@ -6553,32 +6576,32 @@
         </is>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2">
+    <row r="164">
+      <c r="A164" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/no-idea", "Python &gt; Sets &gt; No Idea!")</f>
         <v/>
       </c>
-      <c r="B163" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C163" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D163" s="3" t="inlineStr">
+      <c r="B164" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C164" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D164" s="3" t="inlineStr">
         <is>
           <t>50.0</t>
         </is>
       </c>
-      <c r="E163" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F163" s="4" t="inlineStr">
+      <c r="E164" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F164" s="4" t="inlineStr">
         <is>
           <t>def happiness(arr,A,B) :
     happy = 0
@@ -6593,59 +6616,65 @@
         </is>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/py-set-add", "Python &gt; Sets &gt; Set .add() ")</f>
-        <v/>
-      </c>
-      <c r="B164" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C164" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D164" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E164" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F164" s="4" t="inlineStr"/>
-    </row>
     <row r="165">
       <c r="A165" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/py-set-add", "Python &gt; Sets &gt; Set .add() ")</f>
+        <v/>
+      </c>
+      <c r="B165" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C165" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D165" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E165" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F165" s="4" t="inlineStr">
+        <is>
+          <t>S = set()
+for _ in range(int(input())) : S.add(input())
+print (len(list(S)))</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-set-difference-operation", "Python &gt; Sets &gt; Set .difference() Operation")</f>
         <v/>
       </c>
-      <c r="B165" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C165" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D165" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E165" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F165" s="4" t="inlineStr">
+      <c r="B166" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C166" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D166" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E166" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F166" s="4" t="inlineStr">
         <is>
           <t>ignore = input()
 A = set(map(int,input().split()))
@@ -6655,32 +6684,32 @@
         </is>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2">
+    <row r="167">
+      <c r="A167" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-set-discard-remove-pop", "Python &gt; Sets &gt; Set .discard(), .remove() &amp; .pop()")</f>
         <v/>
       </c>
-      <c r="B166" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C166" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D166" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E166" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F166" s="4" t="inlineStr">
+      <c r="B167" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D167" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E167" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F167" s="4" t="inlineStr">
         <is>
           <t>(_, A, N) = (int(input()), set(map(int, input().split())), int(input()))
 for _ in range(N):
@@ -6697,32 +6726,32 @@
         </is>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2">
+    <row r="168">
+      <c r="A168" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-set-intersection-operation", "Python &gt; Sets &gt; Set .intersection() Operation")</f>
         <v/>
       </c>
-      <c r="B167" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C167" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D167" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E167" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F167" s="4" t="inlineStr">
+      <c r="B168" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C168" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D168" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E168" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F168" s="4" t="inlineStr">
         <is>
           <t>ignore = input()
 A = set(map(int,input().split()))
@@ -6732,32 +6761,32 @@
         </is>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2">
+    <row r="169">
+      <c r="A169" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-set-symmetric-difference-operation", "Python &gt; Sets &gt; Set .symmetric_difference() Operation")</f>
         <v/>
       </c>
-      <c r="B168" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C168" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D168" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E168" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F168" s="4" t="inlineStr">
+      <c r="B169" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D169" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E169" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F169" s="4" t="inlineStr">
         <is>
           <t>ignore = input()
 A = set(map(int,input().split()))
@@ -6767,32 +6796,32 @@
         </is>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2">
+    <row r="170">
+      <c r="A170" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-set-union", "Python &gt; Sets &gt; Set .union() Operation")</f>
         <v/>
       </c>
-      <c r="B169" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C169" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D169" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E169" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F169" s="4" t="inlineStr">
+      <c r="B170" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C170" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D170" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E170" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F170" s="4" t="inlineStr">
         <is>
           <t>ignore = input()
 A = set(map(int,input().split()))
@@ -6802,32 +6831,32 @@
         </is>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2">
+    <row r="171">
+      <c r="A171" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-set-mutations", "Python &gt; Sets &gt; Set Mutations")</f>
         <v/>
       </c>
-      <c r="B170" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C170" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D170" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E170" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F170" s="4" t="inlineStr">
+      <c r="B171" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D171" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E171" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F171" s="4" t="inlineStr">
         <is>
           <t>_ = input()
 A = set(map(int,input().split()))
@@ -6847,32 +6876,32 @@
         </is>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2">
+    <row r="172">
+      <c r="A172" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/symmetric-difference", "Python &gt; Sets &gt; Symmetric Difference")</f>
         <v/>
       </c>
-      <c r="B171" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C171" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D171" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E171" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F171" s="4" t="inlineStr">
+      <c r="B172" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C172" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D172" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E172" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F172" s="4" t="inlineStr">
         <is>
           <t>ignore = input()
 A = set(map(int,input().split()))
@@ -6883,32 +6912,32 @@
         </is>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2">
+    <row r="173">
+      <c r="A173" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/py-the-captains-room", "Python &gt; Sets &gt; The Captain's Room ")</f>
         <v/>
       </c>
-      <c r="B172" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C172" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D172" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E172" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F172" s="4" t="inlineStr">
+      <c r="B173" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D173" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E173" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F173" s="4" t="inlineStr">
         <is>
           <t>K = int(input())
 arr = input().split()
@@ -6917,32 +6946,32 @@
         </is>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2">
+    <row r="174">
+      <c r="A174" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/alphabet-rangoli", "Python &gt; Strings &gt; Alphabet Rangoli")</f>
         <v/>
       </c>
-      <c r="B173" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C173" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D173" s="3" t="inlineStr">
+      <c r="B174" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C174" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D174" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E173" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F173" s="4" t="inlineStr">
+      <c r="E174" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F174" s="4" t="inlineStr">
         <is>
           <t>def print_rangoli(size):
     def print_lines(_from, _to, _step=1) :
@@ -6956,32 +6985,32 @@
         </is>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2">
+    <row r="175">
+      <c r="A175" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/capitalize", "Python &gt; Strings &gt; Capitalize!")</f>
         <v/>
       </c>
-      <c r="B174" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C174" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D174" s="3" t="inlineStr">
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D175" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E174" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F174" s="4" t="inlineStr">
+      <c r="E175" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F175" s="4" t="inlineStr">
         <is>
           <t># Complete the solve function below.
 def solve(s):
@@ -6994,32 +7023,32 @@
         </is>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2">
+    <row r="176">
+      <c r="A176" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/designer-door-mat", "Python &gt; Strings &gt; Designer Door Mat")</f>
         <v/>
       </c>
-      <c r="B175" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C175" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D175" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E175" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F175" s="4" t="inlineStr">
+      <c r="B176" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C176" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D176" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E176" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F176" s="4" t="inlineStr">
         <is>
           <t>(n, m) = map(int, input().split())
 PATTERN = '.|.'; pattern = PATTERN
@@ -7035,32 +7064,32 @@
         </is>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2">
+    <row r="177">
+      <c r="A177" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/find-a-string", "Python &gt; Strings &gt; Find a string")</f>
         <v/>
       </c>
-      <c r="B176" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C176" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D176" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E176" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F176" s="4" t="inlineStr">
+      <c r="B177" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D177" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E177" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F177" s="4" t="inlineStr">
         <is>
           <t>def count_substring(string, sub_string):
     _count = 0
@@ -7070,32 +7099,32 @@
         </is>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2">
+    <row r="178">
+      <c r="A178" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/merge-the-tools", "Python &gt; Strings &gt; Merge the Tools!")</f>
         <v/>
       </c>
-      <c r="B177" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C177" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D177" s="3" t="inlineStr">
+      <c r="B178" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C178" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D178" s="3" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="E177" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F177" s="4" t="inlineStr">
+      <c r="E178" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F178" s="4" t="inlineStr">
         <is>
           <t>def substringOf(s) :
     str = ''
@@ -7108,64 +7137,64 @@
         </is>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2">
+    <row r="179">
+      <c r="A179" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-mutations", "Python &gt; Strings &gt; Mutations")</f>
         <v/>
       </c>
-      <c r="B178" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C178" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D178" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E178" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F178" s="4" t="inlineStr">
+      <c r="B179" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C179" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D179" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E179" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F179" s="4" t="inlineStr">
         <is>
           <t>def mutate_string(string, position, character):
     return string[:position]+character+string[position+1:]</t>
         </is>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2">
+    <row r="180">
+      <c r="A180" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-string-formatting", "Python &gt; Strings &gt; String Formatting")</f>
         <v/>
       </c>
-      <c r="B179" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C179" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D179" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E179" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F179" s="4" t="inlineStr">
+      <c r="B180" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C180" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D180" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E180" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F180" s="4" t="inlineStr">
         <is>
           <t>def print_formatted(number):
     width = len(('{0:b}'.format(number))) + 1
@@ -7178,64 +7207,64 @@
         </is>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2">
+    <row r="181">
+      <c r="A181" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/python-string-split-and-join", "Python &gt; Strings &gt; String Split and Join")</f>
         <v/>
       </c>
-      <c r="B180" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C180" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D180" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E180" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F180" s="4" t="inlineStr">
+      <c r="B181" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D181" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E181" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F181" s="4" t="inlineStr">
         <is>
           <t>def split_and_join(line):
     return '-'.join(line.split())</t>
         </is>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2">
+    <row r="182">
+      <c r="A182" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/string-validators", "Python &gt; Strings &gt; String Validators")</f>
         <v/>
       </c>
-      <c r="B181" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C181" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D181" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E181" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F181" s="4" t="inlineStr">
+      <c r="B182" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C182" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D182" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E182" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F182" s="4" t="inlineStr">
         <is>
           <t>s = input()
 print(len([ x for x in s if x.isalnum()])&gt;0)
@@ -7246,32 +7275,32 @@
         </is>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2">
+    <row r="183">
+      <c r="A183" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/swap-case", "Python &gt; Strings &gt; sWAP cASE")</f>
         <v/>
       </c>
-      <c r="B182" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C182" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D182" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E182" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F182" s="4" t="inlineStr">
+      <c r="B183" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C183" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D183" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E183" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F183" s="4" t="inlineStr">
         <is>
           <t>def swap_case(s):
     result = ''
@@ -7282,32 +7311,32 @@
         </is>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2">
+    <row r="184">
+      <c r="A184" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/text-alignment", "Python &gt; Strings &gt; Text Alignment")</f>
         <v/>
       </c>
-      <c r="B183" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C183" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D183" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E183" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F183" s="4" t="inlineStr">
+      <c r="B184" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C184" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D184" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E184" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F184" s="4" t="inlineStr">
         <is>
           <t>#Replace all ______ with rjust, ljust or center. 
 thickness = int(input()) #This must be an odd number
@@ -7330,73 +7359,35 @@
         </is>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2">
+    <row r="185">
+      <c r="A185" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/text-wrap", "Python &gt; Strings &gt; Text Wrap")</f>
         <v/>
       </c>
-      <c r="B184" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C184" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D184" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E184" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F184" s="4" t="inlineStr">
+      <c r="B185" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D185" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E185" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F185" s="4" t="inlineStr">
         <is>
           <t>def wrap(string, max_width):
     return '\n'.join(textwrap.wrap(string, max_width))</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/the-minion-game", "Python &gt; Strings &gt; The Minion Game")</f>
-        <v/>
-      </c>
-      <c r="B185" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C185" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D185" s="3" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="E185" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F185" s="4" t="inlineStr">
-        <is>
-          <t>def minion_game(string):
-    startsWithWowel, startsWithConsonant = 0, 0
-    for i, c in enumerate(string) :
-        if c in 'AEIOU' : startsWithWowel += len(string)-i
-        else : startsWithConsonant += len(string)-i
-    if startsWithWowel == startsWithConsonant : print ('Draw')
-    elif startsWithWowel &gt; startsWithConsonant : print ('Kevin', startsWithWowel)
-    else : print ('Stuart', startsWithConsonant)</t>
         </is>
       </c>
     </row>
@@ -7434,30 +7425,64 @@
     </row>
     <row r="187">
       <c r="A187" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/xml-1-find-the-score", "Python &gt; XML &gt; XML 1 - Find the Score")</f>
+        <v/>
+      </c>
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>about 13 hours ago</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D187" s="3" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E187" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F187" s="4" t="inlineStr">
+        <is>
+          <t>def get_attr_number(node):
+    count = 0
+    for elem in node.iter() : count += len(elem.attrib)
+    return count</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/xml2-find-the-maximum-depth", "Python &gt; XML &gt; XML2 - Find the Maximum Depth")</f>
         <v/>
       </c>
-      <c r="B187" s="3" t="inlineStr">
+      <c r="B188" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C187" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D187" s="3" t="inlineStr">
+      <c r="C188" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D188" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E187" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F187" s="4" t="inlineStr">
+      <c r="E188" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F188" s="4" t="inlineStr">
         <is>
           <t># solution from https://docs.python.org/3.3/library/xml.etree.elementtree.html#xmlparser-objects
 from xml.etree.ElementTree import XMLParser
@@ -7484,32 +7509,32 @@
         </is>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2">
+    <row r="189">
+      <c r="A189" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/find-hackerrank", "Regex &gt; Applications &gt; Find HackerRank")</f>
         <v/>
       </c>
-      <c r="B188" s="3" t="inlineStr">
-        <is>
-          <t>30 days ago</t>
-        </is>
-      </c>
-      <c r="C188" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D188" s="3" t="inlineStr">
+      <c r="B189" s="3" t="inlineStr">
+        <is>
+          <t>about 1 month ago</t>
+        </is>
+      </c>
+      <c r="C189" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D189" s="3" t="inlineStr">
         <is>
           <t>15.0</t>
         </is>
       </c>
-      <c r="E188" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F188" s="4" t="inlineStr">
+      <c r="E189" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F189" s="4" t="inlineStr">
         <is>
           <t>import re
 for _ in range(int(input())):
@@ -7523,40 +7548,9 @@
         </is>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-anything-but-new-line", "Regex &gt; Introduction &gt; Matching Anything But a Newline")</f>
-        <v/>
-      </c>
-      <c r="B189" s="3" t="inlineStr">
-        <is>
-          <t>8 months ago</t>
-        </is>
-      </c>
-      <c r="C189" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D189" s="3" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="E189" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F189" s="4" t="inlineStr">
-        <is>
-          <t>regex_pattern = r'^...\....\....\....$'</t>
-        </is>
-      </c>
-    </row>
     <row r="190">
       <c r="A190" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-digits-non-digit-character", "Regex &gt; Introduction &gt; Matching Digits &amp; Non-Digit Characters")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-anything-but-new-line", "Regex &gt; Introduction &gt; Matching Anything But a Newline")</f>
         <v/>
       </c>
       <c r="B190" s="3" t="inlineStr">
@@ -7581,13 +7575,13 @@
       </c>
       <c r="F190" s="4" t="inlineStr">
         <is>
-          <t>Regex_Pattern = r"\d\d\D\d\d\D\d\d\d\d" # Do not delete 'r'.</t>
+          <t>regex_pattern = r'^...\....\....\....$'</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-specific-string", "Regex &gt; Introduction &gt; Matching Specific String")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-digits-non-digit-character", "Regex &gt; Introduction &gt; Matching Digits &amp; Non-Digit Characters")</f>
         <v/>
       </c>
       <c r="B191" s="3" t="inlineStr">
@@ -7612,13 +7606,13 @@
       </c>
       <c r="F191" s="4" t="inlineStr">
         <is>
-          <t>Regex_Pattern = r'hackerrank'</t>
+          <t>Regex_Pattern = r"\d\d\D\d\d\D\d\d\d\d" # Do not delete 'r'.</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-start-end", "Regex &gt; Introduction &gt; Matching Start &amp; End")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-specific-string", "Regex &gt; Introduction &gt; Matching Specific String")</f>
         <v/>
       </c>
       <c r="B192" s="3" t="inlineStr">
@@ -7643,13 +7637,13 @@
       </c>
       <c r="F192" s="4" t="inlineStr">
         <is>
-          <t>Regex_Pattern = r"^\d\w{4}\.$"</t>
+          <t>Regex_Pattern = r'hackerrank'</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-whitespace-non-whitespace-character", "Regex &gt; Introduction &gt; Matching Whitespace &amp; Non-Whitespace Character")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-start-end", "Regex &gt; Introduction &gt; Matching Start &amp; End")</f>
         <v/>
       </c>
       <c r="B193" s="3" t="inlineStr">
@@ -7674,13 +7668,13 @@
       </c>
       <c r="F193" s="4" t="inlineStr">
         <is>
-          <t>Regex_Pattern = r"\S{2}\s\S{2}\s\S{2}"</t>
+          <t>Regex_Pattern = r"^\d\w{4}\.$"</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-word-non-word", "Regex &gt; Introduction &gt; Matching Word &amp; Non-Word Character")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-whitespace-non-whitespace-character", "Regex &gt; Introduction &gt; Matching Whitespace &amp; Non-Whitespace Character")</f>
         <v/>
       </c>
       <c r="B194" s="3" t="inlineStr">
@@ -7705,18 +7699,18 @@
       </c>
       <c r="F194" s="4" t="inlineStr">
         <is>
-          <t>Regex_Pattern = r"\w{3}\W\w{10}\W\w{3}"</t>
+          <t>Regex_Pattern = r"\S{2}\s\S{2}\s\S{2}"</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/japan-population", "SQL &gt; Aggregation &gt; Japan Population")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/matching-word-non-word", "Regex &gt; Introduction &gt; Matching Word &amp; Non-Word Character")</f>
         <v/>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>8 months ago</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
@@ -7726,28 +7720,28 @@
       </c>
       <c r="D195" s="3" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>Python 3</t>
         </is>
       </c>
       <c r="F195" s="4" t="inlineStr">
         <is>
-          <t>select sum(POPULATION) from CITY where COUNTRYCODE='JPN';</t>
+          <t>Regex_Pattern = r"\w{3}\W\w{10}\W\w{3}"</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/population-density-difference", "SQL &gt; Aggregation &gt; Population Density Difference")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/japan-population", "SQL &gt; Aggregation &gt; Japan Population")</f>
         <v/>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>about 6 hours ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -7767,18 +7761,18 @@
       </c>
       <c r="F196" s="4" t="inlineStr">
         <is>
-          <t>select max(POPULATION)-min(POPULATION) from CITY;</t>
+          <t>select sum(POPULATION) from CITY where COUNTRYCODE='JPN';</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/revising-aggregations-the-count-function", "SQL &gt; Aggregation &gt; Revising Aggregations - The Count Function")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/population-density-difference", "SQL &gt; Aggregation &gt; Population Density Difference")</f>
         <v/>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>5 days ago</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
@@ -7798,18 +7792,18 @@
       </c>
       <c r="F197" s="4" t="inlineStr">
         <is>
-          <t>select count(NAME) from CITY where POPULATION &gt; 100000;</t>
+          <t>select max(POPULATION)-min(POPULATION) from CITY;</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/revising-aggregations-sum", "SQL &gt; Aggregation &gt; Revising Aggregations - The Sum Function")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/revising-aggregations-the-count-function", "SQL &gt; Aggregation &gt; Revising Aggregations - The Count Function")</f>
         <v/>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
@@ -7827,134 +7821,161 @@
           <t>Oracle</t>
         </is>
       </c>
-      <c r="F198" s="4" t="inlineStr">
-        <is>
-          <t>select sum(POPULATION) from CITY where DISTRICT = 'California';</t>
-        </is>
-      </c>
+      <c r="F198" s="4" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/revising-aggregations-sum", "SQL &gt; Aggregation &gt; Revising Aggregations - The Sum Function")</f>
+        <v/>
+      </c>
+      <c r="B199" s="3" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="C199" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D199" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E199" s="3" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="F199" s="4" t="inlineStr">
+        <is>
+          <t>select sum(POPULATION) from CITY where DISTRICT = 'California';</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-18", "SQL &gt; Aggregation &gt; Weather Observation Station 18")</f>
         <v/>
       </c>
-      <c r="B199" s="3" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="C199" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D199" s="3" t="inlineStr">
+      <c r="B200" s="3" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="C200" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D200" s="3" t="inlineStr">
         <is>
           <t>25.0</t>
         </is>
       </c>
-      <c r="E199" s="3" t="inlineStr">
+      <c r="E200" s="3" t="inlineStr">
         <is>
           <t>Oracle</t>
         </is>
       </c>
-      <c r="F199" s="4" t="inlineStr">
+      <c r="F200" s="4" t="inlineStr">
         <is>
           <t>-- Manhattan distance: |x1 - x2| + |y1 - y2|
 select round(max(LONG_W)-min(LONG_W) + max(LAT_N)-min(LAT_N), 4) from STATION;</t>
         </is>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2">
+    <row r="201">
+      <c r="A201" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/african-cities", "SQL &gt; Basic Join &gt; African Cities")</f>
         <v/>
       </c>
-      <c r="B200" s="3" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="C200" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D200" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E200" s="3" t="inlineStr">
+      <c r="B201" s="3" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D201" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E201" s="3" t="inlineStr">
         <is>
           <t>Oracle</t>
         </is>
       </c>
-      <c r="F200" s="4" t="inlineStr">
+      <c r="F201" s="4" t="inlineStr">
         <is>
           <t>select ci.NAME from CITY ci, COUNTRY co 
 where ci.COUNTRYCODE = co.CODE and co.CONTINENT = 'Africa';</t>
         </is>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2">
+    <row r="202">
+      <c r="A202" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/asian-population", "SQL &gt; Basic Join &gt; Asian Population")</f>
         <v/>
       </c>
-      <c r="B201" s="3" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="C201" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D201" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E201" s="3" t="inlineStr">
+      <c r="B202" s="3" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="C202" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D202" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E202" s="3" t="inlineStr">
         <is>
           <t>Oracle</t>
         </is>
       </c>
-      <c r="F201" s="4" t="inlineStr">
+      <c r="F202" s="4" t="inlineStr">
         <is>
           <t>select sum(ci.POPULATION) from CITY ci, COUNTRY co 
 where ci.COUNTRYCODE = co.CODE and co.CONTINENT = 'Asia';</t>
         </is>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2">
+    <row r="203">
+      <c r="A203" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/average-population-of-each-continent", "SQL &gt; Basic Join &gt; Average Population of Each Continent")</f>
         <v/>
       </c>
-      <c r="B202" s="3" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="C202" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D202" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E202" s="3" t="inlineStr">
+      <c r="B203" s="3" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="C203" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D203" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E203" s="3" t="inlineStr">
         <is>
           <t>Oracle</t>
         </is>
       </c>
-      <c r="F202" s="4" t="inlineStr">
+      <c r="F203" s="4" t="inlineStr">
         <is>
           <t>select co.CONTINENT, floor(sum(ci.POPULATION)/count(ci.NAME)) from CITY ci, COUNTRY co 
 where ci.COUNTRYCODE = co.CODE 
@@ -7962,32 +7983,32 @@
         </is>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2">
+    <row r="204">
+      <c r="A204" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/the-report", "SQL &gt; Basic Join &gt; The Report")</f>
         <v/>
       </c>
-      <c r="B203" s="3" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="C203" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D203" s="3" t="inlineStr">
+      <c r="B204" s="3" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="C204" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D204" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E203" s="3" t="inlineStr">
+      <c r="E204" s="3" t="inlineStr">
         <is>
           <t>Oracle</t>
         </is>
       </c>
-      <c r="F203" s="4" t="inlineStr">
+      <c r="F204" s="4" t="inlineStr">
         <is>
           <t>select (case when Grade &lt; 8 then NULL else Name end) Name, Grade, Marks
 from (select Name, Grade, Marks from Students, Grades
@@ -7997,32 +8018,32 @@
         </is>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2">
+    <row r="205">
+      <c r="A205" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/more-than-75-marks", "SQL &gt; Basic Select &gt; Higher Than 75 Marks")</f>
         <v/>
       </c>
-      <c r="B204" s="3" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="C204" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D204" s="3" t="inlineStr">
+      <c r="B205" s="3" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="C205" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D205" s="3" t="inlineStr">
         <is>
           <t>15.0</t>
         </is>
       </c>
-      <c r="E204" s="3" t="inlineStr">
+      <c r="E205" s="3" t="inlineStr">
         <is>
           <t>Oracle</t>
         </is>
       </c>
-      <c r="F204" s="4" t="inlineStr">
+      <c r="F205" s="4" t="inlineStr">
         <is>
           <t>select Name from STUDENTS 
 where Marks &gt; 75 
@@ -8030,45 +8051,14 @@
         </is>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/japanese-cities-attributes", "SQL &gt; Basic Select &gt; Japanese Cities' Attributes")</f>
-        <v/>
-      </c>
-      <c r="B205" s="3" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="C205" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D205" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E205" s="3" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-      <c r="F205" s="4" t="inlineStr">
-        <is>
-          <t>select * from CITY where COUNTRYCODE='JPN';</t>
-        </is>
-      </c>
-    </row>
     <row r="206">
       <c r="A206" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/japanese-cities-name", "SQL &gt; Basic Select &gt; Japanese Cities' Names")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/japanese-cities-attributes", "SQL &gt; Basic Select &gt; Japanese Cities' Attributes")</f>
         <v/>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
@@ -8088,18 +8078,18 @@
       </c>
       <c r="F206" s="4" t="inlineStr">
         <is>
-          <t>select NAME from CITY where COUNTRYCODE='JPN';</t>
+          <t>select * from CITY where COUNTRYCODE='JPN';</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/revising-the-select-query", "SQL &gt; Basic Select &gt; Revising the Select Query I")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/japanese-cities-name", "SQL &gt; Basic Select &gt; Japanese Cities' Names")</f>
         <v/>
       </c>
       <c r="B207" s="3" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
@@ -8119,18 +8109,18 @@
       </c>
       <c r="F207" s="4" t="inlineStr">
         <is>
-          <t>select * from CITY where COUNTRYCODE='USA' and POPULATION&gt;100000;</t>
+          <t>select NAME from CITY where COUNTRYCODE='JPN';</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/revising-the-select-query-2", "SQL &gt; Basic Select &gt; Revising the Select Query II")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/revising-the-select-query", "SQL &gt; Basic Select &gt; Revising the Select Query I")</f>
         <v/>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
@@ -8150,18 +8140,18 @@
       </c>
       <c r="F208" s="4" t="inlineStr">
         <is>
-          <t>select NAME from CITY where COUNTRYCODE='USA' and POPULATION&gt;120000;</t>
+          <t>select * from CITY where COUNTRYCODE='USA' and POPULATION&gt;100000;</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/select-all-sql", "SQL &gt; Basic Select &gt; Select All")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/revising-the-select-query-2", "SQL &gt; Basic Select &gt; Revising the Select Query II")</f>
         <v/>
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
@@ -8181,18 +8171,18 @@
       </c>
       <c r="F209" s="4" t="inlineStr">
         <is>
-          <t>select * from CITY;</t>
+          <t>select NAME from CITY where COUNTRYCODE='USA' and POPULATION&gt;120000;</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/select-by-id", "SQL &gt; Basic Select &gt; Select By ID")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/select-all-sql", "SQL &gt; Basic Select &gt; Select All")</f>
         <v/>
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
@@ -8212,18 +8202,18 @@
       </c>
       <c r="F210" s="4" t="inlineStr">
         <is>
-          <t>select * from CITY where ID=1661;</t>
+          <t>select * from CITY;</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-1", "SQL &gt; Basic Select &gt; Weather Observation Station 1")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/select-by-id", "SQL &gt; Basic Select &gt; Select By ID")</f>
         <v/>
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
@@ -8233,7 +8223,7 @@
       </c>
       <c r="D211" s="3" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E211" s="3" t="inlineStr">
@@ -8243,36 +8233,67 @@
       </c>
       <c r="F211" s="4" t="inlineStr">
         <is>
-          <t>select CITY, STATE from STATION;</t>
+          <t>select * from CITY where ID=1661;</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-1", "SQL &gt; Basic Select &gt; Weather Observation Station 1")</f>
+        <v/>
+      </c>
+      <c r="B212" s="3" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+      <c r="C212" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D212" s="3" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E212" s="3" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="F212" s="4" t="inlineStr">
+        <is>
+          <t>select CITY, STATE from STATION;</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-10", "SQL &gt; Basic Select &gt; Weather Observation Station 10")</f>
         <v/>
       </c>
-      <c r="B212" s="3" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="C212" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D212" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E212" s="3" t="inlineStr">
+      <c r="B213" s="3" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="C213" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D213" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E213" s="3" t="inlineStr">
         <is>
           <t>Oracle</t>
         </is>
       </c>
-      <c r="F212" s="4" t="inlineStr">
+      <c r="F213" s="4" t="inlineStr">
         <is>
           <t>select distinct(CITY) from STATION 
 where not (CITY like '%a' or CITY like '%e' or CITY like '%i' or 
@@ -8280,95 +8301,95 @@
         </is>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-11", "SQL &gt; Basic Select &gt; Weather Observation Station 11")</f>
-        <v/>
-      </c>
-      <c r="B213" s="3" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="C213" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D213" s="3" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="E213" s="3" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-      <c r="F213" s="4" t="inlineStr">
-        <is>
-          <t>select distinct(CITY) from STATION where not regexp_like (CITY, '^[aeiou].*[aeiou]$', 'i');</t>
-        </is>
-      </c>
-    </row>
     <row r="214">
       <c r="A214" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-11", "SQL &gt; Basic Select &gt; Weather Observation Station 11")</f>
+        <v/>
+      </c>
+      <c r="B214" s="3" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="C214" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D214" s="3" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E214" s="3" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="F214" s="4" t="inlineStr">
+        <is>
+          <t>select distinct(CITY) from STATION where not regexp_like (CITY, '^[aeiou].*[aeiou]$', 'i');</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-12", "SQL &gt; Basic Select &gt; Weather Observation Station 12")</f>
         <v/>
       </c>
-      <c r="B214" s="3" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="C214" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D214" s="3" t="inlineStr">
+      <c r="B215" s="3" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="C215" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D215" s="3" t="inlineStr">
         <is>
           <t>15.0</t>
         </is>
       </c>
-      <c r="E214" s="3" t="inlineStr">
+      <c r="E215" s="3" t="inlineStr">
         <is>
           <t>Oracle</t>
         </is>
       </c>
-      <c r="F214" s="4" t="inlineStr">
+      <c r="F215" s="4" t="inlineStr">
         <is>
           <t>select distinct(CITY) from STATION 
 where regexp_like (CITY, '^[^aeiou].*[^aeiou]$', 'i');</t>
         </is>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2">
+    <row r="216">
+      <c r="A216" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-3", "SQL &gt; Basic Select &gt; Weather Observation Station 3")</f>
         <v/>
       </c>
-      <c r="B215" s="3" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="C215" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D215" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E215" s="3" t="inlineStr">
+      <c r="B216" s="3" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+      <c r="C216" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D216" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E216" s="3" t="inlineStr">
         <is>
           <t>Oracle</t>
         </is>
       </c>
-      <c r="F215" s="4" t="inlineStr">
+      <c r="F216" s="4" t="inlineStr">
         <is>
           <t>select distinct(CITY) from STATION where mod(ID, 2) = 0;
 --
@@ -8377,45 +8398,14 @@
         </is>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-4", "SQL &gt; Basic Select &gt; Weather Observation Station 4")</f>
-        <v/>
-      </c>
-      <c r="B216" s="3" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="C216" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D216" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E216" s="3" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-      <c r="F216" s="4" t="inlineStr">
-        <is>
-          <t>select count(CITY) - count(distinct(CITY)) from STATION;</t>
-        </is>
-      </c>
-    </row>
     <row r="217">
       <c r="A217" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-5", "SQL &gt; Basic Select &gt; Weather Observation Station 5")</f>
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-4", "SQL &gt; Basic Select &gt; Weather Observation Station 4")</f>
         <v/>
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
@@ -8425,18 +8415,17 @@
       </c>
       <c r="D217" s="3" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="E217" s="3" t="inlineStr">
         <is>
-          <t>MS SQL</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="F217" s="4" t="inlineStr">
         <is>
-          <t>select top 1 s.CITY, len(s.CITY) from (select CITY from STATION) s order by len(CITY) asc, CITY asc;
-select top 1 s.CITY, len(s.CITY) from (select CITY from STATION) s order by len(CITY) desc, CITY desc;</t>
+          <t>select count(CITY) - count(distinct(CITY)) from STATION;</t>
         </is>
       </c>
     </row>
@@ -8447,7 +8436,7 @@
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>3 days ago</t>
+          <t>8 days ago</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
@@ -8462,42 +8451,74 @@
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
+          <t>MS SQL</t>
+        </is>
+      </c>
+      <c r="F218" s="4" t="inlineStr">
+        <is>
+          <t>select top 1 s.CITY, len(s.CITY) from (select CITY from STATION) s order by len(CITY) asc, CITY asc;
+select top 1 s.CITY, len(s.CITY) from (select CITY from STATION) s order by len(CITY) desc, CITY desc;</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-5", "SQL &gt; Basic Select &gt; Weather Observation Station 5")</f>
+        <v/>
+      </c>
+      <c r="B219" s="3" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+      <c r="C219" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D219" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E219" s="3" t="inlineStr">
+        <is>
           <t>Oracle</t>
         </is>
       </c>
-      <c r="F218" s="4" t="inlineStr">
+      <c r="F219" s="4" t="inlineStr">
         <is>
           <t>select * from (select CITY, length(CITY) from STATION order by length(CITY) asc, CITY asc) where rownum = 1;
 select * from (select CITY, length(CITY) from STATION order by length(CITY) desc, CITY desc) where rownum = 1;</t>
         </is>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2">
+    <row r="220">
+      <c r="A220" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-6", "SQL &gt; Basic Select &gt; Weather Observation Station 6")</f>
         <v/>
       </c>
-      <c r="B219" s="3" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="C219" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D219" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E219" s="3" t="inlineStr">
+      <c r="B220" s="3" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+      <c r="C220" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D220" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E220" s="3" t="inlineStr">
         <is>
           <t>MS SQL</t>
         </is>
       </c>
-      <c r="F219" s="4" t="inlineStr">
+      <c r="F220" s="4" t="inlineStr">
         <is>
           <t>select distinct(CITY) from STATION 
 where (CITY like 'A%' or CITY like 'E%' or CITY like 'I%' or 
@@ -8505,32 +8526,65 @@
         </is>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2">
+    <row r="221">
+      <c r="A221" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-6", "SQL &gt; Basic Select &gt; Weather Observation Station 6")</f>
+        <v/>
+      </c>
+      <c r="B221" s="3" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+      <c r="C221" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D221" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E221" s="3" t="inlineStr">
+        <is>
+          <t>Oracle</t>
+        </is>
+      </c>
+      <c r="F221" s="4" t="inlineStr">
+        <is>
+          <t>select distinct(CITY) from STATION 
+where (CITY like 'A%' or CITY like 'E%' or CITY like 'I%' or 
+       CITY like 'O%' or CITY like 'U%');</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-7", "SQL &gt; Basic Select &gt; Weather Observation Station 7")</f>
         <v/>
       </c>
-      <c r="B220" s="3" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="C220" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D220" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E220" s="3" t="inlineStr">
+      <c r="B222" s="3" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="C222" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D222" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E222" s="3" t="inlineStr">
         <is>
           <t>Oracle</t>
         </is>
       </c>
-      <c r="F220" s="4" t="inlineStr">
+      <c r="F222" s="4" t="inlineStr">
         <is>
           <t>select distinct(CITY) from STATION 
 where (CITY like '%a' or CITY like '%e' or CITY like '%i' or 
@@ -8538,32 +8592,32 @@
         </is>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2">
+    <row r="223">
+      <c r="A223" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-7", "SQL &gt; Basic Select &gt; Weather Observation Station 7")</f>
         <v/>
       </c>
-      <c r="B221" s="3" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="C221" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D221" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E221" s="3" t="inlineStr">
+      <c r="B223" s="3" t="inlineStr">
+        <is>
+          <t>7 days ago</t>
+        </is>
+      </c>
+      <c r="C223" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D223" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E223" s="3" t="inlineStr">
         <is>
           <t>MS SQL</t>
         </is>
       </c>
-      <c r="F221" s="4" t="inlineStr">
+      <c r="F223" s="4" t="inlineStr">
         <is>
           <t>select distinct(CITY) from STATION 
 where (CITY like '%A' or CITY like '%E' or CITY like '%I' or 
@@ -8571,68 +8625,6 @@
         </is>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-8", "SQL &gt; Basic Select &gt; Weather Observation Station 8")</f>
-        <v/>
-      </c>
-      <c r="B222" s="3" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="C222" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D222" s="3" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="E222" s="3" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-      <c r="F222" s="4" t="inlineStr">
-        <is>
-          <t>select distinct(CITY) from STATION where regexp_like (CITY, '^[aeiou].*[aeiou]$', 'i');</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-8", "SQL &gt; Basic Select &gt; Weather Observation Station 8")</f>
-        <v/>
-      </c>
-      <c r="B223" s="3" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="C223" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D223" s="3" t="inlineStr">
-        <is>
-          <t>15.0</t>
-        </is>
-      </c>
-      <c r="E223" s="3" t="inlineStr">
-        <is>
-          <t>MS SQL</t>
-        </is>
-      </c>
-      <c r="F223" s="4" t="inlineStr">
-        <is>
-          <t>select distinct(CITY) from STATION where CITY like '[aeiou]%[aeiou]'</t>
-        </is>
-      </c>
-    </row>
     <row r="224">
       <c r="A224" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-8", "SQL &gt; Basic Select &gt; Weather Observation Station 8")</f>
@@ -8640,7 +8632,7 @@
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>1 day ago</t>
+          <t>6 days ago</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
@@ -8655,41 +8647,103 @@
       </c>
       <c r="E224" s="3" t="inlineStr">
         <is>
-          <t>MySQL</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="F224" s="4" t="inlineStr">
         <is>
-          <t>select distinct(CITY) from station where CITY rlike '^[aeiou].*[aeiou]$'</t>
+          <t>select distinct(CITY) from STATION where regexp_like (CITY, '^[aeiou].*[aeiou]$', 'i');</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-8", "SQL &gt; Basic Select &gt; Weather Observation Station 8")</f>
+        <v/>
+      </c>
+      <c r="B225" s="3" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="C225" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D225" s="3" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E225" s="3" t="inlineStr">
+        <is>
+          <t>MS SQL</t>
+        </is>
+      </c>
+      <c r="F225" s="4" t="inlineStr">
+        <is>
+          <t>select distinct(CITY) from STATION where CITY like '[aeiou]%[aeiou]'</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-8", "SQL &gt; Basic Select &gt; Weather Observation Station 8")</f>
+        <v/>
+      </c>
+      <c r="B226" s="3" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="C226" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D226" s="3" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E226" s="3" t="inlineStr">
+        <is>
+          <t>MySQL</t>
+        </is>
+      </c>
+      <c r="F226" s="4" t="inlineStr">
+        <is>
+          <t>select distinct(CITY) from station where CITY rlike '^[aeiou].*[aeiou]$'</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-9", "SQL &gt; Basic Select &gt; Weather Observation Station 9")</f>
         <v/>
       </c>
-      <c r="B225" s="3" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="C225" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D225" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E225" s="3" t="inlineStr">
+      <c r="B227" s="3" t="inlineStr">
+        <is>
+          <t>6 days ago</t>
+        </is>
+      </c>
+      <c r="C227" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D227" s="3" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E227" s="3" t="inlineStr">
         <is>
           <t>Oracle</t>
         </is>
       </c>
-      <c r="F225" s="4" t="inlineStr">
+      <c r="F227" s="4" t="inlineStr">
         <is>
           <t>select distinct(CITY) from STATION 
 where not (CITY like 'A%' or CITY like 'E%' or CITY like 'I%' or 
@@ -8697,32 +8751,59 @@
         </is>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2">
+    <row r="228">
+      <c r="A228" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/the-minion-game", "The Minion Game")</f>
+        <v/>
+      </c>
+      <c r="B228" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C228" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D228" s="3" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E228" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F228" s="4" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/triple-sum", "Triple sum")</f>
         <v/>
       </c>
-      <c r="B226" s="3" t="inlineStr">
+      <c r="B229" s="3" t="inlineStr">
         <is>
           <t>8 months ago</t>
         </is>
       </c>
-      <c r="C226" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D226" s="3" t="inlineStr">
+      <c r="C229" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D229" s="3" t="inlineStr">
         <is>
           <t>40.0</t>
         </is>
       </c>
-      <c r="E226" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F226" s="4" t="inlineStr">
+      <c r="E229" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F229" s="4" t="inlineStr">
         <is>
           <t>'''
 # has 2 timeouts:
@@ -8751,32 +8832,32 @@
         </is>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2">
+    <row r="230">
+      <c r="A230" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/ctci-array-left-rotation", "Tutorials &gt; Cracking the Coding Interview &gt; Arrays: Left Rotation")</f>
         <v/>
       </c>
-      <c r="B227" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C227" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D227" s="3" t="inlineStr">
+      <c r="B230" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C230" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D230" s="3" t="inlineStr">
         <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="E227" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F227" s="4" t="inlineStr">
+      <c r="E230" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F230" s="4" t="inlineStr">
         <is>
           <t>#!/bin/python3
 _, d = map(int, input().split())
@@ -8785,32 +8866,32 @@
         </is>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2">
+    <row r="231">
+      <c r="A231" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/ctci-connected-cell-in-a-grid", "Tutorials &gt; Cracking the Coding Interview &gt; DFS: Connected Cell in a Grid")</f>
         <v/>
       </c>
-      <c r="B228" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C228" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D228" s="3" t="inlineStr">
+      <c r="B231" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C231" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D231" s="3" t="inlineStr">
         <is>
           <t>45.0</t>
         </is>
       </c>
-      <c r="E228" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F228" s="4" t="inlineStr">
+      <c r="E231" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F231" s="4" t="inlineStr">
         <is>
           <t>#!/bin/python3
 def maxRegion(grid, m, n):
@@ -8828,32 +8909,32 @@
         </is>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2">
+    <row r="232">
+      <c r="A232" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/ctci-ice-cream-parlor", "Tutorials &gt; Cracking the Coding Interview &gt; Hash Tables: Ice Cream Parlor")</f>
         <v/>
       </c>
-      <c r="B229" s="3" t="inlineStr">
-        <is>
-          <t>about 7 hours ago</t>
-        </is>
-      </c>
-      <c r="C229" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D229" s="3" t="inlineStr">
+      <c r="B232" s="3" t="inlineStr">
+        <is>
+          <t>5 days ago</t>
+        </is>
+      </c>
+      <c r="C232" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D232" s="3" t="inlineStr">
         <is>
           <t>35.0</t>
         </is>
       </c>
-      <c r="E229" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F229" s="4" t="inlineStr">
+      <c r="E232" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F232" s="4" t="inlineStr">
         <is>
           <t>def whatFlavors(cost, money):
     seen = {}
@@ -8871,32 +8952,32 @@
         </is>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2">
+    <row r="233">
+      <c r="A233" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/ctci-ransom-note", "Tutorials &gt; Cracking the Coding Interview &gt; Hash Tables: Ransom Note")</f>
         <v/>
       </c>
-      <c r="B230" s="3" t="inlineStr">
-        <is>
-          <t>8 months ago</t>
-        </is>
-      </c>
-      <c r="C230" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D230" s="3" t="inlineStr">
+      <c r="B233" s="3" t="inlineStr">
+        <is>
+          <t>9 months ago</t>
+        </is>
+      </c>
+      <c r="C233" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D233" s="3" t="inlineStr">
         <is>
           <t>25.0</t>
         </is>
       </c>
-      <c r="E230" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F230" s="4" t="inlineStr">
+      <c r="E233" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F233" s="4" t="inlineStr">
         <is>
           <t>from collections import Counter
 def checkMagazine(magazine, note):
@@ -8912,32 +8993,103 @@
         </is>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2">
+    <row r="234">
+      <c r="A234" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/ctci-recursive-staircase", "Tutorials &gt; Cracking the Coding Interview &gt; Recursion: Davis' Staircase")</f>
+        <v/>
+      </c>
+      <c r="B234" s="3" t="inlineStr">
+        <is>
+          <t>2 minutes ago</t>
+        </is>
+      </c>
+      <c r="C234" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D234" s="3" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="E234" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F234" s="4" t="inlineStr">
+        <is>
+          <t>possibleways = {0:0, 1:1, 2:2, 3:4}
+def stepPerms(n):
+    if n in possibleways: return possibleways[n]
+    possibleways[n] = stepPerms(n-3) + stepPerms(n-2) + stepPerms(n-1)
+    return possibleways[n]
+for _ in range(int(input())): print(stepPerms(int(input())))</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/challenges/ctci-fibonacci-numbers", "Tutorials &gt; Cracking the Coding Interview &gt; Recursion: Fibonacci Numbers")</f>
+        <v/>
+      </c>
+      <c r="B235" s="3" t="inlineStr">
+        <is>
+          <t>19 minutes ago</t>
+        </is>
+      </c>
+      <c r="C235" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D235" s="3" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E235" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F235" s="4" t="inlineStr">
+        <is>
+          <t>def fibonacci(n):
+    if n == 0 : return 0
+    if n == 1 : return 1
+    return fibonacci(n-1) + fibonacci(n-2)
+print(fibonacci(int(input())))</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/ctci-bubble-sort", "Tutorials &gt; Cracking the Coding Interview &gt; Sorting: Bubble Sort")</f>
         <v/>
       </c>
-      <c r="B231" s="3" t="inlineStr">
-        <is>
-          <t>3 days ago</t>
-        </is>
-      </c>
-      <c r="C231" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D231" s="3" t="inlineStr">
+      <c r="B236" s="3" t="inlineStr">
+        <is>
+          <t>8 days ago</t>
+        </is>
+      </c>
+      <c r="C236" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D236" s="3" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="E231" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F231" s="4" t="inlineStr">
+      <c r="E236" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F236" s="4" t="inlineStr">
         <is>
           <t>def countSwaps(A):
     countSwap = 0
@@ -8956,32 +9108,32 @@
         </is>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2">
+    <row r="237">
+      <c r="A237" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/ctci-comparator-sorting", "Tutorials &gt; Cracking the Coding Interview &gt; Sorting: Comparator")</f>
         <v/>
       </c>
-      <c r="B232" s="3" t="inlineStr">
-        <is>
-          <t>9 months ago</t>
-        </is>
-      </c>
-      <c r="C232" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D232" s="3" t="inlineStr">
+      <c r="B237" s="3" t="inlineStr">
+        <is>
+          <t>10 months ago</t>
+        </is>
+      </c>
+      <c r="C237" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D237" s="3" t="inlineStr">
         <is>
           <t>35.0</t>
         </is>
       </c>
-      <c r="E232" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F232" s="4" t="inlineStr">
+      <c r="E237" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F237" s="4" t="inlineStr">
         <is>
           <t>from functools import cmp_to_key
 class Player:
@@ -8999,32 +9151,32 @@
         </is>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2">
+    <row r="238">
+      <c r="A238" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/ctci-making-anagrams", "Tutorials &gt; Cracking the Coding Interview &gt; Strings: Making Anagrams")</f>
         <v/>
       </c>
-      <c r="B233" s="3" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="C233" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D233" s="3" t="inlineStr">
+      <c r="B238" s="3" t="inlineStr">
+        <is>
+          <t>9 days ago</t>
+        </is>
+      </c>
+      <c r="C238" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D238" s="3" t="inlineStr">
         <is>
           <t>25.0</t>
         </is>
       </c>
-      <c r="E233" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F233" s="4" t="inlineStr">
+      <c r="E238" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F238" s="4" t="inlineStr">
         <is>
           <t>#!/bin/python3
 def makeAnagram(a, b):
@@ -9040,32 +9192,32 @@
         </is>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2">
+    <row r="239">
+      <c r="A239" s="2">
         <f>HYPERLINK("https://www.hackerrank.com/challenges/ctci-big-o", "Tutorials &gt; Cracking the Coding Interview &gt; Time Complexity: Primality")</f>
         <v/>
       </c>
-      <c r="B234" s="3" t="inlineStr">
-        <is>
-          <t>4 days ago</t>
-        </is>
-      </c>
-      <c r="C234" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D234" s="3" t="inlineStr">
+      <c r="B239" s="3" t="inlineStr">
+        <is>
+          <t>9 days ago</t>
+        </is>
+      </c>
+      <c r="C239" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D239" s="3" t="inlineStr">
         <is>
           <t>30.0</t>
         </is>
       </c>
-      <c r="E234" s="3" t="inlineStr">
-        <is>
-          <t>Python 3</t>
-        </is>
-      </c>
-      <c r="F234" s="4" t="inlineStr">
+      <c r="E239" s="3" t="inlineStr">
+        <is>
+          <t>Python 3</t>
+        </is>
+      </c>
+      <c r="F239" s="4" t="inlineStr">
         <is>
           <t>#!/bin/python3
 from math import sqrt
@@ -9095,32 +9247,59 @@
         </is>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2">
-        <f>HYPERLINK("https://www.hackerrank.com/challenges/weather-observation-station-6", "Weather Observation Station 6")</f>
-        <v/>
-      </c>
-      <c r="B235" s="3" t="inlineStr">
-        <is>
-          <t>1 day ago</t>
-        </is>
-      </c>
-      <c r="C235" s="3" t="inlineStr">
-        <is>
-          <t>Accepted</t>
-        </is>
-      </c>
-      <c r="D235" s="3" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="E235" s="3" t="inlineStr">
-        <is>
-          <t>Oracle</t>
-        </is>
-      </c>
-      <c r="F235" s="4" t="inlineStr"/>
+    <row r="240">
+      <c r="A240" s="2">
+        <f>HYPERLINK("https://www.hackerrank.com/contests/hourrank-30/challenges/video-conference/", "Video Conference")</f>
+        <v/>
+      </c>
+      <c r="B240" s="3" t="inlineStr">
+        <is>
+          <t>17-Jun-2019</t>
+        </is>
+      </c>
+      <c r="C240" s="3" t="inlineStr">
+        <is>
+          <t>Accepted</t>
+        </is>
+      </c>
+      <c r="D240" s="3" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E240" s="3" t="inlineStr">
+        <is>
+          <t>python 3</t>
+        </is>
+      </c>
+      <c r="F240" s="4" t="inlineStr">
+        <is>
+          <t>from collections import defaultdict
+def solve(names):
+    result = []
+    allNames = defaultdict(int)
+    allPrefixes = set()
+    for name in names :
+        if name in allNames: 
+            allNames[name] += 1
+            result.append(f'{name} {allNames[name]}')
+        else:
+            allNames[name] = 1
+            prefix = ""
+            inserted = False
+            for i in range(len(name)) :
+                prefix += name[i:i+1]
+                if prefix not in allPrefixes and not inserted:
+                    inserted = True
+                    result.append(prefix)
+                allPrefixes.add(prefix)
+            if not inserted:
+                result.append(name)
+    return result
+names = []
+for _ in range(int(input())):</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
